--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ROUSS:</t>
         </r>
@@ -279,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -352,7 +352,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ROUSS:</t>
         </r>
@@ -361,7 +361,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="519">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1888,6 +1888,48 @@
   </si>
   <si>
     <t>NOMINA # 18</t>
+  </si>
+  <si>
+    <t>3-may-2023</t>
+  </si>
+  <si>
+    <t>4-may-2023</t>
+  </si>
+  <si>
+    <t>5-may-2023</t>
+  </si>
+  <si>
+    <t>SALCHICHA-JAMON-MAIZ-CHISTORRA-QUESOS-POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t>COMISION 3%</t>
+  </si>
+  <si>
+    <t>CHISTORRA-POLLO-QUESOS-CHORIZO-PASTOR-SALCHICHAS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-ENCHILADA-LONGANIZ</t>
+  </si>
+  <si>
+    <t>DIA MADRES</t>
+  </si>
+  <si>
+    <t>PICAÑA--POLLO</t>
+  </si>
+  <si>
+    <t>SALCHICHA-QUESO-POLLO</t>
+  </si>
+  <si>
+    <t>MAIZ-QUESOS-JAMON-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 19</t>
+  </si>
+  <si>
+    <t>NOMINA #19</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-CREMA-PEPERONI-CHISTORRA-JAMON-TOSTADAS</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1944,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2259,19 +2301,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3509,7 +3538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4296,7 +4325,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4374,6 +4403,40 @@
     <xf numFmtId="165" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4449,39 +4512,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4548,7 +4578,9 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="21" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7067,7 +7099,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7093,23 +7125,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="497"/>
-      <c r="C1" s="499" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="475" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
-      <c r="L1" s="500"/>
-      <c r="M1" s="500"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="498"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7119,24 +7151,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="502"/>
+      <c r="B3" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="478"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="503"/>
+      <c r="I3" s="479"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="524" t="s">
+      <c r="Q3" s="527" t="s">
+        <v>509</v>
+      </c>
+      <c r="R3" s="525" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7151,14 +7186,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="470" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="471"/>
-      <c r="H4" s="472" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7168,11 +7203,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="525"/>
+      <c r="R4" s="526"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7204,7 +7239,7 @@
         <v>45052</v>
       </c>
       <c r="K5" s="356" t="s">
-        <v>504</v>
+        <v>10</v>
       </c>
       <c r="L5" s="13">
         <v>22632</v>
@@ -7219,7 +7254,7 @@
         <f t="shared" ref="P5:P43" si="0">N5+M5+L5+I5+C5</f>
         <v>170790.27</v>
       </c>
-      <c r="Q5" s="526">
+      <c r="Q5" s="468">
         <f t="shared" ref="Q5:Q47" si="1">P5-F5</f>
         <v>1326.2699999999895</v>
       </c>
@@ -7232,33 +7267,39 @@
       <c r="B6" s="32">
         <v>45053</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
       <c r="D6" s="47"/>
       <c r="E6" s="35">
         <v>45053</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>101862</v>
+      </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38">
         <v>45053</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39">
+        <v>1348</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>64094</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>37512</v>
       </c>
       <c r="P6" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102954</v>
+      </c>
+      <c r="Q6" s="468">
+        <f t="shared" si="1"/>
+        <v>1092</v>
       </c>
       <c r="R6" s="46">
         <v>0</v>
@@ -7269,36 +7310,45 @@
       <c r="B7" s="32">
         <v>45054</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33">
+        <v>20405</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>508</v>
+      </c>
       <c r="E7" s="35">
         <v>45054</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>167867</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>45054</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>1926.5</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="65"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>91260.5+14004</f>
+        <v>105264.5</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>41479.129999999997</v>
       </c>
       <c r="P7" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>10</v>
+        <v>169075.13</v>
+      </c>
+      <c r="Q7" s="468">
+        <f t="shared" si="1"/>
+        <v>1208.1300000000047</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7306,32 +7356,42 @@
       <c r="B8" s="32">
         <v>45055</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>17489</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>510</v>
+      </c>
       <c r="E8" s="35">
         <v>45055</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>150615</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>45055</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>2338</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="65"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <f>83287+2770+2840</f>
+        <v>88897</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>42899.75</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>0</v>
+        <v>151623.75</v>
+      </c>
+      <c r="Q8" s="468">
+        <f t="shared" si="1"/>
+        <v>1008.75</v>
       </c>
       <c r="R8" s="46">
         <v>0</v>
@@ -7342,36 +7402,50 @@
       <c r="B9" s="32">
         <v>45056</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>16105</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>511</v>
+      </c>
       <c r="E9" s="35">
         <v>45056</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>131295</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45056</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="39">
+        <v>10127.5</v>
+      </c>
+      <c r="J9" s="40">
+        <v>45056</v>
+      </c>
+      <c r="K9" s="348" t="s">
+        <v>512</v>
+      </c>
+      <c r="L9" s="49">
+        <v>8000</v>
+      </c>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>47443.5+706+6600</f>
+        <v>54749.5</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>43130</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132112</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="282">
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7379,29 +7453,37 @@
       <c r="B10" s="32">
         <v>45057</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>12956.5</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>513</v>
+      </c>
       <c r="E10" s="35">
         <v>45057</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>114011</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45057</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>846</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <v>65642.5</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>34566</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114011</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
@@ -7416,36 +7498,44 @@
       <c r="B11" s="32">
         <v>45058</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>7294</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>514</v>
+      </c>
       <c r="E11" s="35">
         <v>45058</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>124027</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45058</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>4143</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="58"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>75016</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>37574</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124027</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="46">
-        <v>0</v>
+      <c r="R11" s="46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7453,30 +7543,44 @@
       <c r="B12" s="32">
         <v>45059</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>32729</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>515</v>
+      </c>
       <c r="E12" s="35">
         <v>45059</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>160099</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45059</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>3687</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45059</v>
+      </c>
+      <c r="K12" s="342" t="s">
+        <v>516</v>
+      </c>
+      <c r="L12" s="49">
+        <v>21724</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <v>34165</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>67794</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160099</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="1"/>
@@ -7491,30 +7595,38 @@
       <c r="B13" s="32">
         <v>45060</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>26404</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>518</v>
+      </c>
       <c r="E13" s="35">
         <v>45060</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>105359</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45060</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>1367</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="343"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <v>31658</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>45930</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>105359</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="1"/>
@@ -8443,12 +8555,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="69">
-        <f t="shared" si="0"/>
-        <v>29704</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="45">
         <f t="shared" si="1"/>
-        <v>29704</v>
+        <v>0</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>11</v>
@@ -8464,9 +8575,15 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="338"/>
-      <c r="K39" s="343"/>
-      <c r="L39" s="49"/>
+      <c r="J39" s="338">
+        <v>45059</v>
+      </c>
+      <c r="K39" s="343" t="s">
+        <v>517</v>
+      </c>
+      <c r="L39" s="49">
+        <v>27485</v>
+      </c>
       <c r="M39" s="42">
         <v>0</v>
       </c>
@@ -8475,11 +8592,11 @@
       </c>
       <c r="P39" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27485</v>
       </c>
       <c r="Q39" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27485</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -8766,21 +8883,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="479">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
-        <v>51405</v>
-      </c>
-      <c r="N49" s="479">
+        <v>570891.5</v>
+      </c>
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
-        <v>61017.27</v>
+        <v>411902.15</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>200494.27</v>
-      </c>
-      <c r="Q49" s="491">
+        <v>1257536.1499999999</v>
+      </c>
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
-        <v>31030.26999999999</v>
+        <v>32120.149999999994</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -8799,13 +8916,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="480"/>
-      <c r="N50" s="480"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="492"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -8857,11 +8974,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="493">
+      <c r="M53" s="469">
         <f>M49+N49</f>
-        <v>112422.26999999999</v>
-      </c>
-      <c r="N53" s="494"/>
+        <v>982793.65</v>
+      </c>
+      <c r="N53" s="470"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9244,7 +9361,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>31547</v>
+        <v>164929.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9252,7 +9369,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>169464</v>
+        <v>1224599</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9260,7 +9377,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>4189</v>
+        <v>29972</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9268,7 +9385,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>52336</v>
+        <v>109545</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -9286,50 +9403,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="487" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="488"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="489">
+      <c r="K77" s="501">
         <f>I75+L75</f>
-        <v>56525</v>
-      </c>
-      <c r="L77" s="490"/>
+        <v>139517</v>
+      </c>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="481" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="481"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>81392</v>
+        <v>920152.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="482" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="482"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="483" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="484"/>
-      <c r="K79" s="485">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
-        <v>81392</v>
-      </c>
-      <c r="L79" s="485"/>
+        <v>920152.5</v>
+      </c>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9363,18 +9480,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>81392</v>
+        <v>920152.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="486">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="485"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9389,22 +9506,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="474" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="475"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="519" t="s">
+      <c r="I83" s="520" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="520"/>
-      <c r="K83" s="521">
+      <c r="J83" s="521"/>
+      <c r="K83" s="522">
         <f>K79+K81</f>
-        <v>-2983891.79</v>
-      </c>
-      <c r="L83" s="521"/>
+        <v>-2145131.29</v>
+      </c>
+      <c r="L83" s="522"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -9549,18 +9666,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -9571,6 +9676,18 @@
     <mergeCell ref="I79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K81:L81"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10358,10 +10475,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="504"/>
-      <c r="J36" s="505"/>
-      <c r="K36" s="505"/>
-      <c r="L36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="506"/>
+      <c r="K36" s="506"/>
+      <c r="L36" s="507"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -10378,10 +10495,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
-      <c r="K37" s="505"/>
-      <c r="L37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="506"/>
+      <c r="K37" s="506"/>
+      <c r="L37" s="507"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -10438,10 +10555,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="507" t="s">
+      <c r="I40" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -10460,8 +10577,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="509"/>
-      <c r="J41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="511"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -10480,8 +10597,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -10985,10 +11102,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="513" t="s">
+      <c r="I67" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="514"/>
+      <c r="J67" s="515"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -11008,11 +11125,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="517" t="s">
+      <c r="G68" s="518" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="522"/>
-      <c r="J68" s="523"/>
+      <c r="I68" s="523"/>
+      <c r="J68" s="524"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -11023,7 +11140,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="518"/>
+      <c r="G69" s="519"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -11646,23 +11763,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="497"/>
-      <c r="C1" s="499" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="475" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
-      <c r="L1" s="500"/>
-      <c r="M1" s="500"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="498"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11672,24 +11789,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="502"/>
+      <c r="B3" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="478"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="503"/>
+      <c r="I3" s="479"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="468" t="s">
+      <c r="R3" s="480" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11704,14 +11821,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="470" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="471"/>
-      <c r="H4" s="472" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11721,11 +11838,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="469"/>
+      <c r="R4" s="481"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13560,11 +13677,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="479">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="479">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13572,7 +13689,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="491">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13593,10 +13710,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="480"/>
-      <c r="N50" s="480"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="492"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13651,11 +13768,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="493">
+      <c r="M53" s="469">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="494"/>
+      <c r="N53" s="470"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14080,26 +14197,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="487" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="488"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="489">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="490"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="481" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="481"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14108,22 +14225,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="482" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="482"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="483" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="484"/>
-      <c r="K79" s="485">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="485"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14164,11 +14281,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="486">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="485"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14185,22 +14302,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="474" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="475"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="476" t="s">
+      <c r="I83" s="488" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="477"/>
-      <c r="K83" s="478">
+      <c r="J83" s="489"/>
+      <c r="K83" s="490">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="478"/>
+      <c r="L83" s="490"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14347,12 +14464,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14369,6 +14480,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15745,10 +15862,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="504"/>
-      <c r="J36" s="505"/>
-      <c r="K36" s="505"/>
-      <c r="L36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="506"/>
+      <c r="K36" s="506"/>
+      <c r="L36" s="507"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -15775,10 +15892,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
-      <c r="K37" s="505"/>
-      <c r="L37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="506"/>
+      <c r="K37" s="506"/>
+      <c r="L37" s="507"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -15835,10 +15952,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="507" t="s">
+      <c r="I40" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -15857,8 +15974,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="509"/>
-      <c r="J41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="511"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -15877,8 +15994,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -16382,10 +16499,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="513" t="s">
+      <c r="I67" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="514"/>
+      <c r="J67" s="515"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -16405,11 +16522,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="517" t="s">
+      <c r="G68" s="518" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="515"/>
-      <c r="J68" s="516"/>
+      <c r="I68" s="516"/>
+      <c r="J68" s="517"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16420,7 +16537,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="518"/>
+      <c r="G69" s="519"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -17051,23 +17168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="497"/>
-      <c r="C1" s="499" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="475" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
-      <c r="L1" s="500"/>
-      <c r="M1" s="500"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="498"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17077,24 +17194,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="502"/>
+      <c r="B3" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="478"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="503"/>
+      <c r="I3" s="479"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="468" t="s">
+      <c r="R3" s="480" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17109,14 +17226,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="470" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="471"/>
-      <c r="H4" s="472" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17126,11 +17243,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="469"/>
+      <c r="R4" s="481"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19106,11 +19223,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="479">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="479">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19118,7 +19235,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="491">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19151,10 +19268,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="480"/>
-      <c r="N50" s="480"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="492"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19245,11 +19362,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="493">
+      <c r="M53" s="469">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="494"/>
+      <c r="N53" s="470"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19808,26 +19925,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="487" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="488"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="489">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="490"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="481" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="481"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -19836,22 +19953,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="482" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="482"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="483" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="484"/>
-      <c r="K79" s="485">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="485"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -19892,11 +20009,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="486">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="485"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -19913,22 +20030,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="474" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="475"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="519" t="s">
+      <c r="I83" s="520" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="520"/>
-      <c r="K83" s="521">
+      <c r="J83" s="521"/>
+      <c r="K83" s="522">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="521"/>
+      <c r="L83" s="522"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -20075,6 +20192,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20091,12 +20214,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21508,10 +21625,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="504"/>
-      <c r="J36" s="505"/>
-      <c r="K36" s="505"/>
-      <c r="L36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="506"/>
+      <c r="K36" s="506"/>
+      <c r="L36" s="507"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -21538,10 +21655,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
-      <c r="K37" s="505"/>
-      <c r="L37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="506"/>
+      <c r="K37" s="506"/>
+      <c r="L37" s="507"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -21608,10 +21725,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="507" t="s">
+      <c r="I40" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -21630,8 +21747,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="509"/>
-      <c r="J41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="511"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -21650,8 +21767,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -22155,10 +22272,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="513" t="s">
+      <c r="I67" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="514"/>
+      <c r="J67" s="515"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -22178,11 +22295,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="517" t="s">
+      <c r="G68" s="518" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="522"/>
-      <c r="J68" s="523"/>
+      <c r="I68" s="523"/>
+      <c r="J68" s="524"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22193,7 +22310,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="518"/>
+      <c r="G69" s="519"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -22808,23 +22925,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="497"/>
-      <c r="C1" s="499" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="475" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
-      <c r="L1" s="500"/>
-      <c r="M1" s="500"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="498"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22834,24 +22951,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="502"/>
+      <c r="B3" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="478"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="503"/>
+      <c r="I3" s="479"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="524" t="s">
+      <c r="R3" s="525" t="s">
         <v>3</v>
       </c>
     </row>
@@ -22866,14 +22983,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="470" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="471"/>
-      <c r="H4" s="472" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22883,11 +23000,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="525"/>
+      <c r="R4" s="526"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -24868,11 +24985,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="479">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="479">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -24880,7 +24997,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="491">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -24913,10 +25030,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="480"/>
-      <c r="N50" s="480"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="492"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25007,11 +25124,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="493">
+      <c r="M53" s="469">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="494"/>
+      <c r="N53" s="470"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25490,26 +25607,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="487" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="488"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="489">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="490"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="481" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="481"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25518,22 +25635,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="482" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="482"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="483" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="484"/>
-      <c r="K79" s="485">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="485"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25574,11 +25691,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="486">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="485"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25595,22 +25712,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="474" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="475"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="476" t="s">
+      <c r="I83" s="488" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="477"/>
-      <c r="K83" s="478">
+      <c r="J83" s="489"/>
+      <c r="K83" s="490">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="478"/>
+      <c r="L83" s="490"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -25757,12 +25874,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25779,6 +25890,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27052,10 +27169,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="504"/>
-      <c r="J36" s="505"/>
-      <c r="K36" s="505"/>
-      <c r="L36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="506"/>
+      <c r="K36" s="506"/>
+      <c r="L36" s="507"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -27072,10 +27189,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
-      <c r="K37" s="505"/>
-      <c r="L37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="506"/>
+      <c r="K37" s="506"/>
+      <c r="L37" s="507"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -27132,10 +27249,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="507" t="s">
+      <c r="I40" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -27154,8 +27271,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="509"/>
-      <c r="J41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="511"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -27174,8 +27291,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -27679,10 +27796,10 @@
         <f>SUM(G3:G66)</f>
         <v>313154.44</v>
       </c>
-      <c r="I67" s="513" t="s">
+      <c r="I67" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="514"/>
+      <c r="J67" s="515"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -27702,11 +27819,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="517" t="s">
+      <c r="G68" s="518" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="522"/>
-      <c r="J68" s="523"/>
+      <c r="I68" s="523"/>
+      <c r="J68" s="524"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27717,7 +27834,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="518"/>
+      <c r="G69" s="519"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28311,10 +28428,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28340,23 +28457,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="497"/>
-      <c r="C1" s="499" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="475" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
-      <c r="L1" s="500"/>
-      <c r="M1" s="500"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
+      <c r="M1" s="476"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="498"/>
+      <c r="B2" s="474"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28366,24 +28483,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="502"/>
+      <c r="B3" s="477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="478"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="503"/>
+      <c r="I3" s="479"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="524" t="s">
+      <c r="R3" s="525" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28398,14 +28515,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="470" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="471"/>
-      <c r="H4" s="472" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28415,11 +28532,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="496"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="525"/>
+      <c r="R4" s="526"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -30440,11 +30557,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="479">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="479">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30452,7 +30569,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="491">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30480,10 +30597,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="480"/>
-      <c r="N50" s="480"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="492"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30558,11 +30675,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="493">
+      <c r="M53" s="469">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="494"/>
+      <c r="N53" s="470"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31053,26 +31170,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="487" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="488"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="489">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="490"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="481" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="481"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31081,22 +31198,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="482" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="482"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="483" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="484"/>
-      <c r="K79" s="485">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
-        <v>3611736.63</v>
-      </c>
-      <c r="L79" s="485"/>
+        <v>3490138.63</v>
+      </c>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31109,7 +31226,7 @@
       </c>
       <c r="E80" s="162"/>
       <c r="F80" s="163">
-        <v>0</v>
+        <v>-121598</v>
       </c>
       <c r="I80" s="164"/>
       <c r="J80" s="165"/>
@@ -31130,18 +31247,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>534627.84000000008</v>
+        <v>413029.84000000008</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="486">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="485"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31158,22 +31275,22 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="474" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="475"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I83" s="519" t="s">
+      <c r="I83" s="520" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="520"/>
-      <c r="K83" s="521">
+      <c r="J83" s="521"/>
+      <c r="K83" s="522">
         <f>K79+K81</f>
-        <v>43743.009999999776</v>
-      </c>
-      <c r="L83" s="521"/>
+        <v>-77854.990000000224</v>
+      </c>
+      <c r="L83" s="522"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -31318,6 +31435,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31334,12 +31457,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31359,7 +31476,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32440,14 +32557,20 @@
         <v>39908.1</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="435"/>
-      <c r="J30" s="437"/>
-      <c r="K30" s="237"/>
+      <c r="I30" s="287" t="s">
+        <v>505</v>
+      </c>
+      <c r="J30" s="288">
+        <v>12230</v>
+      </c>
+      <c r="K30" s="289">
+        <v>360</v>
+      </c>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32467,16 +32590,20 @@
         <v>14083.2</v>
       </c>
       <c r="H31" s="233"/>
-      <c r="I31" s="436"/>
-      <c r="J31" s="438"/>
-      <c r="K31" s="150">
-        <v>0</v>
+      <c r="I31" s="228" t="s">
+        <v>506</v>
+      </c>
+      <c r="J31" s="286">
+        <v>12243</v>
+      </c>
+      <c r="K31" s="230">
+        <v>12994</v>
       </c>
       <c r="L31" s="224"/>
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13354</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32496,16 +32623,20 @@
         <v>97824.8</v>
       </c>
       <c r="H32" s="233"/>
-      <c r="I32" s="436"/>
-      <c r="J32" s="438"/>
-      <c r="K32" s="150">
-        <v>0</v>
+      <c r="I32" s="228" t="s">
+        <v>507</v>
+      </c>
+      <c r="J32" s="286">
+        <v>12256</v>
+      </c>
+      <c r="K32" s="230">
+        <v>2048</v>
       </c>
       <c r="L32" s="224"/>
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32533,7 +32664,7 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32559,7 +32690,7 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32585,7 +32716,7 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32604,14 +32735,14 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="504"/>
-      <c r="J36" s="505"/>
-      <c r="K36" s="505"/>
-      <c r="L36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="506"/>
+      <c r="K36" s="506"/>
+      <c r="L36" s="507"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32630,14 +32761,14 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
-      <c r="K37" s="505"/>
-      <c r="L37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="506"/>
+      <c r="K37" s="506"/>
+      <c r="L37" s="507"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32663,7 +32794,7 @@
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32689,7 +32820,7 @@
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32708,16 +32839,16 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="507" t="s">
+      <c r="I40" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="508"/>
+      <c r="J40" s="509"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32736,14 +32867,14 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="509"/>
-      <c r="J41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="511"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32762,14 +32893,14 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32795,7 +32926,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32821,7 +32952,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32847,7 +32978,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32867,7 +32998,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32887,7 +33018,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -32907,7 +33038,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -32927,7 +33058,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -32947,7 +33078,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -32967,7 +33098,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -32987,7 +33118,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33007,7 +33138,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33027,7 +33158,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33047,7 +33178,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33067,7 +33198,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33087,7 +33218,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33107,7 +33238,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33127,7 +33258,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33147,7 +33278,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33167,7 +33298,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33187,7 +33318,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33207,7 +33338,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33227,7 +33358,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -33247,7 +33378,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15402</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33285,13 +33416,13 @@
         <f>SUM(G3:G66)</f>
         <v>2021696.34</v>
       </c>
-      <c r="I67" s="513" t="s">
+      <c r="I67" s="514" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="514"/>
+      <c r="J67" s="515"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>106196</v>
+        <v>121598</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -33308,11 +33439,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="517" t="s">
+      <c r="G68" s="518" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="522"/>
-      <c r="J68" s="523"/>
+      <c r="I68" s="523"/>
+      <c r="J68" s="524"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33323,7 +33454,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="518"/>
+      <c r="G69" s="519"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="533">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1930,6 +1930,48 @@
   </si>
   <si>
     <t>PASTOR-QUESOS-CREMA-PEPERONI-CHISTORRA-JAMON-TOSTADAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POSTRES-CHISTORRA-JAMON-POLLO-CREMA</t>
+  </si>
+  <si>
+    <t>ARABE-POLLO-JAMON-QUESO-SALCHICHA-CHORIZO</t>
+  </si>
+  <si>
+    <t>sabado</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miércoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESOS-POLLO  </t>
+  </si>
+  <si>
+    <t>POSTRES-LONGANIZA-QUESO-POLLO-PASTOR</t>
+  </si>
+  <si>
+    <t>C/20</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-CEBOLLA</t>
   </si>
 </sst>
 </file>
@@ -3538,7 +3580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4404,38 +4446,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="21" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4512,6 +4524,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4578,9 +4623,10 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6788,7 +6834,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>104000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123034</xdr:rowOff>
+      <xdr:rowOff>103984</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7098,8 +7144,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7125,23 +7171,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="473"/>
-      <c r="C1" s="475" t="s">
+      <c r="B1" s="499"/>
+      <c r="C1" s="501" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
-      <c r="M1" s="476"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474"/>
+      <c r="B2" s="500"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7151,27 +7197,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="478"/>
+      <c r="B3" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="504"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="479"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="497" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="527" t="s">
+      <c r="Q3" s="469" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="525" t="s">
+      <c r="R3" s="526" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7186,14 +7232,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7203,15 +7249,15 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="472"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="526"/>
+      <c r="R4" s="527"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>10</v>
+        <v>521</v>
       </c>
       <c r="B5" s="32">
         <v>45052</v>
@@ -7263,7 +7309,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="31" t="s">
+        <v>522</v>
+      </c>
       <c r="B6" s="32">
         <v>45053</v>
       </c>
@@ -7306,7 +7354,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="31" t="s">
+        <v>523</v>
+      </c>
       <c r="B7" s="32">
         <v>45054</v>
       </c>
@@ -7352,7 +7402,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="B8" s="32">
         <v>45055</v>
       </c>
@@ -7398,7 +7450,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="B9" s="32">
         <v>45056</v>
       </c>
@@ -7449,7 +7503,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="31" t="s">
+        <v>526</v>
+      </c>
       <c r="B10" s="32">
         <v>45057</v>
       </c>
@@ -7494,7 +7550,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
+      <c r="A11" s="31" t="s">
+        <v>527</v>
+      </c>
       <c r="B11" s="32">
         <v>45058</v>
       </c>
@@ -7539,7 +7597,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="31" t="s">
+        <v>528</v>
+      </c>
       <c r="B12" s="32">
         <v>45059</v>
       </c>
@@ -7591,7 +7651,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+      <c r="A13" s="31" t="s">
+        <v>522</v>
+      </c>
       <c r="B13" s="32">
         <v>45060</v>
       </c>
@@ -7637,34 +7699,45 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
+      <c r="A14" s="31" t="s">
+        <v>523</v>
+      </c>
       <c r="B14" s="32">
         <v>45061</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>18097</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>519</v>
+      </c>
       <c r="E14" s="35">
         <v>45061</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>116463</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45061</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>1748.5</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>55417.5+4644</f>
+        <v>60061.5</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>36556</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116463</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="1"/>
@@ -7675,33 +7748,43 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="B15" s="32">
         <v>45062</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>15616</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>520</v>
+      </c>
       <c r="E15" s="35">
         <v>45062</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>138410</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45062</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>1454</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <v>62175</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>59165</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138410</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="1"/>
@@ -7712,107 +7795,141 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
+      <c r="A16" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="B16" s="32">
         <v>45063</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="33">
+        <v>8232</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>529</v>
+      </c>
       <c r="E16" s="35">
         <v>45063</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>112083</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45063</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>2753</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="342"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>58798+2378</f>
+        <v>61176</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>40915</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113076</v>
       </c>
       <c r="Q16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="282">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>526</v>
+      </c>
       <c r="B17" s="32">
         <v>45064</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="33">
+        <v>15773</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>530</v>
+      </c>
       <c r="E17" s="35">
         <v>45064</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>129352</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45064</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>6248</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="42">
+      <c r="M17" s="529">
         <v>0</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>53215</v>
+      </c>
+      <c r="O17" s="528" t="s">
+        <v>531</v>
       </c>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75236</v>
+      </c>
+      <c r="Q17" s="404">
+        <f t="shared" si="1"/>
+        <v>-54116</v>
       </c>
       <c r="R17" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="31" t="s">
+        <v>527</v>
+      </c>
       <c r="B18" s="32">
         <v>45065</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="33">
+        <v>17876</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>532</v>
+      </c>
       <c r="E18" s="35">
         <v>45065</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>170366</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45065</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>4032.5</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>97356.5+1238</f>
+        <v>98594.5</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>49863</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170366</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="1"/>
@@ -7823,7 +7940,9 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="31" t="s">
+        <v>528</v>
+      </c>
       <c r="B19" s="32">
         <v>45066</v>
       </c>
@@ -7860,7 +7979,9 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="31" t="s">
+        <v>522</v>
+      </c>
       <c r="B20" s="32">
         <v>45067</v>
       </c>
@@ -7897,7 +8018,9 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="31" t="s">
+        <v>523</v>
+      </c>
       <c r="B21" s="32">
         <v>45068</v>
       </c>
@@ -7934,7 +8057,9 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="B22" s="32">
         <v>45069</v>
       </c>
@@ -7972,7 +8097,9 @@
       <c r="S22" s="63"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="B23" s="32">
         <v>45070</v>
       </c>
@@ -8009,7 +8136,9 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="31" t="s">
+        <v>526</v>
+      </c>
       <c r="B24" s="32">
         <v>45071</v>
       </c>
@@ -8046,7 +8175,9 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="31" t="s">
+        <v>527</v>
+      </c>
       <c r="B25" s="32">
         <v>45072</v>
       </c>
@@ -8083,7 +8214,9 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="31" t="s">
+        <v>528</v>
+      </c>
       <c r="B26" s="32">
         <v>45073</v>
       </c>
@@ -8123,7 +8256,9 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
+      <c r="A27" s="31" t="s">
+        <v>522</v>
+      </c>
       <c r="B27" s="32">
         <v>45074</v>
       </c>
@@ -8160,7 +8295,9 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A28" s="31" t="s">
+        <v>523</v>
+      </c>
       <c r="B28" s="32">
         <v>45075</v>
       </c>
@@ -8197,7 +8334,9 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="B29" s="32">
         <v>45076</v>
       </c>
@@ -8234,7 +8373,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="B30" s="32">
         <v>45077</v>
       </c>
@@ -8271,7 +8412,9 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
+      <c r="A31" s="31" t="s">
+        <v>526</v>
+      </c>
       <c r="B31" s="32">
         <v>45078</v>
       </c>
@@ -8308,7 +8451,9 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
+      <c r="A32" s="31" t="s">
+        <v>527</v>
+      </c>
       <c r="B32" s="32">
         <v>45079</v>
       </c>
@@ -8348,7 +8493,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
+      <c r="A33" s="31" t="s">
+        <v>528</v>
+      </c>
       <c r="B33" s="32">
         <v>45080</v>
       </c>
@@ -8385,7 +8532,9 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+      <c r="A34" s="31" t="s">
+        <v>522</v>
+      </c>
       <c r="B34" s="32">
         <v>45081</v>
       </c>
@@ -8425,7 +8574,9 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
+      <c r="A35" s="31" t="s">
+        <v>523</v>
+      </c>
       <c r="B35" s="32">
         <v>45082</v>
       </c>
@@ -8462,7 +8613,9 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
+      <c r="A36" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="B36" s="32">
         <v>45083</v>
       </c>
@@ -8883,21 +9036,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="491">
+      <c r="M49" s="481">
         <f>SUM(M5:M40)</f>
-        <v>570891.5</v>
-      </c>
-      <c r="N49" s="491">
+        <v>852898.5</v>
+      </c>
+      <c r="N49" s="481">
         <f>SUM(N5:N40)</f>
-        <v>411902.15</v>
+        <v>651616.15</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1257536.1499999999</v>
-      </c>
-      <c r="Q49" s="503">
+        <v>1871087.15</v>
+      </c>
+      <c r="Q49" s="493">
         <f>SUM(Q5:Q40)</f>
-        <v>32120.149999999994</v>
+        <v>-21995.850000000006</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -8916,13 +9069,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="482"/>
+      <c r="N50" s="482"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="494"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>817</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -8974,11 +9127,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="469">
+      <c r="M53" s="495">
         <f>M49+N49</f>
-        <v>982793.65</v>
-      </c>
-      <c r="N53" s="470"/>
+        <v>1504514.65</v>
+      </c>
+      <c r="N53" s="496"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9361,7 +9514,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>164929.5</v>
+        <v>240523.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9369,7 +9522,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1224599</v>
+        <v>1891273</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9377,7 +9530,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>29972</v>
+        <v>46208</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9403,50 +9556,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="490"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="491">
         <f>I75+L75</f>
-        <v>139517</v>
-      </c>
-      <c r="L77" s="502"/>
+        <v>155753</v>
+      </c>
+      <c r="L77" s="492"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="483"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>920152.5</v>
+        <v>1494996.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="484"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="485" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="486"/>
+      <c r="K79" s="487">
         <f>F81+F82+F83</f>
-        <v>920152.5</v>
-      </c>
-      <c r="L79" s="497"/>
+        <v>1494996.5</v>
+      </c>
+      <c r="L79" s="487"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9480,18 +9633,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>920152.5</v>
+        <v>1494996.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="488">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="487"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9506,22 +9659,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="476" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="477"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="520" t="s">
+      <c r="I83" s="521" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="521"/>
-      <c r="K83" s="522">
+      <c r="J83" s="522"/>
+      <c r="K83" s="523">
         <f>K79+K81</f>
-        <v>-2145131.29</v>
-      </c>
-      <c r="L83" s="522"/>
+        <v>-1570287.29</v>
+      </c>
+      <c r="L83" s="523"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -9666,6 +9819,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -9678,16 +9841,6 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10475,10 +10628,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="505"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="507"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="508"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -10495,10 +10648,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
-      <c r="L37" s="507"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="508"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -10555,10 +10708,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="508" t="s">
+      <c r="I40" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="509"/>
+      <c r="J40" s="510"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -10577,8 +10730,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="510"/>
-      <c r="J41" s="511"/>
+      <c r="I41" s="511"/>
+      <c r="J41" s="512"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -10597,8 +10750,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -11102,10 +11255,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="514" t="s">
+      <c r="I67" s="515" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="515"/>
+      <c r="J67" s="516"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -11125,11 +11278,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="518" t="s">
+      <c r="G68" s="519" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="523"/>
-      <c r="J68" s="524"/>
+      <c r="I68" s="524"/>
+      <c r="J68" s="525"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -11140,7 +11293,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="519"/>
+      <c r="G69" s="520"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -11763,23 +11916,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="473"/>
-      <c r="C1" s="475" t="s">
+      <c r="B1" s="499"/>
+      <c r="C1" s="501" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
-      <c r="M1" s="476"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474"/>
+      <c r="B2" s="500"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11789,24 +11942,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="478"/>
+      <c r="B3" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="504"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="479"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="497" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="470" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11821,14 +11974,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11838,11 +11991,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="472"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="481"/>
+      <c r="R4" s="471"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13677,11 +13830,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="491">
+      <c r="M49" s="481">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="481">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13689,7 +13842,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="493">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13710,10 +13863,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="482"/>
+      <c r="N50" s="482"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="494"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13768,11 +13921,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="469">
+      <c r="M53" s="495">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="470"/>
+      <c r="N53" s="496"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14197,26 +14350,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="490"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="491">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="492"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="483"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14225,22 +14378,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="484"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="485" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="486"/>
+      <c r="K79" s="487">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="487"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14281,11 +14434,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="488">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="487"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14302,22 +14455,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="476" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="477"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="488" t="s">
+      <c r="I83" s="478" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="489"/>
-      <c r="K83" s="490">
+      <c r="J83" s="479"/>
+      <c r="K83" s="480">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="490"/>
+      <c r="L83" s="480"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14464,6 +14617,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14480,12 +14639,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15862,10 +16015,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="505"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="507"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="508"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -15892,10 +16045,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
-      <c r="L37" s="507"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="508"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -15952,10 +16105,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="508" t="s">
+      <c r="I40" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="509"/>
+      <c r="J40" s="510"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -15974,8 +16127,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="510"/>
-      <c r="J41" s="511"/>
+      <c r="I41" s="511"/>
+      <c r="J41" s="512"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -15994,8 +16147,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -16499,10 +16652,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="514" t="s">
+      <c r="I67" s="515" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="515"/>
+      <c r="J67" s="516"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -16522,11 +16675,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="518" t="s">
+      <c r="G68" s="519" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="516"/>
-      <c r="J68" s="517"/>
+      <c r="I68" s="517"/>
+      <c r="J68" s="518"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16537,7 +16690,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="519"/>
+      <c r="G69" s="520"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -17168,23 +17321,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="473"/>
-      <c r="C1" s="475" t="s">
+      <c r="B1" s="499"/>
+      <c r="C1" s="501" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
-      <c r="M1" s="476"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474"/>
+      <c r="B2" s="500"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17194,24 +17347,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="478"/>
+      <c r="B3" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="504"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="479"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="497" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="470" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17226,14 +17379,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17243,11 +17396,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="472"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="481"/>
+      <c r="R4" s="471"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19223,11 +19376,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="481">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="481">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19235,7 +19388,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="493">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19268,10 +19421,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="482"/>
+      <c r="N50" s="482"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="494"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19362,11 +19515,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="469">
+      <c r="M53" s="495">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="470"/>
+      <c r="N53" s="496"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19925,26 +20078,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="490"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="491">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="492"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="483"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -19953,22 +20106,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="484"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="485" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="486"/>
+      <c r="K79" s="487">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="487"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20009,11 +20162,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="488">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="487"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20030,22 +20183,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="476" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="477"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="520" t="s">
+      <c r="I83" s="521" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="521"/>
-      <c r="K83" s="522">
+      <c r="J83" s="522"/>
+      <c r="K83" s="523">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="522"/>
+      <c r="L83" s="523"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -20192,12 +20345,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20214,6 +20361,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21625,10 +21778,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="505"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="507"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="508"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -21655,10 +21808,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
-      <c r="L37" s="507"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="508"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -21725,10 +21878,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="508" t="s">
+      <c r="I40" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="509"/>
+      <c r="J40" s="510"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -21747,8 +21900,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="510"/>
-      <c r="J41" s="511"/>
+      <c r="I41" s="511"/>
+      <c r="J41" s="512"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -21767,8 +21920,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -22272,10 +22425,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="514" t="s">
+      <c r="I67" s="515" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="515"/>
+      <c r="J67" s="516"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -22295,11 +22448,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="518" t="s">
+      <c r="G68" s="519" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="523"/>
-      <c r="J68" s="524"/>
+      <c r="I68" s="524"/>
+      <c r="J68" s="525"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22310,7 +22463,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="519"/>
+      <c r="G69" s="520"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -22925,23 +23078,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="473"/>
-      <c r="C1" s="475" t="s">
+      <c r="B1" s="499"/>
+      <c r="C1" s="501" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
-      <c r="M1" s="476"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474"/>
+      <c r="B2" s="500"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22951,24 +23104,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="478"/>
+      <c r="B3" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="504"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="479"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="497" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="525" t="s">
+      <c r="R3" s="526" t="s">
         <v>3</v>
       </c>
     </row>
@@ -22983,14 +23136,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23000,11 +23153,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="472"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="526"/>
+      <c r="R4" s="527"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -24985,11 +25138,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="481">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="481">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -24997,7 +25150,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="493">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25030,10 +25183,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="482"/>
+      <c r="N50" s="482"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="494"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25124,11 +25277,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="469">
+      <c r="M53" s="495">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="470"/>
+      <c r="N53" s="496"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25607,26 +25760,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="490"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="491">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="492"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="483"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25635,22 +25788,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="484"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="485" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="486"/>
+      <c r="K79" s="487">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="487"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25691,11 +25844,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="488">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="487"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25712,22 +25865,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="476" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="477"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="488" t="s">
+      <c r="I83" s="478" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="489"/>
-      <c r="K83" s="490">
+      <c r="J83" s="479"/>
+      <c r="K83" s="480">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="490"/>
+      <c r="L83" s="480"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -25874,6 +26027,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25890,12 +26049,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27169,10 +27322,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="505"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="507"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="508"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -27189,10 +27342,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
-      <c r="L37" s="507"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="508"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -27249,10 +27402,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="508" t="s">
+      <c r="I40" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="509"/>
+      <c r="J40" s="510"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -27271,8 +27424,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="510"/>
-      <c r="J41" s="511"/>
+      <c r="I41" s="511"/>
+      <c r="J41" s="512"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -27291,8 +27444,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -27796,10 +27949,10 @@
         <f>SUM(G3:G66)</f>
         <v>313154.44</v>
       </c>
-      <c r="I67" s="514" t="s">
+      <c r="I67" s="515" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="515"/>
+      <c r="J67" s="516"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -27819,11 +27972,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="518" t="s">
+      <c r="G68" s="519" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="523"/>
-      <c r="J68" s="524"/>
+      <c r="I68" s="524"/>
+      <c r="J68" s="525"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27834,7 +27987,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="519"/>
+      <c r="G69" s="520"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28457,23 +28610,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="473"/>
-      <c r="C1" s="475" t="s">
+      <c r="B1" s="499"/>
+      <c r="C1" s="501" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
-      <c r="M1" s="476"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474"/>
+      <c r="B2" s="500"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28483,24 +28636,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="478"/>
+      <c r="B3" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="504"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="479"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="497" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="525" t="s">
+      <c r="R3" s="526" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28515,14 +28668,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="472" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="473"/>
+      <c r="H4" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28532,11 +28685,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="472"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="526"/>
+      <c r="R4" s="527"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -30557,11 +30710,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="481">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="481">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30569,7 +30722,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="493">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30597,10 +30750,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="482"/>
+      <c r="N50" s="482"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="494"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30675,11 +30828,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="469">
+      <c r="M53" s="495">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="470"/>
+      <c r="N53" s="496"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31170,26 +31323,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="490"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="491">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="492"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="483"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31198,22 +31351,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="484"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="485" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="486"/>
+      <c r="K79" s="487">
         <f>F81+F82+F83</f>
         <v>3490138.63</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="487"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31254,11 +31407,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="488">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="487"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31275,22 +31428,22 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="476" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="477"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I83" s="520" t="s">
+      <c r="I83" s="521" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="521"/>
-      <c r="K83" s="522">
+      <c r="J83" s="522"/>
+      <c r="K83" s="523">
         <f>K79+K81</f>
         <v>-77854.990000000224</v>
       </c>
-      <c r="L83" s="522"/>
+      <c r="L83" s="523"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -31435,12 +31588,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31457,6 +31604,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32735,10 +32888,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="505"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="507"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="508"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32761,10 +32914,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
-      <c r="L37" s="507"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="508"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32839,10 +32992,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="508" t="s">
+      <c r="I40" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="509"/>
+      <c r="J40" s="510"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32867,8 +33020,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="510"/>
-      <c r="J41" s="511"/>
+      <c r="I41" s="511"/>
+      <c r="J41" s="512"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32893,8 +33046,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33416,10 +33569,10 @@
         <f>SUM(G3:G66)</f>
         <v>2021696.34</v>
       </c>
-      <c r="I67" s="514" t="s">
+      <c r="I67" s="515" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="515"/>
+      <c r="J67" s="516"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -33439,11 +33592,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="518" t="s">
+      <c r="G68" s="519" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="523"/>
-      <c r="J68" s="524"/>
+      <c r="I68" s="524"/>
+      <c r="J68" s="525"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33454,7 +33607,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="519"/>
+      <c r="G69" s="520"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="536">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1972,6 +1972,15 @@
   </si>
   <si>
     <t>LONGANIZA-POLLO-CEBOLLA</t>
+  </si>
+  <si>
+    <t>PASTOR-MAIZ-SALSAS-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>NOMINA # 20</t>
+  </si>
+  <si>
+    <t>C/18</t>
   </si>
 </sst>
 </file>
@@ -4449,6 +4458,43 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4524,39 +4570,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4623,10 +4636,6 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6834,7 +6843,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>104000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>103984</xdr:rowOff>
+      <xdr:rowOff>84934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7144,8 +7153,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7171,23 +7180,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="499"/>
-      <c r="C1" s="501" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="500"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7197,27 +7206,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="503" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="504"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="505" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="505"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="469" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="526" t="s">
+      <c r="R3" s="528" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7232,14 +7241,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7249,11 +7258,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="527"/>
+      <c r="R4" s="529"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7870,13 +7879,13 @@
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="529">
+      <c r="M17" s="471">
         <v>0</v>
       </c>
       <c r="N17" s="43">
         <v>53215</v>
       </c>
-      <c r="O17" s="528" t="s">
+      <c r="O17" s="470" t="s">
         <v>531</v>
       </c>
       <c r="P17" s="49">
@@ -7939,40 +7948,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>528</v>
       </c>
       <c r="B19" s="32">
         <v>45066</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>15470</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>533</v>
+      </c>
       <c r="E19" s="35">
         <v>45066</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>164048</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45066</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="39">
+        <v>5400</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45066</v>
+      </c>
+      <c r="K19" s="344" t="s">
+        <v>534</v>
+      </c>
+      <c r="L19" s="59">
+        <v>22683</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>11707+100000</f>
+        <v>111707</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>62904</v>
+      </c>
+      <c r="O19" s="470" t="s">
+        <v>535</v>
       </c>
       <c r="P19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>218164</v>
+      </c>
+      <c r="Q19" s="404">
+        <f t="shared" si="1"/>
+        <v>54116</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>11</v>
@@ -7985,17 +8012,25 @@
       <c r="B20" s="32">
         <v>45067</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>650</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="E20" s="35">
         <v>45067</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>99146</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45067</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>1741</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
@@ -8007,11 +8042,11 @@
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2391</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-96755</v>
       </c>
       <c r="R20" s="46">
         <v>0</v>
@@ -8765,9 +8800,15 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="343"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="338">
+        <v>45066</v>
+      </c>
+      <c r="K40" s="343" t="s">
+        <v>534</v>
+      </c>
+      <c r="L40" s="49">
+        <v>27070</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
@@ -8776,7 +8817,7 @@
       </c>
       <c r="P40" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27070</v>
       </c>
       <c r="Q40" s="45">
         <v>0</v>
@@ -9036,21 +9077,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="481">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
-        <v>852898.5</v>
-      </c>
-      <c r="N49" s="481">
+        <v>964605.5</v>
+      </c>
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
-        <v>651616.15</v>
+        <v>714520.15</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1871087.15</v>
-      </c>
-      <c r="Q49" s="493">
+        <v>2118712.15</v>
+      </c>
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
-        <v>-21995.850000000006</v>
+        <v>-64634.850000000006</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -9069,10 +9110,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="482"/>
-      <c r="N50" s="482"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="494"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1810</v>
@@ -9127,11 +9168,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="495">
+      <c r="M53" s="472">
         <f>M49+N49</f>
-        <v>1504514.65</v>
-      </c>
-      <c r="N53" s="496"/>
+        <v>1679125.65</v>
+      </c>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9514,7 +9555,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>240523.5</v>
+        <v>256643.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9522,7 +9563,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1891273</v>
+        <v>2154467</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9530,7 +9571,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>46208</v>
+        <v>53349</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9538,7 +9579,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>109545</v>
+        <v>159298</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -9556,50 +9597,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="489" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="490"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="491">
+      <c r="K77" s="504">
         <f>I75+L75</f>
-        <v>155753</v>
-      </c>
-      <c r="L77" s="492"/>
+        <v>212647</v>
+      </c>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="483" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="483"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1494996.5</v>
+        <v>1685176.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="484" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="484"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="485" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="486"/>
-      <c r="K79" s="487">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
-        <v>1494996.5</v>
-      </c>
-      <c r="L79" s="487"/>
+        <v>1685176.5</v>
+      </c>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9633,18 +9674,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1494996.5</v>
+        <v>1685176.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="488">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="487"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9659,22 +9700,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="476" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="477"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="521" t="s">
+      <c r="I83" s="523" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="522"/>
-      <c r="K83" s="523">
+      <c r="J83" s="524"/>
+      <c r="K83" s="525">
         <f>K79+K81</f>
-        <v>-1570287.29</v>
-      </c>
-      <c r="L83" s="523"/>
+        <v>-1380107.29</v>
+      </c>
+      <c r="L83" s="525"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -9819,13 +9860,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9841,6 +9875,13 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10628,10 +10669,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="506"/>
-      <c r="J36" s="507"/>
-      <c r="K36" s="507"/>
-      <c r="L36" s="508"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="510"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -10648,10 +10689,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
-      <c r="K37" s="507"/>
-      <c r="L37" s="508"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
+      <c r="L37" s="510"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -10708,10 +10749,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="509" t="s">
+      <c r="I40" s="511" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="510"/>
+      <c r="J40" s="512"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -10730,8 +10771,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="I41" s="513"/>
+      <c r="J41" s="514"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -10750,8 +10791,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -11255,10 +11296,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="515" t="s">
+      <c r="I67" s="517" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="516"/>
+      <c r="J67" s="518"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -11278,11 +11319,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="519" t="s">
+      <c r="G68" s="521" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="524"/>
-      <c r="J68" s="525"/>
+      <c r="I68" s="526"/>
+      <c r="J68" s="527"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -11293,7 +11334,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="520"/>
+      <c r="G69" s="522"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -11916,23 +11957,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="499"/>
-      <c r="C1" s="501" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="500"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11942,24 +11983,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="503" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="504"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="505" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="505"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="470" t="s">
+      <c r="R3" s="483" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11974,14 +12015,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11991,11 +12032,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="471"/>
+      <c r="R4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13830,11 +13871,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="481">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="481">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13842,7 +13883,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="493">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13863,10 +13904,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="482"/>
-      <c r="N50" s="482"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="494"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13921,11 +13962,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="495">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="496"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14350,26 +14391,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="489" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="490"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="491">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="492"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="483" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="483"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14378,22 +14419,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="484" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="484"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="485" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="486"/>
-      <c r="K79" s="487">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="487"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14434,11 +14475,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="488">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="487"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14455,22 +14496,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="476" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="477"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="478" t="s">
+      <c r="I83" s="491" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="479"/>
-      <c r="K83" s="480">
+      <c r="J83" s="492"/>
+      <c r="K83" s="493">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="480"/>
+      <c r="L83" s="493"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14617,12 +14658,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14639,6 +14674,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16015,10 +16056,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="506"/>
-      <c r="J36" s="507"/>
-      <c r="K36" s="507"/>
-      <c r="L36" s="508"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="510"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -16045,10 +16086,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
-      <c r="K37" s="507"/>
-      <c r="L37" s="508"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
+      <c r="L37" s="510"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -16105,10 +16146,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="509" t="s">
+      <c r="I40" s="511" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="510"/>
+      <c r="J40" s="512"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -16127,8 +16168,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="I41" s="513"/>
+      <c r="J41" s="514"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -16147,8 +16188,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -16652,10 +16693,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="515" t="s">
+      <c r="I67" s="517" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="516"/>
+      <c r="J67" s="518"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -16675,11 +16716,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="519" t="s">
+      <c r="G68" s="521" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="517"/>
-      <c r="J68" s="518"/>
+      <c r="I68" s="519"/>
+      <c r="J68" s="520"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16690,7 +16731,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="520"/>
+      <c r="G69" s="522"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -17321,23 +17362,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="499"/>
-      <c r="C1" s="501" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="500"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17347,24 +17388,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="503" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="504"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="505" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="505"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="470" t="s">
+      <c r="R3" s="483" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17379,14 +17420,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17396,11 +17437,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="471"/>
+      <c r="R4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19376,11 +19417,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="481">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="481">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19388,7 +19429,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="493">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19421,10 +19462,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="482"/>
-      <c r="N50" s="482"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="494"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19515,11 +19556,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="495">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="496"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20078,26 +20119,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="489" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="490"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="491">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="492"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="483" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="483"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -20106,22 +20147,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="484" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="484"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="485" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="486"/>
-      <c r="K79" s="487">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="487"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20162,11 +20203,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="488">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="487"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20183,22 +20224,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="476" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="477"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="521" t="s">
+      <c r="I83" s="523" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="522"/>
-      <c r="K83" s="523">
+      <c r="J83" s="524"/>
+      <c r="K83" s="525">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="523"/>
+      <c r="L83" s="525"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -20345,6 +20386,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20361,12 +20408,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21778,10 +21819,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="506"/>
-      <c r="J36" s="507"/>
-      <c r="K36" s="507"/>
-      <c r="L36" s="508"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="510"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -21808,10 +21849,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
-      <c r="K37" s="507"/>
-      <c r="L37" s="508"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
+      <c r="L37" s="510"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -21878,10 +21919,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="509" t="s">
+      <c r="I40" s="511" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="510"/>
+      <c r="J40" s="512"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -21900,8 +21941,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="I41" s="513"/>
+      <c r="J41" s="514"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -21920,8 +21961,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -22425,10 +22466,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="515" t="s">
+      <c r="I67" s="517" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="516"/>
+      <c r="J67" s="518"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -22448,11 +22489,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="519" t="s">
+      <c r="G68" s="521" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="524"/>
-      <c r="J68" s="525"/>
+      <c r="I68" s="526"/>
+      <c r="J68" s="527"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22463,7 +22504,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="520"/>
+      <c r="G69" s="522"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -23078,23 +23119,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="499"/>
-      <c r="C1" s="501" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="500"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -23104,24 +23145,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="503" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="504"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="505" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="505"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="526" t="s">
+      <c r="R3" s="528" t="s">
         <v>3</v>
       </c>
     </row>
@@ -23136,14 +23177,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23153,11 +23194,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="527"/>
+      <c r="R4" s="529"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -25138,11 +25179,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="481">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="481">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -25150,7 +25191,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="493">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25183,10 +25224,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="482"/>
-      <c r="N50" s="482"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="494"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25277,11 +25318,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="495">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="496"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25760,26 +25801,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="489" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="490"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="491">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="492"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="483" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="483"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25788,22 +25829,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="484" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="484"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="485" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="486"/>
-      <c r="K79" s="487">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="487"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25844,11 +25885,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="488">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="487"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25865,22 +25906,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="476" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="477"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="478" t="s">
+      <c r="I83" s="491" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="479"/>
-      <c r="K83" s="480">
+      <c r="J83" s="492"/>
+      <c r="K83" s="493">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="480"/>
+      <c r="L83" s="493"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -26027,12 +26068,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26049,6 +26084,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27322,10 +27363,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="506"/>
-      <c r="J36" s="507"/>
-      <c r="K36" s="507"/>
-      <c r="L36" s="508"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="510"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -27342,10 +27383,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
-      <c r="K37" s="507"/>
-      <c r="L37" s="508"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
+      <c r="L37" s="510"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -27402,10 +27443,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="509" t="s">
+      <c r="I40" s="511" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="510"/>
+      <c r="J40" s="512"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -27424,8 +27465,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="I41" s="513"/>
+      <c r="J41" s="514"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -27444,8 +27485,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -27949,10 +27990,10 @@
         <f>SUM(G3:G66)</f>
         <v>313154.44</v>
       </c>
-      <c r="I67" s="515" t="s">
+      <c r="I67" s="517" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="516"/>
+      <c r="J67" s="518"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -27972,11 +28013,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="519" t="s">
+      <c r="G68" s="521" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="524"/>
-      <c r="J68" s="525"/>
+      <c r="I68" s="526"/>
+      <c r="J68" s="527"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27987,7 +28028,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="520"/>
+      <c r="G69" s="522"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28610,23 +28651,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="499"/>
-      <c r="C1" s="501" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
-      <c r="H1" s="502"/>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
-      <c r="K1" s="502"/>
-      <c r="L1" s="502"/>
-      <c r="M1" s="502"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="500"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28636,24 +28677,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="503" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="504"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="505" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="505"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="526" t="s">
+      <c r="R3" s="528" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28668,14 +28709,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="472" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="473"/>
-      <c r="H4" s="474" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="475"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28685,11 +28726,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="498"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="527"/>
+      <c r="R4" s="529"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -30710,11 +30751,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="481">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="481">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30722,7 +30763,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="493">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30750,10 +30791,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="482"/>
-      <c r="N50" s="482"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="494"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30828,11 +30869,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="495">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="496"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31323,26 +31364,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="489" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="490"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="491">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="492"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="483" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="483"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31351,22 +31392,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="484" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="484"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="485" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="486"/>
-      <c r="K79" s="487">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3490138.63</v>
       </c>
-      <c r="L79" s="487"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31407,11 +31448,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="488">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="487"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31428,22 +31469,22 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="476" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="477"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I83" s="521" t="s">
+      <c r="I83" s="523" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="522"/>
-      <c r="K83" s="523">
+      <c r="J83" s="524"/>
+      <c r="K83" s="525">
         <f>K79+K81</f>
         <v>-77854.990000000224</v>
       </c>
-      <c r="L83" s="523"/>
+      <c r="L83" s="525"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -31588,6 +31629,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31604,12 +31651,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32888,10 +32929,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="506"/>
-      <c r="J36" s="507"/>
-      <c r="K36" s="507"/>
-      <c r="L36" s="508"/>
+      <c r="I36" s="508"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="510"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32914,10 +32955,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
-      <c r="K37" s="507"/>
-      <c r="L37" s="508"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
+      <c r="L37" s="510"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32992,10 +33033,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="509" t="s">
+      <c r="I40" s="511" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="510"/>
+      <c r="J40" s="512"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -33020,8 +33061,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="511"/>
-      <c r="J41" s="512"/>
+      <c r="I41" s="513"/>
+      <c r="J41" s="514"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -33046,8 +33087,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33569,10 +33610,10 @@
         <f>SUM(G3:G66)</f>
         <v>2021696.34</v>
       </c>
-      <c r="I67" s="515" t="s">
+      <c r="I67" s="517" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="516"/>
+      <c r="J67" s="518"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -33592,11 +33633,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="519" t="s">
+      <c r="G68" s="521" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="524"/>
-      <c r="J68" s="525"/>
+      <c r="I68" s="526"/>
+      <c r="J68" s="527"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33607,7 +33648,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="520"/>
+      <c r="G69" s="522"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="536">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4462,39 +4462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4569,6 +4536,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7153,7 +7153,7 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -7180,23 +7180,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="503" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
+      <c r="K1" s="504"/>
+      <c r="L1" s="504"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="502"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7206,21 +7206,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="506"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="499" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="469" t="s">
@@ -7241,14 +7241,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7258,7 +7258,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -8274,6 +8274,9 @@
       </c>
       <c r="N26" s="43">
         <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
@@ -9077,11 +9080,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="494">
+      <c r="M49" s="483">
         <f>SUM(M5:M40)</f>
         <v>964605.5</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="483">
         <f>SUM(N5:N40)</f>
         <v>714520.15</v>
       </c>
@@ -9089,7 +9092,7 @@
         <f>SUM(P5:P40)</f>
         <v>2118712.15</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="495">
         <f>SUM(Q5:Q40)</f>
         <v>-64634.850000000006</v>
       </c>
@@ -9110,10 +9113,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="484"/>
+      <c r="N50" s="484"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="496"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1810</v>
@@ -9168,11 +9171,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="497">
         <f>M49+N49</f>
         <v>1679125.65</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="498"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9597,26 +9600,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="492"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="493">
         <f>I75+L75</f>
         <v>212647</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="494"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="485"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1685176.5</v>
@@ -9625,22 +9628,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="486"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="487" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="488"/>
+      <c r="K79" s="489">
         <f>F81+F82+F83</f>
         <v>1685176.5</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="489"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9681,11 +9684,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="490">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="489"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9700,10 +9703,10 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
@@ -9860,6 +9863,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9876,12 +9885,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11957,23 +11960,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
+      <c r="K1" s="504"/>
+      <c r="L1" s="504"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="502"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11983,24 +11986,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="506"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="499" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="483" t="s">
+      <c r="R3" s="472" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12015,14 +12018,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12032,11 +12035,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="484"/>
+      <c r="R4" s="473"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13871,11 +13874,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="494">
+      <c r="M49" s="483">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="483">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13883,7 +13886,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="495">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13904,10 +13907,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="484"/>
+      <c r="N50" s="484"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="496"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13962,11 +13965,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="497">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="498"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14391,26 +14394,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="492"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="493">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="494"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="485"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14419,22 +14422,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="486"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="487" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="488"/>
+      <c r="K79" s="489">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="489"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14475,11 +14478,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="490">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="489"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14496,22 +14499,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="491" t="s">
+      <c r="I83" s="480" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="492"/>
-      <c r="K83" s="493">
+      <c r="J83" s="481"/>
+      <c r="K83" s="482">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="493"/>
+      <c r="L83" s="482"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14658,6 +14661,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14674,12 +14683,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17362,23 +17365,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="503" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
+      <c r="K1" s="504"/>
+      <c r="L1" s="504"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="502"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17388,24 +17391,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="506"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="499" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="483" t="s">
+      <c r="R3" s="472" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17420,14 +17423,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17437,11 +17440,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="484"/>
+      <c r="R4" s="473"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19417,11 +19420,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="483">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="483">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19429,7 +19432,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="495">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19462,10 +19465,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="484"/>
+      <c r="N50" s="484"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="496"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19556,11 +19559,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="472">
+      <c r="M53" s="497">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="498"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20119,26 +20122,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="492"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="493">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="494"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="485"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -20147,22 +20150,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="486"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="487" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="488"/>
+      <c r="K79" s="489">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="489"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20203,11 +20206,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="490">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="489"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20224,10 +20227,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -20386,12 +20389,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20408,6 +20405,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23119,23 +23122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="503" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
+      <c r="K1" s="504"/>
+      <c r="L1" s="504"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="502"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -23145,21 +23148,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="506"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="499" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="528" t="s">
@@ -23177,14 +23180,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23194,7 +23197,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -25179,11 +25182,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="483">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="483">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -25191,7 +25194,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="495">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25224,10 +25227,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="484"/>
+      <c r="N50" s="484"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="496"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25318,11 +25321,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="472">
+      <c r="M53" s="497">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="498"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25801,26 +25804,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="492"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="493">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="494"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="485"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25829,22 +25832,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="486"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="487" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="488"/>
+      <c r="K79" s="489">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="489"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25885,11 +25888,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="490">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="489"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25906,22 +25909,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="491" t="s">
+      <c r="I83" s="480" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="492"/>
-      <c r="K83" s="493">
+      <c r="J83" s="481"/>
+      <c r="K83" s="482">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="493"/>
+      <c r="L83" s="482"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -26068,6 +26071,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26084,12 +26093,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28651,23 +28654,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="503" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
+      <c r="K1" s="504"/>
+      <c r="L1" s="504"/>
+      <c r="M1" s="504"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="502"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28677,21 +28680,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="506"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="499" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="528" t="s">
@@ -28709,14 +28712,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="475"/>
+      <c r="H4" s="476" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="477"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28726,7 +28729,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -30751,11 +30754,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="483">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="483">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30763,7 +30766,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="495">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30791,10 +30794,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="484"/>
+      <c r="N50" s="484"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="496"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30869,11 +30872,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="497">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="498"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31364,26 +31367,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="492"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="493">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="494"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="485" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="485"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31392,22 +31395,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="486"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="487" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="488"/>
+      <c r="K79" s="489">
         <f>F81+F82+F83</f>
         <v>3490138.63</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="489"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31448,11 +31451,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="490">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="489"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31469,10 +31472,10 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
@@ -31629,12 +31632,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31651,6 +31648,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="543">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1981,6 +1981,27 @@
   </si>
   <si>
     <t>C/18</t>
+  </si>
+  <si>
+    <t>Albicia Nota 4876</t>
+  </si>
+  <si>
+    <t>Albicia Nota 256</t>
+  </si>
+  <si>
+    <t>Albicia Nota 4707</t>
+  </si>
+  <si>
+    <t>Albicia Nota 849</t>
+  </si>
+  <si>
+    <t>Albicia Nota 1508</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-JAMON-LOMO-POLLO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALCHICHA-EMBUTIDOS</t>
   </si>
 </sst>
 </file>
@@ -3589,7 +3610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="531">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4462,6 +4483,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4537,39 +4591,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4636,6 +4657,9 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4645,10 +4669,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FF66"/>
@@ -7153,8 +7177,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7180,23 +7204,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="501"/>
-      <c r="C1" s="503" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
-      <c r="L1" s="504"/>
-      <c r="M1" s="504"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="502"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7206,21 +7230,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="506"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="507" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="507"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="469" t="s">
@@ -7241,14 +7265,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7258,7 +7282,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="500"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -8035,18 +8059,18 @@
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <v>58917</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>37838</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>2391</v>
+        <v>99146</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
-        <v>-96755</v>
+        <v>0</v>
       </c>
       <c r="R20" s="46">
         <v>0</v>
@@ -8059,33 +8083,42 @@
       <c r="B21" s="32">
         <v>45068</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>22113</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>541</v>
+      </c>
       <c r="E21" s="35">
         <v>45068</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>156817</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45068</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>2364</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="402"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>74974+7309+1106.6</f>
+        <v>83389.600000000006</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>48950</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156816.6</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.39999999999417923</v>
       </c>
       <c r="R21" s="46">
         <v>0</v>
@@ -8098,29 +8131,37 @@
       <c r="B22" s="32">
         <v>45069</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>12781</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>542</v>
+      </c>
       <c r="E22" s="35">
         <v>45069</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>134324</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45069</v>
       </c>
-      <c r="I22" s="359"/>
+      <c r="I22" s="359">
+        <v>2714</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="358"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
-        <v>0</v>
+        <v>60094</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>58735</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134324</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="1"/>
@@ -8138,17 +8179,23 @@
       <c r="B23" s="32">
         <v>45070</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="33">
+        <v>10818</v>
+      </c>
       <c r="D23" s="47"/>
       <c r="E23" s="35">
         <v>45070</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>92326</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45070</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>0</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
@@ -8160,11 +8207,11 @@
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10818</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-81508</v>
       </c>
       <c r="R23" s="46">
         <v>0</v>
@@ -8531,22 +8578,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="B33" s="32">
-        <v>45080</v>
-      </c>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="35">
-        <v>45080</v>
-      </c>
+      <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="38">
-        <v>45080</v>
-      </c>
+      <c r="H33" s="38"/>
       <c r="I33" s="39"/>
       <c r="J33" s="370"/>
       <c r="K33" s="371"/>
@@ -8570,22 +8609,14 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="B34" s="32">
-        <v>45081</v>
-      </c>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="83"/>
-      <c r="E34" s="35">
-        <v>45081</v>
-      </c>
+      <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="38">
-        <v>45081</v>
-      </c>
+      <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="370"/>
       <c r="K34" s="373"/>
@@ -8612,22 +8643,14 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="B35" s="32">
-        <v>45082</v>
-      </c>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="86"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="35">
-        <v>45082</v>
-      </c>
+      <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="38">
-        <v>45082</v>
-      </c>
+      <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="374"/>
       <c r="K35" s="373"/>
@@ -8651,22 +8674,14 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="B36" s="32">
-        <v>45083</v>
-      </c>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="90"/>
       <c r="D36" s="364"/>
-      <c r="E36" s="35">
-        <v>45083</v>
-      </c>
+      <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="92"/>
-      <c r="H36" s="38">
-        <v>45083</v>
-      </c>
+      <c r="H36" s="38"/>
       <c r="I36" s="39"/>
       <c r="J36" s="338"/>
       <c r="K36" s="88"/>
@@ -8691,9 +8706,15 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C37" s="93">
+        <v>7962</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>536</v>
+      </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="92"/>
@@ -8710,11 +8731,11 @@
       </c>
       <c r="P37" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7962</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7962</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -8722,9 +8743,15 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="91"/>
+      <c r="B38" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C38" s="93">
+        <v>3610</v>
+      </c>
+      <c r="D38" s="91" t="s">
+        <v>537</v>
+      </c>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="92"/>
@@ -8758,9 +8785,15 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
+      <c r="B39" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C39" s="93">
+        <v>4127</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>538</v>
+      </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="92"/>
@@ -8783,11 +8816,11 @@
       </c>
       <c r="P39" s="69">
         <f t="shared" si="0"/>
-        <v>27485</v>
+        <v>31612</v>
       </c>
       <c r="Q39" s="45">
         <f t="shared" si="1"/>
-        <v>27485</v>
+        <v>31612</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -8795,9 +8828,15 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
+      <c r="B40" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C40" s="93">
+        <v>18285</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>539</v>
+      </c>
       <c r="E40" s="35"/>
       <c r="F40" s="97"/>
       <c r="G40" s="37"/>
@@ -8820,7 +8859,7 @@
       </c>
       <c r="P40" s="69">
         <f t="shared" si="0"/>
-        <v>27070</v>
+        <v>45355</v>
       </c>
       <c r="Q40" s="45">
         <v>0</v>
@@ -8831,9 +8870,15 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="453"/>
+      <c r="B41" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C41" s="93">
+        <v>9354</v>
+      </c>
+      <c r="D41" s="530" t="s">
+        <v>540</v>
+      </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
@@ -8850,11 +8895,11 @@
       </c>
       <c r="P41" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9354</v>
       </c>
       <c r="Q41" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9354</v>
       </c>
       <c r="R41" s="46">
         <v>0</v>
@@ -9080,21 +9125,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="483">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
-        <v>964605.5</v>
-      </c>
-      <c r="N49" s="483">
+        <v>1167006.1000000001</v>
+      </c>
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
-        <v>714520.15</v>
+        <v>860043.15</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2118712.15</v>
-      </c>
-      <c r="Q49" s="495">
+        <v>2547799.75</v>
+      </c>
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
-        <v>-64634.850000000006</v>
+        <v>-37299.25</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -9113,10 +9158,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="484"/>
-      <c r="N50" s="484"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="496"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1810</v>
@@ -9171,11 +9216,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="497">
+      <c r="M53" s="472">
         <f>M49+N49</f>
-        <v>1679125.65</v>
-      </c>
-      <c r="N53" s="498"/>
+        <v>2027049.25</v>
+      </c>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9558,7 +9603,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>256643.5</v>
+        <v>345693.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9566,7 +9611,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2154467</v>
+        <v>2537934</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9574,7 +9619,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>53349</v>
+        <v>58427</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9600,50 +9645,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="491" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="492"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="493">
+      <c r="K77" s="504">
         <f>I75+L75</f>
-        <v>212647</v>
-      </c>
-      <c r="L77" s="494"/>
+        <v>217725</v>
+      </c>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="485" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="485"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1685176.5</v>
+        <v>1974515.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="486" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="486"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="487" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="488"/>
-      <c r="K79" s="489">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
-        <v>1685176.5</v>
-      </c>
-      <c r="L79" s="489"/>
+        <v>5872483.0299999993</v>
+      </c>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9677,18 +9722,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1685176.5</v>
+        <v>1974515.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="490">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="489"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9702,13 +9747,15 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="172"/>
-      <c r="D83" s="478" t="s">
+      <c r="C83" s="172">
+        <v>45079</v>
+      </c>
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="479"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
-        <v>0</v>
+        <v>3897967.53</v>
       </c>
       <c r="I83" s="523" t="s">
         <v>25</v>
@@ -9716,7 +9763,7 @@
       <c r="J83" s="524"/>
       <c r="K83" s="525">
         <f>K79+K81</f>
-        <v>-1380107.29</v>
+        <v>2807199.2399999993</v>
       </c>
       <c r="L83" s="525"/>
     </row>
@@ -9863,12 +9910,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9885,6 +9926,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11960,23 +12007,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="501"/>
-      <c r="C1" s="503" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
-      <c r="L1" s="504"/>
-      <c r="M1" s="504"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="502"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11986,24 +12033,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="506"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="507" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="507"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="472" t="s">
+      <c r="R3" s="483" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12018,14 +12065,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12035,11 +12082,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="500"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="473"/>
+      <c r="R4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13874,11 +13921,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="483">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="483">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13886,7 +13933,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="495">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13907,10 +13954,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="484"/>
-      <c r="N50" s="484"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="496"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13965,11 +14012,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="497">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="498"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14394,26 +14441,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="491" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="492"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="493">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="494"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="485" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="485"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14422,22 +14469,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="486" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="486"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="487" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="488"/>
-      <c r="K79" s="489">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="489"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14478,11 +14525,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="490">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="489"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14499,22 +14546,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="478" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="479"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="480" t="s">
+      <c r="I83" s="491" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="481"/>
-      <c r="K83" s="482">
+      <c r="J83" s="492"/>
+      <c r="K83" s="493">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="482"/>
+      <c r="L83" s="493"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14661,12 +14708,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14683,6 +14724,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17365,23 +17412,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="501"/>
-      <c r="C1" s="503" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
-      <c r="L1" s="504"/>
-      <c r="M1" s="504"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="502"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17391,24 +17438,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="506"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="507" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="507"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="472" t="s">
+      <c r="R3" s="483" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17423,14 +17470,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17440,11 +17487,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="500"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="473"/>
+      <c r="R4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19420,11 +19467,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="483">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="483">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19432,7 +19479,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="495">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19465,10 +19512,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="484"/>
-      <c r="N50" s="484"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="496"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19559,11 +19606,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="497">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="498"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20122,26 +20169,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="491" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="492"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="493">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="494"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="485" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="485"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -20150,22 +20197,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="486" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="486"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="487" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="488"/>
-      <c r="K79" s="489">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="489"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20206,11 +20253,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="490">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="489"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20227,10 +20274,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="478" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="479"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -20389,6 +20436,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20405,12 +20458,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23122,23 +23169,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="501"/>
-      <c r="C1" s="503" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
-      <c r="L1" s="504"/>
-      <c r="M1" s="504"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="502"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -23148,21 +23195,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="506"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="507" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="507"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="528" t="s">
@@ -23180,14 +23227,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23197,7 +23244,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="500"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -25182,11 +25229,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="483">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="483">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -25194,7 +25241,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="495">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25227,10 +25274,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="484"/>
-      <c r="N50" s="484"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="496"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25321,11 +25368,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="497">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="498"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25804,26 +25851,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="491" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="492"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="493">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="494"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="485" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="485"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25832,22 +25879,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="486" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="486"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="487" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="488"/>
-      <c r="K79" s="489">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="489"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25888,11 +25935,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="490">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="489"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25909,22 +25956,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="478" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="479"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="480" t="s">
+      <c r="I83" s="491" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="481"/>
-      <c r="K83" s="482">
+      <c r="J83" s="492"/>
+      <c r="K83" s="493">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="482"/>
+      <c r="L83" s="493"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -26071,12 +26118,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26093,6 +26134,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28654,23 +28701,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="501"/>
-      <c r="C1" s="503" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
-      <c r="L1" s="504"/>
-      <c r="M1" s="504"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="502"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28680,21 +28727,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="506"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="507" t="s">
+      <c r="H3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="507"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="474" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="528" t="s">
@@ -28712,14 +28759,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="474" t="s">
+      <c r="E4" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="H4" s="476" t="s">
+      <c r="F4" s="486"/>
+      <c r="H4" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="477"/>
+      <c r="I4" s="488"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28729,7 +28776,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="500"/>
+      <c r="P4" s="475"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -30754,11 +30801,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="483">
+      <c r="M49" s="494">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="483">
+      <c r="N49" s="494">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30766,7 +30813,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="495">
+      <c r="Q49" s="506">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30794,10 +30841,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="484"/>
-      <c r="N50" s="484"/>
+      <c r="M50" s="495"/>
+      <c r="N50" s="495"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="496"/>
+      <c r="Q50" s="507"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30872,11 +30919,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="497">
+      <c r="M53" s="472">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="498"/>
+      <c r="N53" s="473"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31367,26 +31414,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="491" t="s">
+      <c r="H77" s="502" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="492"/>
+      <c r="I77" s="503"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="493">
+      <c r="K77" s="504">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="494"/>
+      <c r="L77" s="505"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="485" t="s">
+      <c r="D78" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="485"/>
+      <c r="E78" s="496"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31395,22 +31442,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="486" t="s">
+      <c r="D79" s="497" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="486"/>
+      <c r="E79" s="497"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="487" t="s">
+      <c r="I79" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="488"/>
-      <c r="K79" s="489">
+      <c r="J79" s="499"/>
+      <c r="K79" s="500">
         <f>F81+F82+F83</f>
         <v>3490138.63</v>
       </c>
-      <c r="L79" s="489"/>
+      <c r="L79" s="500"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31451,11 +31498,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="490">
+      <c r="K81" s="501">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="489"/>
+      <c r="L81" s="500"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31472,10 +31519,10 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="478" t="s">
+      <c r="D83" s="489" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="479"/>
+      <c r="E83" s="490"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
@@ -31632,6 +31679,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31648,12 +31701,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="555">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2002,6 +2002,42 @@
   </si>
   <si>
     <t>QUESOS-POLLO-SALCHICHA-EMBUTIDOS</t>
+  </si>
+  <si>
+    <t>BIMBO-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>PASTOR-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>PAGO  PTU 2022</t>
+  </si>
+  <si>
+    <t>PICAÑA--POLLO--QUESOS</t>
+  </si>
+  <si>
+    <t>PASTOR-LOMOS-JAMON-QUESOS--POLLO</t>
+  </si>
+  <si>
+    <t>NOMINA # 21</t>
+  </si>
+  <si>
+    <t>ARABE-SALSAS-JAMON-SALAMI</t>
+  </si>
+  <si>
+    <t>MOLE-SALCHICHAS-JAMON-CHISTORRA-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>QUESOS-LONGANIZA-POLLO-JAMON-SALCHICHA-BIMBO</t>
+  </si>
+  <si>
+    <t>VERDURAS-POLLO-QUESOS-CHORIZOS</t>
+  </si>
+  <si>
+    <t>a favor  cliente</t>
+  </si>
+  <si>
+    <t>POLLO-PASTOR</t>
   </si>
 </sst>
 </file>
@@ -4483,38 +4519,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4591,6 +4597,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4657,9 +4696,6 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4669,8 +4705,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC99FF"/>
@@ -7177,8 +7213,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7204,23 +7240,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7230,27 +7266,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="469" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="528" t="s">
+      <c r="R3" s="529" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7265,14 +7301,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="475" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="476"/>
+      <c r="H4" s="477" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="478"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7282,11 +7318,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="529"/>
+      <c r="R4" s="530"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -8182,36 +8218,39 @@
       <c r="C23" s="33">
         <v>10818</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="47" t="s">
+        <v>543</v>
+      </c>
       <c r="E23" s="35">
         <v>45070</v>
       </c>
       <c r="F23" s="36">
-        <v>92326</v>
+        <v>93335</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45070</v>
       </c>
       <c r="I23" s="39">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>32470+1495+6613.2</f>
+        <v>40578.199999999997</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>40572</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>10818</v>
+        <v>93335.2</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
-        <v>-81508</v>
+        <v>0.19999999999708962</v>
       </c>
       <c r="R23" s="46">
         <v>0</v>
@@ -8224,33 +8263,47 @@
       <c r="B24" s="32">
         <v>45071</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>6434</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>544</v>
+      </c>
       <c r="E24" s="35">
         <v>45071</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>102339</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45071</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="67"/>
+      <c r="I24" s="39">
+        <v>2546</v>
+      </c>
+      <c r="J24" s="66">
+        <v>45071</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="L24" s="67">
+        <v>50210.49</v>
+      </c>
       <c r="M24" s="42">
-        <v>0</v>
+        <v>8905</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>34244</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>102339.48999999999</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48999999999068677</v>
       </c>
       <c r="R24" s="46" t="s">
         <v>149</v>
@@ -8263,36 +8316,44 @@
       <c r="B25" s="32">
         <v>45072</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>14472</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>546</v>
+      </c>
       <c r="E25" s="35">
         <v>45072</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>118402</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45072</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>5741</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <f>47718+12561</f>
+        <v>60279</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>50030</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130522</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R25" s="282">
+        <v>12120</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -8302,32 +8363,46 @@
       <c r="B26" s="32">
         <v>45073</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>9108</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>547</v>
+      </c>
       <c r="E26" s="35">
         <v>45073</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>156721</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45073</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="39">
+        <v>4124</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45073</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>548</v>
+      </c>
+      <c r="L26" s="71">
+        <v>23045</v>
+      </c>
       <c r="M26" s="42">
-        <v>0</v>
+        <v>40430</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>80014</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156721</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="1"/>
@@ -8347,29 +8422,37 @@
       <c r="B27" s="32">
         <v>45074</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>8304</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>549</v>
+      </c>
       <c r="E27" s="35">
         <v>45074</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>110558</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45074</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>1540</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="345"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <v>54194</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>46520</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110558</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="1"/>
@@ -8386,29 +8469,37 @@
       <c r="B28" s="32">
         <v>45075</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>22034</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>550</v>
+      </c>
       <c r="E28" s="35">
         <v>45075</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>106429</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45075</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>2207</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <v>37557</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>44631</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106429</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="1"/>
@@ -8425,29 +8516,38 @@
       <c r="B29" s="32">
         <v>45076</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>15991</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>551</v>
+      </c>
       <c r="E29" s="35">
         <v>45076</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>138476</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45076</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>2525</v>
+      </c>
       <c r="J29" s="339"/>
       <c r="K29" s="346"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <f>38917+28959</f>
+        <v>67876</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>52084</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138476</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="1"/>
@@ -8464,36 +8564,48 @@
       <c r="B30" s="32">
         <v>45077</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>18175</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>552</v>
+      </c>
       <c r="E30" s="35">
         <v>45077</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>121163</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45077</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>1322</v>
+      </c>
       <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>49216+1323+8868.26</f>
+        <v>59407.26</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>43414</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122318.26000000001</v>
+      </c>
+      <c r="Q30" s="468">
+        <f t="shared" si="1"/>
+        <v>1155.2600000000093</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -8503,29 +8615,37 @@
       <c r="B31" s="32">
         <v>45078</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>2395</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>554</v>
+      </c>
       <c r="E31" s="35">
         <v>45078</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>141828</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45078</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="39">
+        <v>2026</v>
+      </c>
       <c r="J31" s="338"/>
       <c r="K31" s="347"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
-        <v>0</v>
+        <v>85441</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>51966</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141828</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="1"/>
@@ -8730,12 +8850,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="69">
-        <f t="shared" si="0"/>
-        <v>7962</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="1"/>
-        <v>7962</v>
+        <v>0</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -8815,12 +8934,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="69">
-        <f t="shared" si="0"/>
-        <v>31612</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="45">
         <f t="shared" si="1"/>
-        <v>31612</v>
+        <v>0</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -8858,8 +8976,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="69">
-        <f t="shared" si="0"/>
-        <v>45355</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="45">
         <v>0</v>
@@ -8876,7 +8993,7 @@
       <c r="C41" s="93">
         <v>9354</v>
       </c>
-      <c r="D41" s="530" t="s">
+      <c r="D41" s="472" t="s">
         <v>540</v>
       </c>
       <c r="E41" s="35"/>
@@ -8884,9 +9001,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="338"/>
-      <c r="K41" s="347"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="338">
+        <v>45073</v>
+      </c>
+      <c r="K41" s="347" t="s">
+        <v>548</v>
+      </c>
+      <c r="L41" s="49">
+        <v>27077</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -8894,12 +9017,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="69">
-        <f t="shared" si="0"/>
-        <v>9354</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="45">
         <f t="shared" si="1"/>
-        <v>9354</v>
+        <v>0</v>
       </c>
       <c r="R41" s="46">
         <v>0</v>
@@ -9125,21 +9247,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="494">
+      <c r="M49" s="484">
         <f>SUM(M5:M40)</f>
-        <v>1167006.1000000001</v>
-      </c>
-      <c r="N49" s="494">
+        <v>1621673.56</v>
+      </c>
+      <c r="N49" s="484">
         <f>SUM(N5:N40)</f>
-        <v>860043.15</v>
+        <v>1303518.1499999999</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2547799.75</v>
-      </c>
-      <c r="Q49" s="506">
+        <v>3554579.7</v>
+      </c>
+      <c r="Q49" s="496">
         <f>SUM(Q5:Q40)</f>
-        <v>-37299.25</v>
+        <v>5790.6999999999971</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -9158,13 +9280,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="485"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="497"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>1810</v>
+        <v>13930</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9216,11 +9338,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="498">
         <f>M49+N49</f>
-        <v>2027049.25</v>
-      </c>
-      <c r="N53" s="473"/>
+        <v>2925191.71</v>
+      </c>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9603,7 +9725,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>345693.5</v>
+        <v>442606.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9611,7 +9733,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2537934</v>
+        <v>3534859</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9619,7 +9741,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>58427</v>
+        <v>81825</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9627,7 +9749,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>159298</v>
+        <v>236585.49</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -9645,50 +9767,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="494">
         <f>I75+L75</f>
-        <v>217725</v>
-      </c>
-      <c r="L77" s="505"/>
+        <v>318410.49</v>
+      </c>
+      <c r="L77" s="495"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="486" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="486"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1974515.5</v>
+        <v>2773842.01</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="487"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="489"/>
+      <c r="K79" s="490">
         <f>F81+F82+F83</f>
-        <v>5872483.0299999993</v>
-      </c>
-      <c r="L79" s="500"/>
+        <v>6671809.5399999991</v>
+      </c>
+      <c r="L79" s="490"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9722,18 +9844,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1974515.5</v>
+        <v>2773842.01</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="491">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="490"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9750,22 +9872,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="479" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="523" t="s">
+      <c r="I83" s="524" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="524"/>
-      <c r="K83" s="525">
+      <c r="J83" s="525"/>
+      <c r="K83" s="526">
         <f>K79+K81</f>
-        <v>2807199.2399999993</v>
-      </c>
-      <c r="L83" s="525"/>
+        <v>3606525.7499999991</v>
+      </c>
+      <c r="L83" s="526"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -9910,6 +10032,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9926,12 +10054,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9948,7 +10070,7 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10719,10 +10841,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="508"/>
-      <c r="J36" s="509"/>
-      <c r="K36" s="509"/>
-      <c r="L36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -10739,10 +10861,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509"/>
-      <c r="K37" s="509"/>
-      <c r="L37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -10799,10 +10921,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="511" t="s">
+      <c r="I40" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="512"/>
+      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -10821,8 +10943,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="513"/>
-      <c r="J41" s="514"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -10841,8 +10963,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -11346,10 +11468,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="517" t="s">
+      <c r="I67" s="518" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="518"/>
+      <c r="J67" s="519"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -11369,11 +11491,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="521" t="s">
+      <c r="G68" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="526"/>
-      <c r="J68" s="527"/>
+      <c r="I68" s="527"/>
+      <c r="J68" s="528"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -11384,7 +11506,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="522"/>
+      <c r="G69" s="523"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -12007,23 +12129,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12033,24 +12155,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="483" t="s">
+      <c r="R3" s="473" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12065,14 +12187,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="475" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="476"/>
+      <c r="H4" s="477" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="478"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12082,11 +12204,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="484"/>
+      <c r="R4" s="474"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13921,11 +14043,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="494">
+      <c r="M49" s="484">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="484">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13933,7 +14055,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="496">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13954,10 +14076,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="485"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="497"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14012,11 +14134,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14441,26 +14563,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="494">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="495"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="486" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="486"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14469,22 +14591,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="487"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="489"/>
+      <c r="K79" s="490">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="490"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14525,11 +14647,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="491">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="490"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14546,22 +14668,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="479" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="491" t="s">
+      <c r="I83" s="481" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="492"/>
-      <c r="K83" s="493">
+      <c r="J83" s="482"/>
+      <c r="K83" s="483">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="493"/>
+      <c r="L83" s="483"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14708,6 +14830,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14724,12 +14852,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16106,10 +16228,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="508"/>
-      <c r="J36" s="509"/>
-      <c r="K36" s="509"/>
-      <c r="L36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -16136,10 +16258,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509"/>
-      <c r="K37" s="509"/>
-      <c r="L37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -16196,10 +16318,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="511" t="s">
+      <c r="I40" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="512"/>
+      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -16218,8 +16340,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="513"/>
-      <c r="J41" s="514"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -16238,8 +16360,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -16743,10 +16865,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="517" t="s">
+      <c r="I67" s="518" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="518"/>
+      <c r="J67" s="519"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -16766,11 +16888,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="521" t="s">
+      <c r="G68" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="519"/>
-      <c r="J68" s="520"/>
+      <c r="I68" s="520"/>
+      <c r="J68" s="521"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16781,7 +16903,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="522"/>
+      <c r="G69" s="523"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -17412,23 +17534,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17438,24 +17560,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="483" t="s">
+      <c r="R3" s="473" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17470,14 +17592,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="475" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="476"/>
+      <c r="H4" s="477" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="478"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17487,11 +17609,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="484"/>
+      <c r="R4" s="474"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19467,11 +19589,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="484">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="484">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19479,7 +19601,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="496">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19512,10 +19634,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="485"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="497"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19606,11 +19728,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="472">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20169,26 +20291,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="494">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="495"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="486" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="486"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -20197,22 +20319,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="487"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="489"/>
+      <c r="K79" s="490">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="490"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20253,11 +20375,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="491">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="490"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20274,22 +20396,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="479" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="523" t="s">
+      <c r="I83" s="524" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="524"/>
-      <c r="K83" s="525">
+      <c r="J83" s="525"/>
+      <c r="K83" s="526">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="525"/>
+      <c r="L83" s="526"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -20436,12 +20558,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20458,6 +20574,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21869,10 +21991,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="508"/>
-      <c r="J36" s="509"/>
-      <c r="K36" s="509"/>
-      <c r="L36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -21899,10 +22021,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509"/>
-      <c r="K37" s="509"/>
-      <c r="L37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -21969,10 +22091,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="511" t="s">
+      <c r="I40" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="512"/>
+      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -21991,8 +22113,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="513"/>
-      <c r="J41" s="514"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -22011,8 +22133,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -22516,10 +22638,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="517" t="s">
+      <c r="I67" s="518" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="518"/>
+      <c r="J67" s="519"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -22539,11 +22661,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="521" t="s">
+      <c r="G68" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="526"/>
-      <c r="J68" s="527"/>
+      <c r="I68" s="527"/>
+      <c r="J68" s="528"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22554,7 +22676,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="522"/>
+      <c r="G69" s="523"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -23169,23 +23291,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -23195,24 +23317,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="528" t="s">
+      <c r="R3" s="529" t="s">
         <v>3</v>
       </c>
     </row>
@@ -23227,14 +23349,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="475" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="476"/>
+      <c r="H4" s="477" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="478"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23244,11 +23366,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="529"/>
+      <c r="R4" s="530"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -25229,11 +25351,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="484">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="484">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -25241,7 +25363,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="496">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25274,10 +25396,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="485"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="497"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25368,11 +25490,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="472">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25851,26 +25973,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="494">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="495"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="486" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="486"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -25879,22 +26001,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="487"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="489"/>
+      <c r="K79" s="490">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="490"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -25935,11 +26057,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="491">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="490"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -25956,22 +26078,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="479" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="491" t="s">
+      <c r="I83" s="481" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="492"/>
-      <c r="K83" s="493">
+      <c r="J83" s="482"/>
+      <c r="K83" s="483">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="493"/>
+      <c r="L83" s="483"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -26118,6 +26240,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26134,12 +26262,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27413,10 +27535,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="508"/>
-      <c r="J36" s="509"/>
-      <c r="K36" s="509"/>
-      <c r="L36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -27433,10 +27555,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509"/>
-      <c r="K37" s="509"/>
-      <c r="L37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -27493,10 +27615,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="511" t="s">
+      <c r="I40" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="512"/>
+      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -27515,8 +27637,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="513"/>
-      <c r="J41" s="514"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -27535,8 +27657,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -28040,10 +28162,10 @@
         <f>SUM(G3:G66)</f>
         <v>313154.44</v>
       </c>
-      <c r="I67" s="517" t="s">
+      <c r="I67" s="518" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="518"/>
+      <c r="J67" s="519"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -28063,11 +28185,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="521" t="s">
+      <c r="G68" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="526"/>
-      <c r="J68" s="527"/>
+      <c r="I68" s="527"/>
+      <c r="J68" s="528"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -28078,7 +28200,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="522"/>
+      <c r="G69" s="523"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28672,7 +28794,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
@@ -28701,23 +28823,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28727,24 +28849,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="474" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="528" t="s">
+      <c r="R3" s="529" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28759,14 +28881,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="485" t="s">
+      <c r="E4" s="475" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="486"/>
-      <c r="H4" s="487" t="s">
+      <c r="F4" s="476"/>
+      <c r="H4" s="477" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="488"/>
+      <c r="I4" s="478"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28776,11 +28898,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="475"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="529"/>
+      <c r="R4" s="530"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -30801,11 +30923,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="494">
+      <c r="M49" s="484">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="494">
+      <c r="N49" s="484">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30813,7 +30935,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="506">
+      <c r="Q49" s="496">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30841,10 +30963,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="495"/>
-      <c r="N50" s="495"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="485"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="507"/>
+      <c r="Q50" s="497"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30919,11 +31041,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="472">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="473"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31414,26 +31536,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="502" t="s">
+      <c r="H77" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="503"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="504">
+      <c r="K77" s="494">
         <f>I75+L75</f>
         <v>668472.46999999986</v>
       </c>
-      <c r="L77" s="505"/>
+      <c r="L77" s="495"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="496" t="s">
+      <c r="D78" s="486" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="496"/>
+      <c r="E78" s="486"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2556324.1800000002</v>
@@ -31442,22 +31564,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="497" t="s">
+      <c r="D79" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="497"/>
+      <c r="E79" s="487"/>
       <c r="F79" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="498" t="s">
+      <c r="I79" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="499"/>
-      <c r="K79" s="500">
+      <c r="J79" s="489"/>
+      <c r="K79" s="490">
         <f>F81+F82+F83</f>
         <v>3490138.63</v>
       </c>
-      <c r="L79" s="500"/>
+      <c r="L79" s="490"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -31498,11 +31620,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="501">
+      <c r="K81" s="491">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="500"/>
+      <c r="L81" s="490"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -31519,22 +31641,22 @@
       <c r="C83" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="489" t="s">
+      <c r="D83" s="479" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="490"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I83" s="523" t="s">
+      <c r="I83" s="524" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="524"/>
-      <c r="K83" s="525">
+      <c r="J83" s="525"/>
+      <c r="K83" s="526">
         <f>K79+K81</f>
         <v>-77854.990000000224</v>
       </c>
-      <c r="L83" s="525"/>
+      <c r="L83" s="526"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -31679,12 +31801,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31701,6 +31817,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32979,10 +33101,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="508"/>
-      <c r="J36" s="509"/>
-      <c r="K36" s="509"/>
-      <c r="L36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -33005,10 +33127,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509"/>
-      <c r="K37" s="509"/>
-      <c r="L37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -33083,10 +33205,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="511" t="s">
+      <c r="I40" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="512"/>
+      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -33111,8 +33233,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="513"/>
-      <c r="J41" s="514"/>
+      <c r="I41" s="514"/>
+      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -33137,8 +33259,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33660,10 +33782,10 @@
         <f>SUM(G3:G66)</f>
         <v>2021696.34</v>
       </c>
-      <c r="I67" s="517" t="s">
+      <c r="I67" s="518" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="518"/>
+      <c r="J67" s="519"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -33683,11 +33805,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="521" t="s">
+      <c r="G68" s="522" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="526"/>
-      <c r="J68" s="527"/>
+      <c r="I68" s="527"/>
+      <c r="J68" s="528"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33698,7 +33820,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="522"/>
+      <c r="G69" s="523"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="642">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2038,6 +2038,267 @@
   </si>
   <si>
     <t>POLLO-PASTOR</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-ARABE-PASTOR</t>
+  </si>
+  <si>
+    <t>9452 E</t>
+  </si>
+  <si>
+    <t>9581 E</t>
+  </si>
+  <si>
+    <t>9685 E</t>
+  </si>
+  <si>
+    <t>9717 E</t>
+  </si>
+  <si>
+    <t>9782 E</t>
+  </si>
+  <si>
+    <t>9874 E</t>
+  </si>
+  <si>
+    <t>9958 E</t>
+  </si>
+  <si>
+    <t>10011 E</t>
+  </si>
+  <si>
+    <t>10238 E</t>
+  </si>
+  <si>
+    <t>10240 E</t>
+  </si>
+  <si>
+    <t>10349 E</t>
+  </si>
+  <si>
+    <t>10452 E</t>
+  </si>
+  <si>
+    <t>10571 E</t>
+  </si>
+  <si>
+    <t>10638 E</t>
+  </si>
+  <si>
+    <t>10657 E</t>
+  </si>
+  <si>
+    <t>10823 E</t>
+  </si>
+  <si>
+    <t>10885 E</t>
+  </si>
+  <si>
+    <t>11049 E</t>
+  </si>
+  <si>
+    <t>11194 E</t>
+  </si>
+  <si>
+    <t>11233 E</t>
+  </si>
+  <si>
+    <t>11384 E</t>
+  </si>
+  <si>
+    <t>11452 E</t>
+  </si>
+  <si>
+    <t>11580 E</t>
+  </si>
+  <si>
+    <t>11650 E</t>
+  </si>
+  <si>
+    <t>11707 E</t>
+  </si>
+  <si>
+    <t>11748 E</t>
+  </si>
+  <si>
+    <t>11796 E</t>
+  </si>
+  <si>
+    <t>11798 E</t>
+  </si>
+  <si>
+    <t>11870 E</t>
+  </si>
+  <si>
+    <t>11990 E</t>
+  </si>
+  <si>
+    <t>12081 E</t>
+  </si>
+  <si>
+    <t>12096 E</t>
+  </si>
+  <si>
+    <t>12119 E</t>
+  </si>
+  <si>
+    <t>12235 E</t>
+  </si>
+  <si>
+    <t>Limpieza trampas</t>
+  </si>
+  <si>
+    <t>Recoleccion basura</t>
+  </si>
+  <si>
+    <t>Seguro Carga</t>
+  </si>
+  <si>
+    <t>Limpieza Vidrios</t>
+  </si>
+  <si>
+    <t>desechables</t>
+  </si>
+  <si>
+    <t>aguas residuales</t>
+  </si>
+  <si>
+    <t>ATUN ,SALMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumtec Fuente </t>
+  </si>
+  <si>
+    <t>Quesos, gouda, manchego, asadero, panela</t>
+  </si>
+  <si>
+    <t>COMPRA VINIL</t>
+  </si>
+  <si>
+    <t>Filete cerdo</t>
+  </si>
+  <si>
+    <t>etiquetas queso</t>
+  </si>
+  <si>
+    <t>ROLLOS TERMICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pechuga,mezquite, buffalo boneless </t>
+  </si>
+  <si>
+    <t>SURIMI Neptuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manto TORNADO </t>
+  </si>
+  <si>
+    <t>Pechuga pavo, queso puerco</t>
+  </si>
+  <si>
+    <t>chorizo, español , pamplona</t>
+  </si>
+  <si>
+    <t>FLETES</t>
+  </si>
+  <si>
+    <t>Material limpieza</t>
+  </si>
+  <si>
+    <t>basculas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complemento Tyson </t>
+  </si>
+  <si>
+    <t>SALMON</t>
+  </si>
+  <si>
+    <t>QUESOS ARCE</t>
+  </si>
+  <si>
+    <t>Roasbeef, chorizo español</t>
+  </si>
+  <si>
+    <t>Salsas oaxaca</t>
+  </si>
+  <si>
+    <t>Cullatelo   cerdo</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>6-may-2023</t>
+  </si>
+  <si>
+    <t>8-may-2023</t>
+  </si>
+  <si>
+    <t>10-may-2023</t>
+  </si>
+  <si>
+    <t>11-may-2023</t>
+  </si>
+  <si>
+    <t>12-may-2023</t>
+  </si>
+  <si>
+    <t>13-may-2023</t>
+  </si>
+  <si>
+    <t>15-may-2023</t>
+  </si>
+  <si>
+    <t>16-may-2023</t>
+  </si>
+  <si>
+    <t>17-may-2023</t>
+  </si>
+  <si>
+    <t>18-may-2023</t>
+  </si>
+  <si>
+    <t>19-may-2023</t>
+  </si>
+  <si>
+    <t>20-may-2023</t>
+  </si>
+  <si>
+    <t>22-may-2023</t>
+  </si>
+  <si>
+    <t>23-may-2023</t>
+  </si>
+  <si>
+    <t>24-may-2023</t>
+  </si>
+  <si>
+    <t>25-may-2023</t>
+  </si>
+  <si>
+    <t>26-may-2023</t>
+  </si>
+  <si>
+    <t>27-may-2023</t>
+  </si>
+  <si>
+    <t>30-may-2023</t>
+  </si>
+  <si>
+    <t>31-may-2023</t>
+  </si>
+  <si>
+    <t>1-jun-2023</t>
+  </si>
+  <si>
+    <t>2-jun-2023</t>
+  </si>
+  <si>
+    <t>3-jun-2023</t>
+  </si>
+  <si>
+    <t>3-May-23--11-May-23</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -3641,12 +3902,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4492,12 +4764,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4520,6 +4786,27 @@
     </xf>
     <xf numFmtId="44" fontId="19" fillId="21" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4696,6 +4983,32 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4705,9 +5018,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
@@ -6011,13 +6324,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6064,13 +6377,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6117,13 +6430,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6170,13 +6483,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6223,13 +6536,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6284,7 +6597,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -6379,13 +6692,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7213,8 +7526,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7240,23 +7553,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="502"/>
-      <c r="C1" s="504" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="505"/>
-      <c r="M1" s="505"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="503"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7266,27 +7579,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="507"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="508" t="s">
+      <c r="H3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="508"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="500" t="s">
+      <c r="P3" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="469" t="s">
+      <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="529" t="s">
+      <c r="R3" s="536" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7301,14 +7614,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7318,11 +7631,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="501"/>
+      <c r="P4" s="508"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="530"/>
+      <c r="R4" s="537"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7369,7 +7682,7 @@
         <f t="shared" ref="P5:P43" si="0">N5+M5+L5+I5+C5</f>
         <v>170790.27</v>
       </c>
-      <c r="Q5" s="468">
+      <c r="Q5" s="466">
         <f t="shared" ref="Q5:Q47" si="1">P5-F5</f>
         <v>1326.2699999999895</v>
       </c>
@@ -7414,7 +7727,7 @@
         <f t="shared" si="0"/>
         <v>102954</v>
       </c>
-      <c r="Q6" s="468">
+      <c r="Q6" s="466">
         <f t="shared" si="1"/>
         <v>1092</v>
       </c>
@@ -7462,7 +7775,7 @@
         <f t="shared" si="0"/>
         <v>169075.13</v>
       </c>
-      <c r="Q7" s="468">
+      <c r="Q7" s="466">
         <f t="shared" si="1"/>
         <v>1208.1300000000047</v>
       </c>
@@ -7510,7 +7823,7 @@
         <f t="shared" si="0"/>
         <v>151623.75</v>
       </c>
-      <c r="Q8" s="468">
+      <c r="Q8" s="466">
         <f t="shared" si="1"/>
         <v>1008.75</v>
       </c>
@@ -7939,13 +8252,13 @@
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="471">
+      <c r="M17" s="469">
         <v>0</v>
       </c>
       <c r="N17" s="43">
         <v>53215</v>
       </c>
-      <c r="O17" s="470" t="s">
+      <c r="O17" s="468" t="s">
         <v>531</v>
       </c>
       <c r="P17" s="49">
@@ -8050,7 +8363,7 @@
       <c r="N19" s="43">
         <v>62904</v>
       </c>
-      <c r="O19" s="470" t="s">
+      <c r="O19" s="468" t="s">
         <v>535</v>
       </c>
       <c r="P19" s="49">
@@ -8597,7 +8910,7 @@
         <f t="shared" si="0"/>
         <v>122318.26000000001</v>
       </c>
-      <c r="Q30" s="468">
+      <c r="Q30" s="466">
         <f t="shared" si="1"/>
         <v>1155.2600000000093</v>
       </c>
@@ -8662,32 +8975,40 @@
       <c r="B32" s="32">
         <v>45079</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="305"/>
+      <c r="C32" s="33">
+        <v>14938</v>
+      </c>
+      <c r="D32" s="305" t="s">
+        <v>555</v>
+      </c>
       <c r="E32" s="35">
         <v>45079</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36">
+        <v>130739</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38">
         <v>45079</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="39">
+        <v>1675</v>
+      </c>
       <c r="J32" s="367"/>
       <c r="K32" s="368"/>
       <c r="L32" s="369"/>
       <c r="M32" s="42">
-        <v>0</v>
+        <v>62238</v>
       </c>
       <c r="N32" s="43">
-        <v>0</v>
+        <v>51888</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130739</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="1"/>
@@ -8829,7 +9150,7 @@
       <c r="B37" s="32">
         <v>45066</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="455">
         <v>7962</v>
       </c>
       <c r="D37" s="94" t="s">
@@ -8865,7 +9186,7 @@
       <c r="B38" s="32">
         <v>45066</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="455">
         <v>3610</v>
       </c>
       <c r="D38" s="91" t="s">
@@ -8907,7 +9228,7 @@
       <c r="B39" s="32">
         <v>45066</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="455">
         <v>4127</v>
       </c>
       <c r="D39" s="94" t="s">
@@ -8949,7 +9270,7 @@
       <c r="B40" s="32">
         <v>45066</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="455">
         <v>18285</v>
       </c>
       <c r="D40" s="94" t="s">
@@ -8990,10 +9311,10 @@
       <c r="B41" s="32">
         <v>45066</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="455">
         <v>9354</v>
       </c>
-      <c r="D41" s="472" t="s">
+      <c r="D41" s="470" t="s">
         <v>540</v>
       </c>
       <c r="E41" s="35"/>
@@ -9029,9 +9350,15 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="32">
+        <v>45058</v>
+      </c>
+      <c r="C42" s="93">
+        <v>150000</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
@@ -9048,11 +9375,11 @@
       </c>
       <c r="P42" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="Q42" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="R42" s="46">
         <v>0</v>
@@ -9060,9 +9387,15 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="32">
+        <v>45062</v>
+      </c>
+      <c r="C43" s="93">
+        <v>150477.5</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
@@ -9079,11 +9412,11 @@
       </c>
       <c r="P43" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150477.5</v>
       </c>
       <c r="Q43" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150477.5</v>
       </c>
       <c r="R43" s="46">
         <v>0</v>
@@ -9091,16 +9424,22 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="32">
+        <v>45068</v>
+      </c>
+      <c r="C44" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
       <c r="J44" s="338"/>
-      <c r="K44" s="343"/>
+      <c r="K44" s="471"/>
       <c r="L44" s="49"/>
       <c r="M44" s="42">
         <v>0</v>
@@ -9121,9 +9460,15 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="102"/>
+      <c r="B45" s="32">
+        <v>45070</v>
+      </c>
+      <c r="C45" s="93">
+        <v>405554.6</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -9151,17 +9496,29 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="32">
+        <v>45061</v>
+      </c>
+      <c r="C46" s="93">
+        <v>1301.5999999999999</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>611</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="338"/>
-      <c r="K46" s="343"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="338">
+        <v>45054</v>
+      </c>
+      <c r="K46" s="349" t="s">
+        <v>591</v>
+      </c>
+      <c r="L46" s="49">
+        <v>4908.49</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -9181,17 +9538,29 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="102"/>
+      <c r="B47" s="32">
+        <v>45063</v>
+      </c>
+      <c r="C47" s="93">
+        <v>42750</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>612</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="343"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="338">
+        <v>45054</v>
+      </c>
+      <c r="K47" s="349" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" s="49">
+        <v>5269.22</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -9211,17 +9580,29 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="102"/>
+      <c r="B48" s="32">
+        <v>45064</v>
+      </c>
+      <c r="C48" s="93">
+        <v>3227.88</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>613</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="343"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="338">
+        <v>45054</v>
+      </c>
+      <c r="K48" s="349" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="49">
+        <v>14500</v>
+      </c>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
@@ -9236,30 +9617,42 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="403"/>
+      <c r="B49" s="32">
+        <v>45064</v>
+      </c>
+      <c r="C49" s="93">
+        <v>5227.2</v>
+      </c>
+      <c r="D49" s="403" t="s">
+        <v>614</v>
+      </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="338"/>
-      <c r="K49" s="343"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="484">
+      <c r="J49" s="338">
+        <v>45055</v>
+      </c>
+      <c r="K49" s="343" t="s">
+        <v>609</v>
+      </c>
+      <c r="L49" s="49">
+        <v>8091</v>
+      </c>
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
-        <v>1621673.56</v>
-      </c>
-      <c r="N49" s="484">
+        <v>1683911.56</v>
+      </c>
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
-        <v>1303518.1499999999</v>
+        <v>1355406.15</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3554579.7</v>
-      </c>
-      <c r="Q49" s="496">
+        <v>3685318.7</v>
+      </c>
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -9269,21 +9662,33 @@
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="403"/>
+      <c r="B50" s="32">
+        <v>45071</v>
+      </c>
+      <c r="C50" s="93">
+        <v>5367.7</v>
+      </c>
+      <c r="D50" s="403" t="s">
+        <v>615</v>
+      </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="485"/>
-      <c r="N50" s="485"/>
+      <c r="J50" s="87">
+        <v>45057</v>
+      </c>
+      <c r="K50" s="343" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="89">
+        <v>1856</v>
+      </c>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="497"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -9291,17 +9696,29 @@
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="32">
+        <v>45078</v>
+      </c>
+      <c r="C51" s="93">
+        <v>16543.41</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>616</v>
+      </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="338">
+        <v>45061</v>
+      </c>
+      <c r="K51" s="343" t="s">
+        <v>610</v>
+      </c>
+      <c r="L51" s="49">
+        <v>1160</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -9317,9 +9734,15 @@
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="363">
+        <v>45063</v>
+      </c>
+      <c r="K52" s="349" t="s">
+        <v>233</v>
+      </c>
+      <c r="L52" s="55">
+        <v>6264</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -9335,14 +9758,20 @@
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="338"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="498">
+      <c r="J53" s="338">
+        <v>45063</v>
+      </c>
+      <c r="K53" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="49">
+        <v>9804.18</v>
+      </c>
+      <c r="M53" s="505">
         <f>M49+N49</f>
-        <v>2925191.71</v>
-      </c>
-      <c r="N53" s="499"/>
+        <v>3039317.71</v>
+      </c>
+      <c r="N53" s="506"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -9356,9 +9785,15 @@
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="338"/>
-      <c r="K54" s="349"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="338">
+        <v>45064</v>
+      </c>
+      <c r="K54" s="343" t="s">
+        <v>608</v>
+      </c>
+      <c r="L54" s="49">
+        <v>28000</v>
+      </c>
       <c r="M54" s="113"/>
       <c r="N54" s="113"/>
       <c r="P54" s="44"/>
@@ -9374,9 +9809,15 @@
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="338"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="49"/>
+      <c r="J55" s="338">
+        <v>45068</v>
+      </c>
+      <c r="K55" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L55" s="49">
+        <v>4415.8</v>
+      </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
       <c r="P55" s="44"/>
@@ -9392,9 +9833,15 @@
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="343"/>
-      <c r="L56" s="84"/>
+      <c r="J56" s="341">
+        <v>45072</v>
+      </c>
+      <c r="K56" s="456" t="s">
+        <v>608</v>
+      </c>
+      <c r="L56" s="84">
+        <v>28000</v>
+      </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
       <c r="P56" s="44"/>
@@ -9410,9 +9857,15 @@
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="343"/>
-      <c r="L57" s="84"/>
+      <c r="J57" s="341">
+        <v>45077</v>
+      </c>
+      <c r="K57" s="343" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="84">
+        <v>1298.04</v>
+      </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
       <c r="P57" s="44"/>
@@ -9428,9 +9881,15 @@
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="343"/>
-      <c r="L58" s="84"/>
+      <c r="J58" s="341">
+        <v>45077</v>
+      </c>
+      <c r="K58" s="343" t="s">
+        <v>592</v>
+      </c>
+      <c r="L58" s="84">
+        <v>3944</v>
+      </c>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
       <c r="P58" s="44"/>
@@ -9446,9 +9905,15 @@
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="341"/>
-      <c r="K59" s="343"/>
-      <c r="L59" s="84"/>
+      <c r="J59" s="341">
+        <v>45078</v>
+      </c>
+      <c r="K59" s="349" t="s">
+        <v>593</v>
+      </c>
+      <c r="L59" s="84">
+        <v>2320</v>
+      </c>
       <c r="M59" s="113"/>
       <c r="N59" s="113"/>
       <c r="P59" s="44"/>
@@ -9464,9 +9929,15 @@
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="343"/>
-      <c r="L60" s="84"/>
+      <c r="J60" s="341">
+        <v>45078</v>
+      </c>
+      <c r="K60" s="350" t="s">
+        <v>216</v>
+      </c>
+      <c r="L60" s="84">
+        <v>6800.16</v>
+      </c>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
       <c r="P60" s="44"/>
@@ -9482,9 +9953,15 @@
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="341"/>
-      <c r="K61" s="456"/>
-      <c r="L61" s="84"/>
+      <c r="J61" s="341">
+        <v>45079</v>
+      </c>
+      <c r="K61" s="349" t="s">
+        <v>590</v>
+      </c>
+      <c r="L61" s="84">
+        <v>850</v>
+      </c>
       <c r="M61" s="113"/>
       <c r="N61" s="113"/>
       <c r="P61" s="44"/>
@@ -9500,9 +9977,15 @@
       <c r="G62" s="37"/>
       <c r="H62" s="106"/>
       <c r="I62" s="103"/>
-      <c r="J62" s="341"/>
-      <c r="K62" s="350"/>
-      <c r="L62" s="84"/>
+      <c r="J62" s="341">
+        <v>45079</v>
+      </c>
+      <c r="K62" s="479" t="s">
+        <v>239</v>
+      </c>
+      <c r="L62" s="457">
+        <v>36559.629999999997</v>
+      </c>
       <c r="M62" s="113"/>
       <c r="N62" s="113"/>
       <c r="P62" s="44"/>
@@ -9725,7 +10208,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>442606.5</v>
+        <v>1437994.39</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -9733,7 +10216,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>3534859</v>
+        <v>3665598</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -9741,7 +10224,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>81825</v>
+        <v>83500</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -9749,7 +10232,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>236585.49</v>
+        <v>400626.00999999989</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -9767,50 +10250,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="492" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="493"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="494">
+      <c r="K77" s="501">
         <f>I75+L75</f>
-        <v>318410.49</v>
-      </c>
-      <c r="L77" s="495"/>
+        <v>484126.00999999989</v>
+      </c>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="486" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="486"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>2773842.01</v>
+        <v>1743477.6000000003</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="487" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="487"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
-        <v>0</v>
-      </c>
-      <c r="I79" s="488" t="s">
+        <v>-1542483.8</v>
+      </c>
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="489"/>
-      <c r="K79" s="490">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
-        <v>6671809.5399999991</v>
-      </c>
-      <c r="L79" s="490"/>
+        <v>4235033.33</v>
+      </c>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -9823,7 +10306,7 @@
       </c>
       <c r="E80" s="162"/>
       <c r="F80" s="163">
-        <v>0</v>
+        <v>-113965</v>
       </c>
       <c r="I80" s="164"/>
       <c r="J80" s="165"/>
@@ -9844,18 +10327,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>2773842.01</v>
+        <v>87028.800000000279</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="491">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="490"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -9865,29 +10348,29 @@
         <v>23</v>
       </c>
       <c r="F82" s="101">
-        <v>0</v>
+        <v>250037</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="479" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="480"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="524" t="s">
+      <c r="I83" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="525"/>
-      <c r="K83" s="526">
+      <c r="J83" s="532"/>
+      <c r="K83" s="533">
         <f>K79+K81</f>
-        <v>3606525.7499999991</v>
-      </c>
-      <c r="L83" s="526"/>
+        <v>1169749.54</v>
+      </c>
+      <c r="L83" s="533"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10031,6 +10514,9 @@
       <c r="F105" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="J46:L62">
+    <sortCondition ref="J46:J62"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -10069,8 +10555,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,586 +10638,916 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
+      <c r="B3" s="215">
+        <v>45052</v>
+      </c>
+      <c r="C3" s="216" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" s="217">
+        <v>18569.32</v>
+      </c>
       <c r="E3" s="218"/>
       <c r="F3" s="217"/>
       <c r="G3" s="219">
         <f>D3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="435"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="237"/>
+        <v>18569.32</v>
+      </c>
+      <c r="I3" s="539" t="s">
+        <v>618</v>
+      </c>
+      <c r="J3" s="540">
+        <v>12261</v>
+      </c>
+      <c r="K3" s="541">
+        <v>600</v>
+      </c>
       <c r="L3" s="218"/>
       <c r="M3" s="237"/>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="222"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="222">
+        <v>45054</v>
+      </c>
+      <c r="C4" s="223" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" s="101">
+        <v>166027.72</v>
+      </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>0</v>
+        <v>166027.72</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="435"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="237"/>
+      <c r="I4" s="539" t="s">
+        <v>618</v>
+      </c>
+      <c r="J4" s="540">
+        <v>12264</v>
+      </c>
+      <c r="K4" s="541">
+        <v>1080</v>
+      </c>
       <c r="L4" s="218"/>
       <c r="M4" s="237"/>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="222"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="222">
+        <v>45055</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="101">
+        <v>52912.7</v>
+      </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="435"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="237"/>
+        <v>52912.7</v>
+      </c>
+      <c r="I5" s="539" t="s">
+        <v>619</v>
+      </c>
+      <c r="J5" s="540">
+        <v>12276</v>
+      </c>
+      <c r="K5" s="541">
+        <v>360</v>
+      </c>
       <c r="L5" s="218"/>
       <c r="M5" s="237"/>
       <c r="N5" s="227">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
-        <v>0</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="222"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="222">
+        <v>45055</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="101">
+        <v>3660.8</v>
+      </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="435"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="237"/>
+        <v>3660.8</v>
+      </c>
+      <c r="I6" s="542" t="s">
+        <v>620</v>
+      </c>
+      <c r="J6" s="543">
+        <v>12298</v>
+      </c>
+      <c r="K6" s="544">
+        <v>480</v>
+      </c>
       <c r="L6" s="218"/>
       <c r="M6" s="237"/>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="222"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="222">
+        <v>45056</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" s="101">
+        <v>158756.93</v>
+      </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="435"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="237"/>
+        <v>158756.93</v>
+      </c>
+      <c r="I7" s="539" t="s">
+        <v>621</v>
+      </c>
+      <c r="J7" s="540">
+        <v>12313</v>
+      </c>
+      <c r="K7" s="541">
+        <v>16911</v>
+      </c>
       <c r="L7" s="218"/>
       <c r="M7" s="237"/>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="222"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="222">
+        <v>45057</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="101">
+        <v>12258</v>
+      </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="435"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="237"/>
+        <v>12258</v>
+      </c>
+      <c r="I8" s="542" t="s">
+        <v>622</v>
+      </c>
+      <c r="J8" s="543">
+        <v>12321</v>
+      </c>
+      <c r="K8" s="544">
+        <v>600</v>
+      </c>
       <c r="L8" s="218"/>
       <c r="M8" s="237"/>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="222"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="101"/>
+      <c r="B9" s="222">
+        <v>45057</v>
+      </c>
+      <c r="C9" s="223" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="101">
+        <v>96</v>
+      </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="435"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="237"/>
+        <v>96</v>
+      </c>
+      <c r="I9" s="539" t="s">
+        <v>623</v>
+      </c>
+      <c r="J9" s="540">
+        <v>12333</v>
+      </c>
+      <c r="K9" s="541">
+        <v>11397</v>
+      </c>
       <c r="L9" s="218"/>
       <c r="M9" s="237"/>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31428</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="101"/>
+      <c r="B10" s="222">
+        <v>45058</v>
+      </c>
+      <c r="C10" s="223" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="101">
+        <v>30247.48</v>
+      </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30247.48</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="435"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="237"/>
+      <c r="I10" s="539" t="s">
+        <v>624</v>
+      </c>
+      <c r="J10" s="540">
+        <v>12347</v>
+      </c>
+      <c r="K10" s="541">
+        <v>4430</v>
+      </c>
       <c r="L10" s="218"/>
       <c r="M10" s="237"/>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35858</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="222">
+        <v>45059</v>
+      </c>
+      <c r="C11" s="223" t="s">
+        <v>564</v>
+      </c>
+      <c r="D11" s="101">
+        <v>103232.65</v>
+      </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="435"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="237"/>
+        <v>103232.65</v>
+      </c>
+      <c r="I11" s="539" t="s">
+        <v>625</v>
+      </c>
+      <c r="J11" s="540">
+        <v>12353</v>
+      </c>
+      <c r="K11" s="541">
+        <v>10761</v>
+      </c>
       <c r="L11" s="218"/>
       <c r="M11" s="237"/>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46619</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="222">
+        <v>45059</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" s="101">
+        <v>9300</v>
+      </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="435"/>
-      <c r="J12" s="290"/>
-      <c r="K12" s="237"/>
+        <v>9300</v>
+      </c>
+      <c r="I12" s="542" t="s">
+        <v>626</v>
+      </c>
+      <c r="J12" s="543">
+        <v>12364</v>
+      </c>
+      <c r="K12" s="544">
+        <v>480</v>
+      </c>
       <c r="L12" s="218"/>
       <c r="M12" s="237"/>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47099</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="101"/>
+      <c r="B13" s="222">
+        <v>45061</v>
+      </c>
+      <c r="C13" s="223" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="101">
+        <v>54274.8</v>
+      </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="435"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="237"/>
+        <v>54274.8</v>
+      </c>
+      <c r="I13" s="539" t="s">
+        <v>626</v>
+      </c>
+      <c r="J13" s="540">
+        <v>12367</v>
+      </c>
+      <c r="K13" s="541">
+        <v>480</v>
+      </c>
       <c r="L13" s="218"/>
       <c r="M13" s="237"/>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47579</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="101"/>
+      <c r="B14" s="222">
+        <v>45062</v>
+      </c>
+      <c r="C14" s="223" t="s">
+        <v>567</v>
+      </c>
+      <c r="D14" s="101">
+        <v>8620</v>
+      </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="435"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="237"/>
+        <v>8620</v>
+      </c>
+      <c r="I14" s="542" t="s">
+        <v>627</v>
+      </c>
+      <c r="J14" s="543">
+        <v>12380</v>
+      </c>
+      <c r="K14" s="544">
+        <v>6571</v>
+      </c>
       <c r="L14" s="218"/>
       <c r="M14" s="237"/>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54150</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="222">
+        <v>45063</v>
+      </c>
+      <c r="C15" s="223" t="s">
+        <v>568</v>
+      </c>
+      <c r="D15" s="101">
+        <v>24697.4</v>
+      </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="435"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="237"/>
+        <v>24697.4</v>
+      </c>
+      <c r="I15" s="542" t="s">
+        <v>628</v>
+      </c>
+      <c r="J15" s="543">
+        <v>12392</v>
+      </c>
+      <c r="K15" s="544">
+        <v>480</v>
+      </c>
       <c r="L15" s="218"/>
       <c r="M15" s="237"/>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54630</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="222">
+        <v>45064</v>
+      </c>
+      <c r="C16" s="223" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="101">
+        <v>61419.82</v>
+      </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="435"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="237"/>
+        <v>61419.82</v>
+      </c>
+      <c r="I16" s="542" t="s">
+        <v>629</v>
+      </c>
+      <c r="J16" s="543">
+        <v>12402</v>
+      </c>
+      <c r="K16" s="544">
+        <v>360</v>
+      </c>
       <c r="L16" s="218"/>
       <c r="M16" s="237"/>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54990</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="101"/>
+      <c r="B17" s="222">
+        <v>45064</v>
+      </c>
+      <c r="C17" s="223" t="s">
+        <v>570</v>
+      </c>
+      <c r="D17" s="101">
+        <v>2357.4</v>
+      </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="435"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="237"/>
+        <v>2357.4</v>
+      </c>
+      <c r="I17" s="539" t="s">
+        <v>630</v>
+      </c>
+      <c r="J17" s="540">
+        <v>12416</v>
+      </c>
+      <c r="K17" s="541">
+        <v>12027</v>
+      </c>
       <c r="L17" s="218"/>
       <c r="M17" s="237"/>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67017</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="101"/>
+      <c r="B18" s="222">
+        <v>45065</v>
+      </c>
+      <c r="C18" s="223" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="101">
+        <v>63432.5</v>
+      </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="435"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="237"/>
+        <v>63432.5</v>
+      </c>
+      <c r="I18" s="542" t="s">
+        <v>631</v>
+      </c>
+      <c r="J18" s="543">
+        <v>12423</v>
+      </c>
+      <c r="K18" s="544">
+        <v>2280</v>
+      </c>
       <c r="L18" s="218"/>
       <c r="M18" s="237"/>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69297</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="222">
+        <v>45066</v>
+      </c>
+      <c r="C19" s="223" t="s">
+        <v>572</v>
+      </c>
+      <c r="D19" s="101">
+        <v>165937.60000000001</v>
+      </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="435"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="237"/>
+        <v>165937.60000000001</v>
+      </c>
+      <c r="I19" s="542" t="s">
+        <v>632</v>
+      </c>
+      <c r="J19" s="543">
+        <v>12432</v>
+      </c>
+      <c r="K19" s="544">
+        <v>600</v>
+      </c>
       <c r="L19" s="218"/>
       <c r="M19" s="237"/>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69897</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="101"/>
+      <c r="B20" s="222">
+        <v>45068</v>
+      </c>
+      <c r="C20" s="223" t="s">
+        <v>573</v>
+      </c>
+      <c r="D20" s="101">
+        <v>13421.83</v>
+      </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="435"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="237"/>
+        <v>13421.83</v>
+      </c>
+      <c r="I20" s="542" t="s">
+        <v>633</v>
+      </c>
+      <c r="J20" s="543">
+        <v>12444</v>
+      </c>
+      <c r="K20" s="544">
+        <v>7284</v>
+      </c>
       <c r="L20" s="218"/>
       <c r="M20" s="237"/>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77181</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="222">
+        <v>45069</v>
+      </c>
+      <c r="C21" s="223" t="s">
+        <v>574</v>
+      </c>
+      <c r="D21" s="101">
+        <v>5354.9</v>
+      </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="435"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="237"/>
+        <v>5354.9</v>
+      </c>
+      <c r="I21" s="539" t="s">
+        <v>634</v>
+      </c>
+      <c r="J21" s="540">
+        <v>12451</v>
+      </c>
+      <c r="K21" s="541">
+        <v>11020</v>
+      </c>
       <c r="L21" s="218"/>
       <c r="M21" s="237"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88201</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="222">
+        <v>45070</v>
+      </c>
+      <c r="C22" s="223" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" s="101">
+        <v>26457.8</v>
+      </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26457.8</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="435"/>
-      <c r="J22" s="290"/>
-      <c r="K22" s="237"/>
+      <c r="I22" s="539" t="s">
+        <v>635</v>
+      </c>
+      <c r="J22" s="540">
+        <v>12457</v>
+      </c>
+      <c r="K22" s="541">
+        <v>600</v>
+      </c>
       <c r="L22" s="218"/>
       <c r="M22" s="237"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88801</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="101"/>
+      <c r="B23" s="222">
+        <v>45071</v>
+      </c>
+      <c r="C23" s="223" t="s">
+        <v>576</v>
+      </c>
+      <c r="D23" s="101">
+        <v>60739.7</v>
+      </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60739.7</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="435"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="237"/>
+      <c r="I23" s="542" t="s">
+        <v>636</v>
+      </c>
+      <c r="J23" s="543">
+        <v>12470</v>
+      </c>
+      <c r="K23" s="544">
+        <v>600</v>
+      </c>
       <c r="L23" s="218"/>
       <c r="M23" s="237"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89401</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="222">
+        <v>45072</v>
+      </c>
+      <c r="C24" s="223" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24" s="101">
+        <v>163058.22</v>
+      </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163058.22</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="435"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="237"/>
+      <c r="I24" s="539" t="s">
+        <v>637</v>
+      </c>
+      <c r="J24" s="540">
+        <v>12492</v>
+      </c>
+      <c r="K24" s="541">
+        <v>6775</v>
+      </c>
       <c r="L24" s="218"/>
       <c r="M24" s="237"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96176</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="222">
+        <v>45073</v>
+      </c>
+      <c r="C25" s="223" t="s">
+        <v>578</v>
+      </c>
+      <c r="D25" s="101">
+        <v>53231.9</v>
+      </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53231.9</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="435"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="237"/>
+      <c r="I25" s="539" t="s">
+        <v>638</v>
+      </c>
+      <c r="J25" s="540">
+        <v>12510</v>
+      </c>
+      <c r="K25" s="541">
+        <v>480</v>
+      </c>
       <c r="L25" s="218"/>
       <c r="M25" s="237"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96656</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="101"/>
+      <c r="B26" s="222">
+        <v>45073</v>
+      </c>
+      <c r="C26" s="223" t="s">
+        <v>579</v>
+      </c>
+      <c r="D26" s="101">
+        <v>5658.8</v>
+      </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5658.8</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="435"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="237"/>
+      <c r="I26" s="539" t="s">
+        <v>639</v>
+      </c>
+      <c r="J26" s="540">
+        <v>12521</v>
+      </c>
+      <c r="K26" s="541">
+        <v>16589</v>
+      </c>
       <c r="L26" s="218"/>
       <c r="M26" s="237"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113245</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="101"/>
+      <c r="B27" s="222">
+        <v>45075</v>
+      </c>
+      <c r="C27" s="223" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="101">
+        <v>35645.64</v>
+      </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35645.64</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="435"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="237"/>
+      <c r="I27" s="539" t="s">
+        <v>640</v>
+      </c>
+      <c r="J27" s="540">
+        <v>12528</v>
+      </c>
+      <c r="K27" s="541">
+        <v>720</v>
+      </c>
       <c r="L27" s="218"/>
       <c r="M27" s="237"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="101"/>
+      <c r="B28" s="222">
+        <v>45075</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="D28" s="101">
+        <v>9130</v>
+      </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9130</v>
       </c>
       <c r="H28" s="234"/>
       <c r="I28" s="435"/>
       <c r="J28" s="437"/>
-      <c r="K28" s="237"/>
+      <c r="K28" s="237">
+        <v>0</v>
+      </c>
       <c r="L28" s="218"/>
       <c r="M28" s="237"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="101"/>
+      <c r="B29" s="222">
+        <v>45075</v>
+      </c>
+      <c r="C29" s="223" t="s">
+        <v>582</v>
+      </c>
+      <c r="D29" s="101">
+        <v>3509</v>
+      </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3509</v>
       </c>
       <c r="H29" s="234"/>
       <c r="I29" s="435"/>
       <c r="J29" s="437"/>
-      <c r="K29" s="237"/>
+      <c r="K29" s="237">
+        <v>0</v>
+      </c>
       <c r="L29" s="218"/>
       <c r="M29" s="237"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="101"/>
+      <c r="B30" s="222">
+        <v>45075</v>
+      </c>
+      <c r="C30" s="223" t="s">
+        <v>583</v>
+      </c>
+      <c r="D30" s="101">
+        <v>3077</v>
+      </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3077</v>
       </c>
       <c r="H30" s="234"/>
       <c r="I30" s="435"/>
       <c r="J30" s="437"/>
-      <c r="K30" s="237"/>
+      <c r="K30" s="237">
+        <v>0</v>
+      </c>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="101"/>
+      <c r="B31" s="222">
+        <v>45076</v>
+      </c>
+      <c r="C31" s="223" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="101">
+        <v>11949.4</v>
+      </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11949.4</v>
       </c>
       <c r="H31" s="233"/>
       <c r="I31" s="436"/>
@@ -10743,18 +11559,24 @@
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="222">
+        <v>45077</v>
+      </c>
+      <c r="C32" s="223" t="s">
+        <v>585</v>
+      </c>
+      <c r="D32" s="101">
+        <v>78595.990000000005</v>
+      </c>
       <c r="E32" s="224"/>
       <c r="F32" s="101"/>
       <c r="G32" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78595.990000000005</v>
       </c>
       <c r="H32" s="233"/>
       <c r="I32" s="436"/>
@@ -10766,18 +11588,24 @@
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="101"/>
+      <c r="B33" s="222">
+        <v>45078</v>
+      </c>
+      <c r="C33" s="223" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="101">
+        <v>81569.899999999994</v>
+      </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81569.899999999994</v>
       </c>
       <c r="I33" s="436"/>
       <c r="J33" s="438"/>
@@ -10788,70 +11616,90 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="222"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="222">
+        <v>45078</v>
+      </c>
+      <c r="C34" s="223" t="s">
+        <v>587</v>
+      </c>
+      <c r="D34" s="101">
+        <v>42255.199999999997</v>
+      </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42255.199999999997</v>
       </c>
       <c r="I34" s="436"/>
       <c r="J34" s="438"/>
-      <c r="K34" s="150"/>
+      <c r="K34" s="150">
+        <v>0</v>
+      </c>
       <c r="L34" s="224"/>
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="222"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="222">
+        <v>45078</v>
+      </c>
+      <c r="C35" s="223" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" s="101">
+        <v>5247</v>
+      </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="435"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="224"/>
+        <v>5247</v>
+      </c>
+      <c r="I35" s="545"/>
+      <c r="J35" s="546"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="547"/>
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="222"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="101"/>
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="222">
+        <v>45079</v>
+      </c>
+      <c r="C36" s="223" t="s">
+        <v>589</v>
+      </c>
+      <c r="D36" s="101">
+        <v>7780.4</v>
+      </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="509"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="511"/>
+        <v>7780.4</v>
+      </c>
+      <c r="I36" s="549"/>
+      <c r="J36" s="549"/>
+      <c r="K36" s="549"/>
+      <c r="L36" s="549"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="222"/>
       <c r="C37" s="223"/>
       <c r="D37" s="101"/>
@@ -10861,14 +11709,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="511"/>
+      <c r="I37" s="519" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="520"/>
+      <c r="K37" s="549"/>
+      <c r="L37" s="549"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -10881,14 +11731,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="228"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="224"/>
+      <c r="I38" s="521"/>
+      <c r="J38" s="522"/>
+      <c r="K38" s="548"/>
+      <c r="L38" s="218"/>
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -10901,17 +11751,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="239"/>
-      <c r="J39" s="240"/>
+      <c r="I39" s="523"/>
+      <c r="J39" s="524"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="222"/>
       <c r="C40" s="223"/>
       <c r="D40" s="101"/>
@@ -10921,19 +11771,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="512" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="513"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="244"/>
       <c r="C41" s="223"/>
       <c r="D41" s="405"/>
@@ -10943,17 +11789,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="514"/>
-      <c r="J41" s="515"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="244"/>
       <c r="C42" s="223"/>
       <c r="D42" s="405"/>
@@ -10963,17 +11807,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="244"/>
       <c r="C43" s="245"/>
       <c r="D43" s="405"/>
@@ -10990,10 +11832,10 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="246"/>
       <c r="C44" s="245"/>
       <c r="D44" s="405"/>
@@ -11010,10 +11852,10 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="246"/>
       <c r="C45" s="245"/>
       <c r="D45" s="405"/>
@@ -11030,10 +11872,10 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="246"/>
       <c r="C46" s="245"/>
       <c r="D46" s="405"/>
@@ -11050,10 +11892,10 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>113965</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="406"/>
       <c r="C47" s="245"/>
       <c r="D47" s="405"/>
@@ -11070,7 +11912,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -11090,7 +11932,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11110,7 +11952,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11130,7 +11972,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11150,7 +11992,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11170,7 +12012,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11190,7 +12032,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11210,7 +12052,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11230,7 +12072,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11250,7 +12092,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11270,7 +12112,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11290,7 +12132,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11310,7 +12152,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11330,7 +12172,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11350,7 +12192,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11370,7 +12212,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11390,7 +12232,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11410,7 +12252,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11430,7 +12272,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113965</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11457,7 +12299,7 @@
       <c r="C67" s="259"/>
       <c r="D67" s="260">
         <f>SUM(D3:D66)</f>
-        <v>0</v>
+        <v>1542483.7999999996</v>
       </c>
       <c r="E67" s="261"/>
       <c r="F67" s="262">
@@ -11466,15 +12308,15 @@
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="518" t="s">
+        <v>1542483.7999999996</v>
+      </c>
+      <c r="I67" s="525" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="519"/>
+      <c r="J67" s="526"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>0</v>
+        <v>113965</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -11486,27 +12328,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="267"/>
-      <c r="D68" s="268"/>
+      <c r="D68" s="538" t="s">
+        <v>617</v>
+      </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="522" t="s">
+      <c r="G68" s="529" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="527"/>
-      <c r="J68" s="528"/>
+      <c r="I68" s="534"/>
+      <c r="J68" s="535"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C69" s="270"/>
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="523"/>
+      <c r="G69" s="530"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -11519,10 +12363,10 @@
       <c r="C70" s="273"/>
       <c r="D70" s="108"/>
       <c r="F70"/>
-      <c r="I70" s="311"/>
-      <c r="J70" s="312"/>
-      <c r="K70" s="313"/>
-      <c r="L70" s="444"/>
+      <c r="I70" s="300"/>
+      <c r="J70" s="301"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="302"/>
       <c r="M70" s="299"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -11531,12 +12375,10 @@
       <c r="D71" s="108"/>
       <c r="F71"/>
       <c r="H71" s="233"/>
-      <c r="I71" s="317" t="s">
-        <v>487</v>
-      </c>
+      <c r="I71" s="300"/>
       <c r="J71" s="301"/>
       <c r="K71" s="189"/>
-      <c r="L71" s="445"/>
+      <c r="L71" s="302"/>
       <c r="M71" s="299"/>
     </row>
     <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11544,12 +12386,10 @@
       <c r="E72" s="276"/>
       <c r="F72"/>
       <c r="H72" s="233"/>
-      <c r="I72" s="446" t="s">
-        <v>488</v>
-      </c>
+      <c r="I72" s="303"/>
       <c r="J72" s="191"/>
       <c r="K72" s="304"/>
-      <c r="L72" s="447"/>
+      <c r="L72" s="304"/>
       <c r="M72" s="299"/>
       <c r="N72"/>
     </row>
@@ -11558,10 +12398,10 @@
       <c r="E73" s="276"/>
       <c r="F73"/>
       <c r="H73" s="233"/>
-      <c r="I73" s="446"/>
-      <c r="J73" s="294"/>
+      <c r="I73" s="303"/>
+      <c r="J73" s="550"/>
       <c r="K73" s="304"/>
-      <c r="L73" s="447"/>
+      <c r="L73" s="304"/>
       <c r="M73" s="299"/>
       <c r="N73"/>
     </row>
@@ -11571,14 +12411,10 @@
       <c r="E74" s="276"/>
       <c r="F74"/>
       <c r="H74" s="233"/>
-      <c r="I74" s="448" t="s">
-        <v>489</v>
-      </c>
-      <c r="J74" s="294"/>
-      <c r="K74" s="415">
-        <v>351097.64</v>
-      </c>
-      <c r="L74" s="447"/>
+      <c r="I74" s="191"/>
+      <c r="J74" s="550"/>
+      <c r="K74" s="415"/>
+      <c r="L74" s="304"/>
       <c r="M74" s="299"/>
       <c r="N74"/>
     </row>
@@ -11587,46 +12423,33 @@
       <c r="D75" s="108"/>
       <c r="E75" s="276"/>
       <c r="H75" s="233"/>
-      <c r="I75" s="448" t="s">
-        <v>490</v>
-      </c>
+      <c r="I75" s="191"/>
       <c r="J75" s="188"/>
-      <c r="K75" s="415">
-        <v>-179053.83</v>
-      </c>
-      <c r="L75" s="447"/>
+      <c r="K75" s="415"/>
+      <c r="L75" s="304"/>
       <c r="M75" s="299"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C76" s="275"/>
       <c r="D76" s="108"/>
       <c r="E76" s="276"/>
       <c r="H76" s="233"/>
-      <c r="I76" s="322"/>
+      <c r="I76" s="188"/>
       <c r="J76" s="188"/>
-      <c r="K76" s="442">
-        <v>0</v>
-      </c>
-      <c r="L76" s="447"/>
+      <c r="K76" s="415"/>
+      <c r="L76" s="304"/>
       <c r="M76" s="299"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C77" s="275"/>
       <c r="D77" s="108"/>
       <c r="E77" s="276"/>
-      <c r="I77" s="322" t="s">
-        <v>491</v>
-      </c>
-      <c r="J77" s="299"/>
-      <c r="K77" s="443">
-        <f>SUM(K74:K76)</f>
-        <v>172043.81000000003</v>
-      </c>
-      <c r="L77" s="449">
-        <v>45048</v>
-      </c>
+      <c r="I77" s="188"/>
+      <c r="J77" s="188"/>
+      <c r="K77" s="415"/>
+      <c r="L77" s="551"/>
       <c r="M77" s="299"/>
       <c r="N77"/>
     </row>
@@ -11634,23 +12457,21 @@
       <c r="C78" s="275"/>
       <c r="D78" s="108"/>
       <c r="E78" s="276"/>
-      <c r="I78" s="322" t="s">
-        <v>492</v>
-      </c>
-      <c r="J78" s="299"/>
-      <c r="K78" s="441"/>
-      <c r="L78" s="450"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="188"/>
+      <c r="K78" s="415"/>
+      <c r="L78" s="302"/>
       <c r="M78" s="299"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C79" s="275"/>
       <c r="D79" s="108"/>
       <c r="E79" s="276"/>
-      <c r="I79" s="328"/>
-      <c r="J79" s="329"/>
-      <c r="K79" s="451"/>
-      <c r="L79" s="452"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="188"/>
+      <c r="K79" s="415"/>
+      <c r="L79" s="302"/>
       <c r="M79" s="299"/>
       <c r="N79"/>
     </row>
@@ -11658,9 +12479,10 @@
       <c r="C80" s="275"/>
       <c r="D80" s="108"/>
       <c r="E80" s="276"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
+      <c r="I80" s="188"/>
+      <c r="J80" s="188"/>
+      <c r="K80" s="188"/>
+      <c r="L80" s="302"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
@@ -12073,9 +12895,8 @@
       <c r="N123"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I36:L37"/>
-    <mergeCell ref="I40:J42"/>
+  <mergeCells count="3">
+    <mergeCell ref="I37:J39"/>
     <mergeCell ref="I67:J68"/>
     <mergeCell ref="G68:G69"/>
   </mergeCells>
@@ -12129,23 +12950,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="502"/>
-      <c r="C1" s="504" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="505"/>
-      <c r="M1" s="505"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="503"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12155,24 +12976,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="507"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="508" t="s">
+      <c r="H3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="508"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="500" t="s">
+      <c r="P3" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="473" t="s">
+      <c r="R3" s="480" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12187,14 +13008,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12204,11 +13025,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="501"/>
+      <c r="P4" s="508"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="474"/>
+      <c r="R4" s="481"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -14043,11 +14864,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="484">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="484">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -14055,7 +14876,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="496">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -14076,10 +14897,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="485"/>
-      <c r="N50" s="485"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="497"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14134,11 +14955,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="498">
+      <c r="M53" s="505">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="499"/>
+      <c r="N53" s="506"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14563,26 +15384,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="492" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="493"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="494">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="495"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="486" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="486"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14591,22 +15412,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="487" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="487"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="488" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="489"/>
-      <c r="K79" s="490">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="490"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14647,11 +15468,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="491">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="490"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14668,22 +15489,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="479" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="480"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="481" t="s">
+      <c r="I83" s="488" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="482"/>
-      <c r="K83" s="483">
+      <c r="J83" s="489"/>
+      <c r="K83" s="490">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="483"/>
+      <c r="L83" s="490"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -16228,10 +17049,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="509"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="511"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="517"/>
+      <c r="K36" s="517"/>
+      <c r="L36" s="518"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -16258,10 +17079,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="511"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="517"/>
+      <c r="K37" s="517"/>
+      <c r="L37" s="518"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -16318,10 +17139,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="512" t="s">
+      <c r="I40" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="513"/>
+      <c r="J40" s="520"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -16340,8 +17161,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="514"/>
-      <c r="J41" s="515"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -16360,8 +17181,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="I42" s="523"/>
+      <c r="J42" s="524"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -16865,10 +17686,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="518" t="s">
+      <c r="I67" s="525" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="519"/>
+      <c r="J67" s="526"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -16888,11 +17709,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="522" t="s">
+      <c r="G68" s="529" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="520"/>
-      <c r="J68" s="521"/>
+      <c r="I68" s="527"/>
+      <c r="J68" s="528"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16903,7 +17724,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="523"/>
+      <c r="G69" s="530"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -17534,23 +18355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="502"/>
-      <c r="C1" s="504" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="505"/>
-      <c r="M1" s="505"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="503"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17560,24 +18381,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="507"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="508" t="s">
+      <c r="H3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="508"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="500" t="s">
+      <c r="P3" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="473" t="s">
+      <c r="R3" s="480" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17592,14 +18413,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17609,11 +18430,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="501"/>
+      <c r="P4" s="508"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="474"/>
+      <c r="R4" s="481"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -19589,11 +20410,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="484">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="484">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -19601,7 +20422,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="496">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -19634,10 +20455,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="485"/>
-      <c r="N50" s="485"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="497"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -19728,11 +20549,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="498">
+      <c r="M53" s="505">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="499"/>
+      <c r="N53" s="506"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20291,26 +21112,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="492" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="493"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="494">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="495"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="486" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="486"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -20319,22 +21140,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="487" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="487"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="488" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="489"/>
-      <c r="K79" s="490">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="490"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -20375,11 +21196,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="491">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="490"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -20396,22 +21217,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="479" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="480"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="524" t="s">
+      <c r="I83" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="525"/>
-      <c r="K83" s="526">
+      <c r="J83" s="532"/>
+      <c r="K83" s="533">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="526"/>
+      <c r="L83" s="533"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -20595,7 +21416,7 @@
   </sheetPr>
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView topLeftCell="F39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I72" sqref="I72:K76"/>
     </sheetView>
   </sheetViews>
@@ -21991,10 +22812,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="509"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="511"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="517"/>
+      <c r="K36" s="517"/>
+      <c r="L36" s="518"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -22021,10 +22842,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="511"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="517"/>
+      <c r="K37" s="517"/>
+      <c r="L37" s="518"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -22091,10 +22912,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="512" t="s">
+      <c r="I40" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="513"/>
+      <c r="J40" s="520"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -22113,8 +22934,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="514"/>
-      <c r="J41" s="515"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -22133,8 +22954,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="I42" s="523"/>
+      <c r="J42" s="524"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -22638,10 +23459,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="518" t="s">
+      <c r="I67" s="525" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="519"/>
+      <c r="J67" s="526"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -22661,11 +23482,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="522" t="s">
+      <c r="G68" s="529" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="527"/>
-      <c r="J68" s="528"/>
+      <c r="I68" s="534"/>
+      <c r="J68" s="535"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22676,7 +23497,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="523"/>
+      <c r="G69" s="530"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -23264,8 +24085,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23291,23 +24112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="502"/>
-      <c r="C1" s="504" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="505"/>
-      <c r="M1" s="505"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="503"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -23317,24 +24138,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="507"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="508" t="s">
+      <c r="H3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="508"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="500" t="s">
+      <c r="P3" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="529" t="s">
+      <c r="R3" s="536" t="s">
         <v>3</v>
       </c>
     </row>
@@ -23349,14 +24170,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -23366,11 +24187,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="501"/>
+      <c r="P4" s="508"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="530"/>
+      <c r="R4" s="537"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -25351,11 +26172,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="484">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="484">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -25363,7 +26184,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="496">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -25396,10 +26217,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="485"/>
-      <c r="N50" s="485"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="497"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -25490,11 +26311,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="498">
+      <c r="M53" s="505">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="499"/>
+      <c r="N53" s="506"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25973,26 +26794,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="492" t="s">
+      <c r="H77" s="499" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="493"/>
+      <c r="I77" s="500"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="494">
+      <c r="K77" s="501">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="495"/>
+      <c r="L77" s="502"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="486" t="s">
+      <c r="D78" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="486"/>
+      <c r="E78" s="493"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -26001,22 +26822,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="487" t="s">
+      <c r="D79" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="487"/>
+      <c r="E79" s="494"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="488" t="s">
+      <c r="I79" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="489"/>
-      <c r="K79" s="490">
+      <c r="J79" s="496"/>
+      <c r="K79" s="497">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="490"/>
+      <c r="L79" s="497"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -26057,11 +26878,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="491">
+      <c r="K81" s="498">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="490"/>
+      <c r="L81" s="497"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -26078,22 +26899,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="479" t="s">
+      <c r="D83" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="480"/>
+      <c r="E83" s="487"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="481" t="s">
+      <c r="I83" s="488" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="482"/>
-      <c r="K83" s="483">
+      <c r="J83" s="489"/>
+      <c r="K83" s="490">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="483"/>
+      <c r="L83" s="490"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -26277,8 +27098,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27217,11 +28038,15 @@
       <c r="D24" s="101">
         <v>60713.06</v>
       </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F24" s="553">
+        <v>60713.06</v>
+      </c>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>60713.06</v>
+        <v>0</v>
       </c>
       <c r="H24" s="233"/>
       <c r="I24" s="387" t="s">
@@ -27254,11 +28079,15 @@
       <c r="D25" s="101">
         <v>89935.7</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F25" s="553">
+        <v>89935.7</v>
+      </c>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>89935.7</v>
+        <v>0</v>
       </c>
       <c r="H25" s="234"/>
       <c r="I25" s="387" t="s">
@@ -27291,11 +28120,15 @@
       <c r="D26" s="101">
         <v>6879.4</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F26" s="553">
+        <v>6879.4</v>
+      </c>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>6879.4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="234"/>
       <c r="I26" s="235"/>
@@ -27318,11 +28151,15 @@
       <c r="D27" s="101">
         <v>5900.8</v>
       </c>
-      <c r="E27" s="224"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F27" s="553">
+        <v>5900.8</v>
+      </c>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>5900.8</v>
+        <v>0</v>
       </c>
       <c r="H27" s="234"/>
       <c r="I27" s="235"/>
@@ -27345,11 +28182,15 @@
       <c r="D28" s="101">
         <v>15687.72</v>
       </c>
-      <c r="E28" s="224"/>
-      <c r="F28" s="101"/>
+      <c r="E28" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F28" s="553">
+        <v>15687.72</v>
+      </c>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>15687.72</v>
+        <v>0</v>
       </c>
       <c r="H28" s="234"/>
       <c r="I28" s="277"/>
@@ -27372,11 +28213,15 @@
       <c r="D29" s="101">
         <v>3153.6</v>
       </c>
-      <c r="E29" s="224"/>
-      <c r="F29" s="101"/>
+      <c r="E29" s="552">
+        <v>45049</v>
+      </c>
+      <c r="F29" s="553">
+        <v>3153.6</v>
+      </c>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>3153.6</v>
+        <v>0</v>
       </c>
       <c r="H29" s="234"/>
       <c r="I29" s="277"/>
@@ -27389,7 +28234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="222">
         <v>45014</v>
@@ -27400,11 +28245,16 @@
       <c r="D30" s="101">
         <v>130884.16</v>
       </c>
-      <c r="E30" s="224"/>
-      <c r="F30" s="101"/>
+      <c r="E30" s="554" t="s">
+        <v>641</v>
+      </c>
+      <c r="F30" s="553">
+        <f>97051.72+33832.44</f>
+        <v>130884.16</v>
+      </c>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>130884.16</v>
+        <v>0</v>
       </c>
       <c r="H30" s="234"/>
       <c r="I30" s="277"/>
@@ -27535,10 +28385,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="509"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="511"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="517"/>
+      <c r="K36" s="517"/>
+      <c r="L36" s="518"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -27555,10 +28405,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="511"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="517"/>
+      <c r="K37" s="517"/>
+      <c r="L37" s="518"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -27615,10 +28465,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="512" t="s">
+      <c r="I40" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="513"/>
+      <c r="J40" s="520"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -27637,8 +28487,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="514"/>
-      <c r="J41" s="515"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -27657,8 +28507,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="I42" s="523"/>
+      <c r="J42" s="524"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -28156,16 +29006,16 @@
       <c r="E67" s="261"/>
       <c r="F67" s="262">
         <f>SUM(F3:F66)</f>
-        <v>1092155.53</v>
+        <v>1405309.97</v>
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>313154.44</v>
-      </c>
-      <c r="I67" s="518" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="525" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="519"/>
+      <c r="J67" s="526"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -28185,11 +29035,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="522" t="s">
+      <c r="G68" s="529" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="527"/>
-      <c r="J68" s="528"/>
+      <c r="I68" s="534"/>
+      <c r="J68" s="535"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -28200,7 +29050,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="523"/>
+      <c r="G69" s="530"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28256,9 +29106,9 @@
       <c r="N73"/>
     </row>
     <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C74" s="275"/>
+      <c r="C74" s="301"/>
       <c r="D74" s="189"/>
-      <c r="E74" s="276"/>
+      <c r="E74" s="555"/>
       <c r="F74"/>
       <c r="H74" s="233"/>
       <c r="I74" s="417" t="s">
@@ -28273,11 +29123,9 @@
       <c r="N74"/>
     </row>
     <row r="75" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C75" s="275"/>
-      <c r="D75" s="108">
-        <v>71981.7</v>
-      </c>
-      <c r="E75" s="276"/>
+      <c r="C75" s="301"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="555"/>
       <c r="H75" s="233"/>
       <c r="I75" s="427" t="s">
         <v>486</v>
@@ -28291,11 +29139,9 @@
       <c r="N75"/>
     </row>
     <row r="76" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="275"/>
-      <c r="D76" s="101">
-        <v>16327.98</v>
-      </c>
-      <c r="E76" s="276"/>
+      <c r="C76" s="301"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="555"/>
       <c r="H76" s="233"/>
       <c r="I76" s="420"/>
       <c r="J76" s="414"/>
@@ -28307,11 +29153,9 @@
       <c r="N76"/>
     </row>
     <row r="77" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="275"/>
-      <c r="D77" s="101">
-        <v>4721.6000000000004</v>
-      </c>
-      <c r="E77" s="276"/>
+      <c r="C77" s="301"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="555"/>
       <c r="I77" s="429">
         <v>45005</v>
       </c>
@@ -28325,11 +29169,9 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="275"/>
-      <c r="D78" s="101">
-        <v>2870.4</v>
-      </c>
-      <c r="E78" s="276"/>
+      <c r="C78" s="301"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="555"/>
       <c r="I78" s="423"/>
       <c r="J78" s="424"/>
       <c r="K78" s="425"/>
@@ -28338,11 +29180,9 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C79" s="275"/>
-      <c r="D79" s="101">
-        <v>62616.82</v>
-      </c>
-      <c r="E79" s="276"/>
+      <c r="C79" s="301"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="555"/>
       <c r="I79" s="299"/>
       <c r="J79" s="299"/>
       <c r="K79" s="299"/>
@@ -28351,11 +29191,9 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="275"/>
-      <c r="D80" s="392">
-        <v>13706.8</v>
-      </c>
-      <c r="E80" s="276"/>
+      <c r="C80" s="301"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="555"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -28363,11 +29201,9 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="271"/>
-      <c r="D81" s="108">
-        <v>0</v>
-      </c>
-      <c r="E81" s="276"/>
+      <c r="C81" s="550"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="555"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -28375,12 +29211,9 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C82" s="271"/>
-      <c r="D82" s="108">
-        <f>SUM(D75:D81)</f>
-        <v>172225.3</v>
-      </c>
-      <c r="E82" s="276"/>
+      <c r="C82" s="550"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="555"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -28388,9 +29221,9 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="271"/>
+      <c r="C83" s="550"/>
       <c r="D83" s="108"/>
-      <c r="E83" s="276"/>
+      <c r="E83" s="555"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -28791,13 +29624,13 @@
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28823,23 +29656,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="502"/>
-      <c r="C1" s="504" t="s">
+      <c r="B1" s="509"/>
+      <c r="C1" s="511" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="505"/>
-      <c r="M1" s="505"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="503"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28849,24 +29682,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="507"/>
+      <c r="B3" s="513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="514"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="508" t="s">
+      <c r="H3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="508"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="500" t="s">
+      <c r="P3" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="529" t="s">
+      <c r="R3" s="536" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28881,14 +29714,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="475" t="s">
+      <c r="E4" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="F4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="478"/>
+      <c r="I4" s="485"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28898,11 +29731,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="501"/>
+      <c r="P4" s="508"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="530"/>
+      <c r="R4" s="537"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -30738,13 +31571,13 @@
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32">
-        <v>45030</v>
+        <v>45027</v>
       </c>
       <c r="C45" s="93">
-        <v>200000</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>232</v>
+        <v>45950</v>
+      </c>
+      <c r="D45" s="114" t="s">
+        <v>596</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
@@ -30780,13 +31613,13 @@
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32">
-        <v>45034</v>
+        <v>45028</v>
       </c>
       <c r="C46" s="93">
-        <v>193160.35</v>
-      </c>
-      <c r="D46" s="102" t="s">
-        <v>232</v>
+        <v>121361</v>
+      </c>
+      <c r="D46" s="474" t="s">
+        <v>598</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -30822,13 +31655,13 @@
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32">
-        <v>45035</v>
-      </c>
-      <c r="C47" s="455">
-        <v>8093</v>
+        <v>45030</v>
+      </c>
+      <c r="C47" s="93">
+        <v>200000</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
@@ -30864,13 +31697,13 @@
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="32">
-        <v>45035</v>
-      </c>
-      <c r="C48" s="455">
-        <v>13752</v>
-      </c>
-      <c r="D48" s="102" t="s">
-        <v>460</v>
+        <v>45030</v>
+      </c>
+      <c r="C48" s="93">
+        <v>39733.980000000003</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>600</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
@@ -30901,13 +31734,13 @@
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="32">
-        <v>45035</v>
-      </c>
-      <c r="C49" s="455">
-        <v>1889</v>
-      </c>
-      <c r="D49" s="403" t="s">
-        <v>461</v>
+        <v>45034</v>
+      </c>
+      <c r="C49" s="93">
+        <v>193160.35</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>232</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
@@ -30923,11 +31756,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="484">
+      <c r="M49" s="491">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="484">
+      <c r="N49" s="491">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -30935,7 +31768,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="496">
+      <c r="Q49" s="503">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -30949,11 +31782,10 @@
         <v>45035</v>
       </c>
       <c r="C50" s="455">
-        <f>8428+70</f>
-        <v>8498</v>
-      </c>
-      <c r="D50" s="403" t="s">
-        <v>462</v>
+        <v>8093</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>460</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
@@ -30963,10 +31795,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="485"/>
-      <c r="N50" s="485"/>
+      <c r="M50" s="492"/>
+      <c r="N50" s="492"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="497"/>
+      <c r="Q50" s="504"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -30978,11 +31810,10 @@
         <v>45035</v>
       </c>
       <c r="C51" s="455">
-        <f>8424+830</f>
-        <v>9254</v>
-      </c>
-      <c r="D51" s="114" t="s">
-        <v>463</v>
+        <v>13752</v>
+      </c>
+      <c r="D51" s="102" t="s">
+        <v>460</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
@@ -31003,11 +31834,10 @@
         <v>45035</v>
       </c>
       <c r="C52" s="455">
-        <f>2679+1477</f>
-        <v>4156</v>
-      </c>
-      <c r="D52" s="114" t="s">
-        <v>464</v>
+        <v>1889</v>
+      </c>
+      <c r="D52" s="403" t="s">
+        <v>461</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
@@ -31025,13 +31855,14 @@
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="32">
-        <v>45044</v>
-      </c>
-      <c r="C53" s="93">
-        <v>200000</v>
-      </c>
-      <c r="D53" s="114" t="s">
-        <v>232</v>
+        <v>45035</v>
+      </c>
+      <c r="C53" s="455">
+        <f>8428+70</f>
+        <v>8498</v>
+      </c>
+      <c r="D53" s="403" t="s">
+        <v>462</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="110"/>
@@ -31041,24 +31872,25 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="498">
+      <c r="M53" s="505">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="499"/>
+      <c r="N53" s="506"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="32">
-        <v>45048</v>
-      </c>
-      <c r="C54" s="93">
-        <v>406180</v>
+        <v>45035</v>
+      </c>
+      <c r="C54" s="455">
+        <f>8424+830</f>
+        <v>9254</v>
       </c>
       <c r="D54" s="114" t="s">
-        <v>232</v>
+        <v>463</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
@@ -31075,22 +31907,29 @@
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="114"/>
+      <c r="B55" s="32">
+        <v>45035</v>
+      </c>
+      <c r="C55" s="455">
+        <f>2679+1477</f>
+        <v>4156</v>
+      </c>
+      <c r="D55" s="114" t="s">
+        <v>464</v>
+      </c>
       <c r="E55" s="104"/>
       <c r="F55" s="110"/>
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
       <c r="J55" s="338">
-        <v>45028</v>
-      </c>
-      <c r="K55" s="349" t="s">
-        <v>331</v>
+        <v>45019</v>
+      </c>
+      <c r="K55" s="343" t="s">
+        <v>594</v>
       </c>
       <c r="L55" s="49">
-        <v>1856</v>
+        <v>8228.02</v>
       </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
@@ -31099,22 +31938,28 @@
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="32">
+        <v>45036</v>
+      </c>
+      <c r="C56" s="93">
+        <v>204714.9</v>
+      </c>
+      <c r="D56" s="114" t="s">
+        <v>603</v>
+      </c>
       <c r="E56" s="104"/>
       <c r="F56" s="110"/>
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
       <c r="J56" s="341">
-        <v>45030</v>
+        <v>45021</v>
       </c>
       <c r="K56" s="343" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="L56" s="84">
-        <v>696</v>
+        <v>1100.01</v>
       </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
@@ -31123,22 +31968,28 @@
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="114"/>
+      <c r="B57" s="32">
+        <v>45040</v>
+      </c>
+      <c r="C57" s="93">
+        <v>41195</v>
+      </c>
+      <c r="D57" s="114" t="s">
+        <v>604</v>
+      </c>
       <c r="E57" s="104"/>
       <c r="F57" s="110"/>
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
       <c r="J57" s="341">
-        <v>45034</v>
-      </c>
-      <c r="K57" s="343" t="s">
-        <v>497</v>
+        <v>45028</v>
+      </c>
+      <c r="K57" s="349" t="s">
+        <v>331</v>
       </c>
       <c r="L57" s="84">
-        <v>3480</v>
+        <v>1856</v>
       </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
@@ -31147,101 +31998,125 @@
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="32">
+        <v>45044</v>
+      </c>
+      <c r="C58" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D58" s="114" t="s">
+        <v>232</v>
+      </c>
       <c r="E58" s="104"/>
       <c r="F58" s="110"/>
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
       <c r="J58" s="341">
-        <v>45037</v>
-      </c>
-      <c r="K58" s="343" t="s">
-        <v>498</v>
+        <v>45028</v>
+      </c>
+      <c r="K58" s="351" t="s">
+        <v>597</v>
       </c>
       <c r="L58" s="84">
-        <v>28000</v>
+        <v>719.2</v>
       </c>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="19"/>
     </row>
-    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="32">
+        <v>45048</v>
+      </c>
+      <c r="C59" s="93">
+        <v>406180</v>
+      </c>
+      <c r="D59" s="114" t="s">
+        <v>232</v>
+      </c>
       <c r="E59" s="104"/>
       <c r="F59" s="110"/>
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
       <c r="J59" s="341">
-        <v>45042</v>
-      </c>
-      <c r="K59" s="343" t="s">
-        <v>497</v>
+        <v>45029</v>
+      </c>
+      <c r="K59" s="345" t="s">
+        <v>599</v>
       </c>
       <c r="L59" s="84">
-        <v>3480</v>
-      </c>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
+        <v>3016</v>
+      </c>
+      <c r="M59" s="473"/>
+      <c r="N59" s="472"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="19"/>
     </row>
-    <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="114"/>
+      <c r="B60" s="32">
+        <v>45050</v>
+      </c>
+      <c r="C60" s="93">
+        <v>8293.7000000000007</v>
+      </c>
+      <c r="D60" s="114" t="s">
+        <v>606</v>
+      </c>
       <c r="E60" s="104"/>
       <c r="F60" s="110"/>
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
       <c r="J60" s="341">
-        <v>45042</v>
+        <v>45030</v>
       </c>
       <c r="K60" s="343" t="s">
-        <v>228</v>
+        <v>496</v>
       </c>
       <c r="L60" s="84">
-        <v>1298.04</v>
-      </c>
-      <c r="M60" s="113"/>
-      <c r="N60" s="113"/>
+        <v>696</v>
+      </c>
+      <c r="M60" s="473"/>
+      <c r="N60" s="472"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="19"/>
     </row>
-    <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="114"/>
+      <c r="B61" s="32">
+        <v>45051</v>
+      </c>
+      <c r="C61" s="93">
+        <v>12361.2</v>
+      </c>
+      <c r="D61" s="114" t="s">
+        <v>607</v>
+      </c>
       <c r="E61" s="104"/>
       <c r="F61" s="110"/>
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
       <c r="J61" s="341">
-        <v>45049</v>
-      </c>
-      <c r="K61" s="456" t="s">
-        <v>225</v>
+        <v>45034</v>
+      </c>
+      <c r="K61" s="343" t="s">
+        <v>497</v>
       </c>
       <c r="L61" s="84">
-        <v>1098</v>
-      </c>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
+        <v>3480</v>
+      </c>
+      <c r="M61" s="473"/>
+      <c r="N61" s="472"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31"/>
       <c r="B62" s="32"/>
       <c r="C62" s="122"/>
@@ -31251,17 +32126,17 @@
       <c r="G62" s="37"/>
       <c r="H62" s="106"/>
       <c r="I62" s="103"/>
-      <c r="J62" s="341">
-        <v>45051</v>
-      </c>
-      <c r="K62" s="350" t="s">
-        <v>498</v>
+      <c r="J62" s="475">
+        <v>45034</v>
+      </c>
+      <c r="K62" s="351" t="s">
+        <v>601</v>
       </c>
       <c r="L62" s="84">
-        <v>28000</v>
-      </c>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
+        <v>1125.2</v>
+      </c>
+      <c r="M62" s="473"/>
+      <c r="N62" s="472"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
@@ -31275,14 +32150,14 @@
       <c r="G63" s="37"/>
       <c r="H63" s="106"/>
       <c r="I63" s="103"/>
-      <c r="J63" s="341">
-        <v>45051</v>
-      </c>
-      <c r="K63" s="343" t="s">
-        <v>499</v>
+      <c r="J63" s="475">
+        <v>45035</v>
+      </c>
+      <c r="K63" s="351" t="s">
+        <v>602</v>
       </c>
       <c r="L63" s="84">
-        <v>850</v>
+        <v>8178</v>
       </c>
       <c r="M63" s="113"/>
       <c r="N63" s="113"/>
@@ -31299,14 +32174,14 @@
       <c r="G64" s="37"/>
       <c r="H64" s="106"/>
       <c r="I64" s="103"/>
-      <c r="J64" s="457">
-        <v>45051</v>
-      </c>
-      <c r="K64" s="458" t="s">
-        <v>500</v>
-      </c>
-      <c r="L64" s="459">
-        <v>47106.080000000002</v>
+      <c r="J64" s="341">
+        <v>45037</v>
+      </c>
+      <c r="K64" s="343" t="s">
+        <v>498</v>
+      </c>
+      <c r="L64" s="84">
+        <v>28000</v>
       </c>
       <c r="M64" s="113"/>
       <c r="N64" s="113"/>
@@ -31323,9 +32198,15 @@
       <c r="G65" s="37"/>
       <c r="H65" s="106"/>
       <c r="I65" s="103"/>
-      <c r="J65" s="341"/>
-      <c r="K65" s="343"/>
-      <c r="L65" s="84"/>
+      <c r="J65" s="475">
+        <v>45041</v>
+      </c>
+      <c r="K65" s="351" t="s">
+        <v>605</v>
+      </c>
+      <c r="L65" s="84">
+        <v>3273.94</v>
+      </c>
       <c r="M65" s="113"/>
       <c r="N65" s="113"/>
       <c r="P65" s="44"/>
@@ -31341,9 +32222,15 @@
       <c r="G66" s="37"/>
       <c r="H66" s="106"/>
       <c r="I66" s="103"/>
-      <c r="J66" s="341"/>
-      <c r="K66" s="343"/>
-      <c r="L66" s="84"/>
+      <c r="J66" s="341">
+        <v>45042</v>
+      </c>
+      <c r="K66" s="343" t="s">
+        <v>497</v>
+      </c>
+      <c r="L66" s="84">
+        <v>3480</v>
+      </c>
       <c r="M66" s="113"/>
       <c r="N66" s="113"/>
       <c r="P66" s="44"/>
@@ -31359,391 +32246,461 @@
       <c r="G67" s="37"/>
       <c r="H67" s="106"/>
       <c r="I67" s="103"/>
-      <c r="J67" s="341"/>
-      <c r="K67" s="351"/>
-      <c r="L67" s="84"/>
+      <c r="J67" s="341">
+        <v>45042</v>
+      </c>
+      <c r="K67" s="343" t="s">
+        <v>228</v>
+      </c>
+      <c r="L67" s="84">
+        <v>1298.04</v>
+      </c>
       <c r="M67" s="113"/>
       <c r="N67" s="113"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
       <c r="D68" s="126"/>
       <c r="E68" s="104"/>
-      <c r="F68" s="127"/>
+      <c r="F68" s="110"/>
       <c r="G68" s="37"/>
       <c r="H68" s="128"/>
       <c r="I68" s="103"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="84"/>
+      <c r="J68" s="133">
+        <v>45042</v>
+      </c>
+      <c r="K68" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="L68" s="84">
+        <v>4698</v>
+      </c>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
       <c r="P68" s="44"/>
       <c r="Q68" s="19"/>
     </row>
-    <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="131"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="126"/>
       <c r="E69" s="132"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="110"/>
       <c r="G69" s="37"/>
       <c r="H69" s="106"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="84"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="74">
+        <v>45049</v>
+      </c>
+      <c r="K69" s="477" t="s">
+        <v>225</v>
+      </c>
+      <c r="L69" s="84">
+        <v>1098</v>
+      </c>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
-    <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31"/>
-      <c r="B70" s="134"/>
-      <c r="C70" s="131"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="135"/>
       <c r="E70" s="136"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="110"/>
       <c r="H70" s="137"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="84"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="133">
+        <v>45049</v>
+      </c>
+      <c r="K70" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="L70" s="84">
+        <v>12950.54</v>
+      </c>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
       <c r="P70" s="44"/>
       <c r="Q70" s="19"/>
     </row>
-    <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31"/>
-      <c r="B71" s="134"/>
-      <c r="C71" s="131"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="135"/>
       <c r="E71" s="136"/>
-      <c r="F71" s="44"/>
+      <c r="F71" s="110"/>
       <c r="H71" s="137"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="84"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="74">
+        <v>45051</v>
+      </c>
+      <c r="K71" s="123" t="s">
+        <v>498</v>
+      </c>
+      <c r="L71" s="84">
+        <v>28000</v>
+      </c>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
       <c r="P71" s="44"/>
       <c r="Q71" s="19"/>
     </row>
-    <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="131"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="135"/>
       <c r="E72" s="136"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="110"/>
       <c r="H72" s="137"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="133"/>
-      <c r="K72" s="125"/>
-      <c r="L72" s="84"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="74">
+        <v>45051</v>
+      </c>
+      <c r="K72" s="121" t="s">
+        <v>499</v>
+      </c>
+      <c r="L72" s="84">
+        <v>850</v>
+      </c>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="19"/>
     </row>
-    <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="131"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="135"/>
       <c r="E73" s="136"/>
-      <c r="F73" s="44"/>
+      <c r="F73" s="110"/>
       <c r="H73" s="137"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="125"/>
-      <c r="L73" s="84"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="476">
+        <v>45051</v>
+      </c>
+      <c r="K73" s="478" t="s">
+        <v>500</v>
+      </c>
+      <c r="L73" s="457">
+        <v>47106.080000000002</v>
+      </c>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
       <c r="P73" s="44"/>
       <c r="Q73" s="19"/>
     </row>
-    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="131"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="135"/>
       <c r="E74" s="136"/>
-      <c r="F74" s="44"/>
+      <c r="F74" s="110"/>
       <c r="H74" s="137"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="13"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="133">
+        <v>45051</v>
+      </c>
+      <c r="K74" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="L74" s="84">
+        <v>28000</v>
+      </c>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
       <c r="P74" s="44"/>
       <c r="Q74" s="19"/>
     </row>
-    <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="140" t="s">
+    <row r="75" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="110"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="133"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="135"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="44"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="19"/>
+    </row>
+    <row r="77" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="141">
+      <c r="C77" s="141">
         <f>SUM(C5:C68)</f>
-        <v>1673930.35</v>
-      </c>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143" t="s">
+        <v>2147540.1300000004</v>
+      </c>
+      <c r="D77" s="142"/>
+      <c r="E77" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="144">
+      <c r="F77" s="144">
         <f>SUM(F5:F68)</f>
         <v>4898727</v>
       </c>
-      <c r="G75" s="145"/>
-      <c r="H75" s="143" t="s">
+      <c r="G77" s="145"/>
+      <c r="H77" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="146">
+      <c r="I77" s="146">
         <f>SUM(I5:I68)</f>
         <v>94650</v>
       </c>
-      <c r="J75" s="147"/>
-      <c r="K75" s="148" t="s">
+      <c r="J77" s="147"/>
+      <c r="K77" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="149">
-        <f>SUM(L5:L73)-L26</f>
-        <v>573822.46999999986</v>
-      </c>
-      <c r="M75" s="150"/>
-      <c r="N75" s="150"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="19"/>
-    </row>
-    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="1"/>
-      <c r="H77" s="492" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="493"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="494">
-        <f>I75+L75</f>
-        <v>668472.46999999986</v>
-      </c>
-      <c r="L77" s="495"/>
-      <c r="M77" s="155"/>
-      <c r="N77" s="155"/>
+      <c r="L77" s="149">
+        <f>SUM(L5:L75)-L26</f>
+        <v>645111.38</v>
+      </c>
+      <c r="M77" s="150"/>
+      <c r="N77" s="150"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="486" t="s">
+    <row r="78" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="152"/>
+      <c r="B79" s="153"/>
+      <c r="C79" s="1"/>
+      <c r="H79" s="499" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="500"/>
+      <c r="J79" s="154"/>
+      <c r="K79" s="501">
+        <f>I77+L77</f>
+        <v>739761.38</v>
+      </c>
+      <c r="L79" s="502"/>
+      <c r="M79" s="155"/>
+      <c r="N79" s="155"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="19"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="486"/>
-      <c r="F78" s="156">
-        <f>F75-K77-C75</f>
-        <v>2556324.1800000002</v>
-      </c>
-      <c r="I78" s="157"/>
-      <c r="J78" s="158"/>
-    </row>
-    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="487" t="s">
+      <c r="E80" s="493"/>
+      <c r="F80" s="156">
+        <f>F77-K79-C77</f>
+        <v>2011425.4899999998</v>
+      </c>
+      <c r="I80" s="157"/>
+      <c r="J80" s="158"/>
+    </row>
+    <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D81" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="487"/>
-      <c r="F79" s="101">
+      <c r="E81" s="494"/>
+      <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I79" s="488" t="s">
+      <c r="I81" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="489"/>
-      <c r="K79" s="490">
-        <f>F81+F82+F83</f>
-        <v>3490138.63</v>
-      </c>
-      <c r="L79" s="490"/>
-      <c r="M79" s="159"/>
-      <c r="N79" s="159"/>
-      <c r="O79" s="160"/>
-      <c r="P79" s="159"/>
-      <c r="Q79" s="159"/>
-    </row>
-    <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="161" t="s">
+      <c r="J81" s="496"/>
+      <c r="K81" s="497">
+        <f>F83+F84+F85</f>
+        <v>2945239.9399999995</v>
+      </c>
+      <c r="L81" s="497"/>
+      <c r="M81" s="159"/>
+      <c r="N81" s="159"/>
+      <c r="O81" s="160"/>
+      <c r="P81" s="159"/>
+      <c r="Q81" s="159"/>
+    </row>
+    <row r="82" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D82" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="162"/>
-      <c r="F80" s="163">
+      <c r="E82" s="162"/>
+      <c r="F82" s="163">
         <v>-121598</v>
       </c>
-      <c r="I80" s="164"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="166"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="159"/>
-      <c r="N80" s="159"/>
-      <c r="O80" s="160"/>
-      <c r="P80" s="159"/>
-      <c r="Q80" s="159"/>
-    </row>
-    <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="7" t="s">
+      <c r="I82" s="164"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="167"/>
+      <c r="M82" s="159"/>
+      <c r="N82" s="159"/>
+      <c r="O82" s="160"/>
+      <c r="P82" s="159"/>
+      <c r="Q82" s="159"/>
+    </row>
+    <row r="83" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="152" t="s">
+      <c r="E83" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="150">
-        <f>SUM(F78:F80)</f>
-        <v>413029.84000000008</v>
-      </c>
-      <c r="H81" s="168"/>
-      <c r="I81" s="169" t="s">
+      <c r="F83" s="150">
+        <f>SUM(F80:F82)</f>
+        <v>-131868.85000000033</v>
+      </c>
+      <c r="H83" s="168"/>
+      <c r="I83" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="170"/>
-      <c r="K81" s="491">
+      <c r="J83" s="170"/>
+      <c r="K83" s="498">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L81" s="490"/>
-    </row>
-    <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="171" t="s">
+      <c r="L83" s="497"/>
+    </row>
+    <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="152" t="s">
+      <c r="E84" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="101">
+      <c r="F84" s="101">
         <v>11825</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="172">
+    <row r="85" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D83" s="479" t="s">
+      <c r="D85" s="486" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="480"/>
-      <c r="F83" s="173">
+      <c r="E85" s="487"/>
+      <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I83" s="524" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="525"/>
-      <c r="K83" s="526">
-        <f>K79+K81</f>
-        <v>-77854.990000000224</v>
-      </c>
-      <c r="L83" s="526"/>
-    </row>
-    <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C84" s="174"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="152"/>
-      <c r="F84" s="176"/>
-      <c r="J84" s="177"/>
-    </row>
-    <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="178"/>
-      <c r="J85" s="178"/>
-      <c r="K85" s="179"/>
-      <c r="L85" s="180"/>
-    </row>
-    <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="181"/>
-      <c r="C86" s="182"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="44"/>
-      <c r="I86" s="178"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="179"/>
-      <c r="L86" s="180"/>
-      <c r="M86" s="184"/>
-      <c r="N86" s="152"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="181"/>
-      <c r="C87" s="185"/>
-      <c r="E87" s="44"/>
-      <c r="M87" s="184"/>
-      <c r="N87" s="152"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I85" s="488" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" s="489"/>
+      <c r="K85" s="490">
+        <f>K81+K83</f>
+        <v>-622753.68000000063</v>
+      </c>
+      <c r="L85" s="490"/>
+    </row>
+    <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C86" s="174"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="176"/>
+      <c r="J86" s="177"/>
+    </row>
+    <row r="87" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="178"/>
+      <c r="J87" s="178"/>
+      <c r="K87" s="179"/>
+      <c r="L87" s="180"/>
+    </row>
+    <row r="88" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="181"/>
-      <c r="C88" s="185"/>
+      <c r="C88" s="182"/>
+      <c r="D88" s="183"/>
       <c r="E88" s="44"/>
-      <c r="F88" s="186"/>
-      <c r="L88" s="187"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I88" s="178"/>
+      <c r="J88" s="178"/>
+      <c r="K88" s="179"/>
+      <c r="L88" s="180"/>
+      <c r="M88" s="184"/>
+      <c r="N88" s="152"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="181"/>
       <c r="C89" s="185"/>
       <c r="E89" s="44"/>
-      <c r="F89" s="186"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M89" s="184"/>
+      <c r="N89" s="152"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="181"/>
       <c r="C90" s="185"/>
-      <c r="D90" s="188"/>
       <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="186"/>
+      <c r="L90" s="187"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D91" s="188"/>
-      <c r="E91" s="190"/>
-      <c r="F91" s="44"/>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="181"/>
+      <c r="C91" s="185"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="186"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="181"/>
+      <c r="C92" s="185"/>
       <c r="D92" s="188"/>
-      <c r="E92" s="190"/>
+      <c r="E92" s="44"/>
       <c r="F92" s="44"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D93" s="188"/>
       <c r="E93" s="190"/>
       <c r="F93" s="44"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D94" s="188"/>
       <c r="E94" s="190"/>
-      <c r="F94" s="454"/>
+      <c r="F94" s="44"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D95" s="188"/>
       <c r="E95" s="190"/>
-      <c r="F95" s="454"/>
+      <c r="F95" s="44"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D96" s="188"/>
       <c r="E96" s="190"/>
       <c r="F96" s="454"/>
@@ -31752,13 +32709,13 @@
     <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" s="188"/>
       <c r="E97" s="190"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="454"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98" s="188"/>
       <c r="E98" s="190"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="454"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.25">
@@ -31783,39 +32740,54 @@
       <c r="D102" s="188"/>
       <c r="E102" s="190"/>
       <c r="F102" s="44"/>
+      <c r="M102" s="1"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103" s="188"/>
-      <c r="E103" s="191"/>
-      <c r="F103" s="189"/>
+      <c r="E103" s="190"/>
+      <c r="F103" s="44"/>
+      <c r="M103" s="1"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104" s="188"/>
-      <c r="E104" s="191"/>
-      <c r="F104" s="189"/>
+      <c r="E104" s="190"/>
+      <c r="F104" s="44"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" s="188"/>
       <c r="E105" s="191"/>
       <c r="F105" s="189"/>
     </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D106" s="188"/>
+      <c r="E106" s="191"/>
+      <c r="F106" s="189"/>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D107" s="188"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="189"/>
+    </row>
   </sheetData>
+  <sortState ref="B45:D61">
+    <sortCondition ref="B45:B61"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -31838,11 +32810,11 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31933,11 +32905,15 @@
       <c r="D3" s="217">
         <v>34903.599999999999</v>
       </c>
-      <c r="E3" s="218"/>
-      <c r="F3" s="217"/>
+      <c r="E3" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F3" s="217">
+        <v>34903.599999999999</v>
+      </c>
       <c r="G3" s="219">
         <f>D3-F3</f>
-        <v>34903.599999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" s="433">
         <v>45015</v>
@@ -31969,11 +32945,15 @@
       <c r="D4" s="101">
         <v>16449.68</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F4" s="101">
+        <v>16449.68</v>
+      </c>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>16449.68</v>
+        <v>0</v>
       </c>
       <c r="H4" s="226"/>
       <c r="I4" s="433">
@@ -32006,11 +32986,15 @@
       <c r="D5" s="101">
         <v>14657.2</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="101"/>
+      <c r="E5" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F5" s="101">
+        <v>14657.2</v>
+      </c>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>14657.2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="433">
         <v>45019</v>
@@ -32042,11 +33026,15 @@
       <c r="D6" s="101">
         <v>45544.1</v>
       </c>
-      <c r="E6" s="224"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F6" s="101">
+        <v>45544.1</v>
+      </c>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>45544.1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="433">
         <v>45020</v>
@@ -32078,11 +33066,15 @@
       <c r="D7" s="101">
         <v>94764.46</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="101"/>
+      <c r="E7" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F7" s="101">
+        <v>94764.46</v>
+      </c>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>94764.46</v>
+        <v>0</v>
       </c>
       <c r="I7" s="433">
         <v>45021</v>
@@ -32114,11 +33106,15 @@
       <c r="D8" s="101">
         <v>23097.02</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F8" s="101">
+        <v>23097.02</v>
+      </c>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>23097.02</v>
+        <v>0</v>
       </c>
       <c r="I8" s="433">
         <v>45022</v>
@@ -32150,11 +33146,15 @@
       <c r="D9" s="101">
         <v>3175.2</v>
       </c>
-      <c r="E9" s="224"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F9" s="101">
+        <v>3175.2</v>
+      </c>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>3175.2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="434">
         <v>45022</v>
@@ -32186,11 +33186,15 @@
       <c r="D10" s="101">
         <v>73049.7</v>
       </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="101"/>
+      <c r="E10" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F10" s="101">
+        <v>73049.7</v>
+      </c>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>73049.7</v>
+        <v>0</v>
       </c>
       <c r="H10" s="226"/>
       <c r="I10" s="433">
@@ -32223,11 +33227,15 @@
       <c r="D11" s="101">
         <v>5922.8</v>
       </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="101"/>
+      <c r="E11" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F11" s="101">
+        <v>5922.8</v>
+      </c>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>5922.8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="434">
         <v>45026</v>
@@ -32259,11 +33267,16 @@
       <c r="D12" s="101">
         <v>136684.1</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="101"/>
+      <c r="E12" s="218">
+        <v>45057</v>
+      </c>
+      <c r="F12" s="101">
+        <f>117963.3</f>
+        <v>117963.3</v>
+      </c>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>136684.1</v>
+        <v>18720.800000000003</v>
       </c>
       <c r="I12" s="434">
         <v>45028</v>
@@ -33101,10 +34114,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="509"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="511"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="517"/>
+      <c r="K36" s="517"/>
+      <c r="L36" s="518"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -33127,10 +34140,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="509"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="511"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="517"/>
+      <c r="K37" s="517"/>
+      <c r="L37" s="518"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -33190,25 +34203,25 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="464">
+      <c r="B40" s="462">
         <v>45048</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="463" t="s">
         <v>501</v>
       </c>
-      <c r="D40" s="466">
+      <c r="D40" s="464">
         <v>10162.64</v>
       </c>
-      <c r="E40" s="467"/>
+      <c r="E40" s="465"/>
       <c r="F40" s="84"/>
       <c r="G40" s="101">
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="512" t="s">
+      <c r="I40" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="513"/>
+      <c r="J40" s="520"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -33233,8 +34246,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="514"/>
-      <c r="J41" s="515"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -33259,8 +34272,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="I42" s="523"/>
+      <c r="J42" s="524"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33776,16 +34789,16 @@
       <c r="E67" s="261"/>
       <c r="F67" s="262">
         <f>SUM(F3:F66)</f>
-        <v>0</v>
+        <v>429527.05999999994</v>
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>2021696.34</v>
-      </c>
-      <c r="I67" s="518" t="s">
+        <v>1592169.2799999998</v>
+      </c>
+      <c r="I67" s="525" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="519"/>
+      <c r="J67" s="526"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -33805,11 +34818,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="522" t="s">
+      <c r="G68" s="529" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="527"/>
-      <c r="J68" s="528"/>
+      <c r="I68" s="534"/>
+      <c r="J68" s="535"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33820,7 +34833,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="523"/>
+      <c r="G69" s="530"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -33979,10 +34992,10 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="460"/>
-      <c r="C81" s="461"/>
+      <c r="B81" s="458"/>
+      <c r="C81" s="459"/>
       <c r="D81" s="108"/>
-      <c r="E81" s="462"/>
+      <c r="E81" s="460"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -33991,7 +35004,7 @@
     </row>
     <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="235"/>
-      <c r="C82" s="463"/>
+      <c r="C82" s="461"/>
       <c r="D82" s="290"/>
       <c r="E82" s="237"/>
       <c r="I82"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/BALANCE  ZAVALETA   Mayo   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3918,7 +3918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4809,6 +4809,65 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4884,39 +4943,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4983,32 +5009,7 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="11" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="18" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5018,9 +5019,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
@@ -7526,8 +7527,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7553,23 +7554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -7579,27 +7580,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="507" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="554" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7614,14 +7615,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -7631,11 +7632,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="508"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="537"/>
+      <c r="R4" s="555"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -8917,7 +8918,7 @@
       <c r="R30" s="46">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="556" t="s">
         <v>553</v>
       </c>
     </row>
@@ -9374,12 +9375,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="69">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="45">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="R42" s="46">
         <v>0</v>
@@ -9411,12 +9411,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="69">
-        <f t="shared" si="0"/>
-        <v>150477.5</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="45">
         <f t="shared" si="1"/>
-        <v>150477.5</v>
+        <v>0</v>
       </c>
       <c r="R43" s="46">
         <v>0</v>
@@ -9640,11 +9639,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="520">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="520">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -9652,7 +9651,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="532">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -9685,10 +9684,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="521"/>
+      <c r="N50" s="521"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="533"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -9767,11 +9766,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="505">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="506"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10250,26 +10249,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="529"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="530">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="531"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="522"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -10278,22 +10277,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="523"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="525"/>
+      <c r="K79" s="526">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="526"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10334,11 +10333,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="527">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="526"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10355,22 +10354,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="516"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="531" t="s">
+      <c r="I83" s="549" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="532"/>
-      <c r="K83" s="533">
+      <c r="J83" s="550"/>
+      <c r="K83" s="551">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="533"/>
+      <c r="L83" s="551"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10518,12 +10517,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10540,6 +10533,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10653,13 +10652,13 @@
         <f>D3-F3</f>
         <v>18569.32</v>
       </c>
-      <c r="I3" s="539" t="s">
+      <c r="I3" s="481" t="s">
         <v>618</v>
       </c>
-      <c r="J3" s="540">
+      <c r="J3" s="482">
         <v>12261</v>
       </c>
-      <c r="K3" s="541">
+      <c r="K3" s="483">
         <v>600</v>
       </c>
       <c r="L3" s="218"/>
@@ -10686,13 +10685,13 @@
         <v>166027.72</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="539" t="s">
+      <c r="I4" s="481" t="s">
         <v>618</v>
       </c>
-      <c r="J4" s="540">
+      <c r="J4" s="482">
         <v>12264</v>
       </c>
-      <c r="K4" s="541">
+      <c r="K4" s="483">
         <v>1080</v>
       </c>
       <c r="L4" s="218"/>
@@ -10718,13 +10717,13 @@
         <f t="shared" si="0"/>
         <v>52912.7</v>
       </c>
-      <c r="I5" s="539" t="s">
+      <c r="I5" s="481" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="540">
+      <c r="J5" s="482">
         <v>12276</v>
       </c>
-      <c r="K5" s="541">
+      <c r="K5" s="483">
         <v>360</v>
       </c>
       <c r="L5" s="218"/>
@@ -10750,13 +10749,13 @@
         <f t="shared" si="0"/>
         <v>3660.8</v>
       </c>
-      <c r="I6" s="542" t="s">
+      <c r="I6" s="484" t="s">
         <v>620</v>
       </c>
-      <c r="J6" s="543">
+      <c r="J6" s="485">
         <v>12298</v>
       </c>
-      <c r="K6" s="544">
+      <c r="K6" s="486">
         <v>480</v>
       </c>
       <c r="L6" s="218"/>
@@ -10782,13 +10781,13 @@
         <f t="shared" si="0"/>
         <v>158756.93</v>
       </c>
-      <c r="I7" s="539" t="s">
+      <c r="I7" s="481" t="s">
         <v>621</v>
       </c>
-      <c r="J7" s="540">
+      <c r="J7" s="482">
         <v>12313</v>
       </c>
-      <c r="K7" s="541">
+      <c r="K7" s="483">
         <v>16911</v>
       </c>
       <c r="L7" s="218"/>
@@ -10814,13 +10813,13 @@
         <f t="shared" si="0"/>
         <v>12258</v>
       </c>
-      <c r="I8" s="542" t="s">
+      <c r="I8" s="484" t="s">
         <v>622</v>
       </c>
-      <c r="J8" s="543">
+      <c r="J8" s="485">
         <v>12321</v>
       </c>
-      <c r="K8" s="544">
+      <c r="K8" s="486">
         <v>600</v>
       </c>
       <c r="L8" s="218"/>
@@ -10846,13 +10845,13 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I9" s="539" t="s">
+      <c r="I9" s="481" t="s">
         <v>623</v>
       </c>
-      <c r="J9" s="540">
+      <c r="J9" s="482">
         <v>12333</v>
       </c>
-      <c r="K9" s="541">
+      <c r="K9" s="483">
         <v>11397</v>
       </c>
       <c r="L9" s="218"/>
@@ -10879,13 +10878,13 @@
         <v>30247.48</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="539" t="s">
+      <c r="I10" s="481" t="s">
         <v>624</v>
       </c>
-      <c r="J10" s="540">
+      <c r="J10" s="482">
         <v>12347</v>
       </c>
-      <c r="K10" s="541">
+      <c r="K10" s="483">
         <v>4430</v>
       </c>
       <c r="L10" s="218"/>
@@ -10911,13 +10910,13 @@
         <f t="shared" si="0"/>
         <v>103232.65</v>
       </c>
-      <c r="I11" s="539" t="s">
+      <c r="I11" s="481" t="s">
         <v>625</v>
       </c>
-      <c r="J11" s="540">
+      <c r="J11" s="482">
         <v>12353</v>
       </c>
-      <c r="K11" s="541">
+      <c r="K11" s="483">
         <v>10761</v>
       </c>
       <c r="L11" s="218"/>
@@ -10943,13 +10942,13 @@
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="I12" s="542" t="s">
+      <c r="I12" s="484" t="s">
         <v>626</v>
       </c>
-      <c r="J12" s="543">
+      <c r="J12" s="485">
         <v>12364</v>
       </c>
-      <c r="K12" s="544">
+      <c r="K12" s="486">
         <v>480</v>
       </c>
       <c r="L12" s="218"/>
@@ -10975,13 +10974,13 @@
         <f t="shared" si="0"/>
         <v>54274.8</v>
       </c>
-      <c r="I13" s="539" t="s">
+      <c r="I13" s="481" t="s">
         <v>626</v>
       </c>
-      <c r="J13" s="540">
+      <c r="J13" s="482">
         <v>12367</v>
       </c>
-      <c r="K13" s="541">
+      <c r="K13" s="483">
         <v>480</v>
       </c>
       <c r="L13" s="218"/>
@@ -11007,13 +11006,13 @@
         <f t="shared" si="0"/>
         <v>8620</v>
       </c>
-      <c r="I14" s="542" t="s">
+      <c r="I14" s="484" t="s">
         <v>627</v>
       </c>
-      <c r="J14" s="543">
+      <c r="J14" s="485">
         <v>12380</v>
       </c>
-      <c r="K14" s="544">
+      <c r="K14" s="486">
         <v>6571</v>
       </c>
       <c r="L14" s="218"/>
@@ -11039,13 +11038,13 @@
         <f t="shared" si="0"/>
         <v>24697.4</v>
       </c>
-      <c r="I15" s="542" t="s">
+      <c r="I15" s="484" t="s">
         <v>628</v>
       </c>
-      <c r="J15" s="543">
+      <c r="J15" s="485">
         <v>12392</v>
       </c>
-      <c r="K15" s="544">
+      <c r="K15" s="486">
         <v>480</v>
       </c>
       <c r="L15" s="218"/>
@@ -11071,13 +11070,13 @@
         <f t="shared" si="0"/>
         <v>61419.82</v>
       </c>
-      <c r="I16" s="542" t="s">
+      <c r="I16" s="484" t="s">
         <v>629</v>
       </c>
-      <c r="J16" s="543">
+      <c r="J16" s="485">
         <v>12402</v>
       </c>
-      <c r="K16" s="544">
+      <c r="K16" s="486">
         <v>360</v>
       </c>
       <c r="L16" s="218"/>
@@ -11103,13 +11102,13 @@
         <f t="shared" si="0"/>
         <v>2357.4</v>
       </c>
-      <c r="I17" s="539" t="s">
+      <c r="I17" s="481" t="s">
         <v>630</v>
       </c>
-      <c r="J17" s="540">
+      <c r="J17" s="482">
         <v>12416</v>
       </c>
-      <c r="K17" s="541">
+      <c r="K17" s="483">
         <v>12027</v>
       </c>
       <c r="L17" s="218"/>
@@ -11135,13 +11134,13 @@
         <f t="shared" si="0"/>
         <v>63432.5</v>
       </c>
-      <c r="I18" s="542" t="s">
+      <c r="I18" s="484" t="s">
         <v>631</v>
       </c>
-      <c r="J18" s="543">
+      <c r="J18" s="485">
         <v>12423</v>
       </c>
-      <c r="K18" s="544">
+      <c r="K18" s="486">
         <v>2280</v>
       </c>
       <c r="L18" s="218"/>
@@ -11167,13 +11166,13 @@
         <f t="shared" si="0"/>
         <v>165937.60000000001</v>
       </c>
-      <c r="I19" s="542" t="s">
+      <c r="I19" s="484" t="s">
         <v>632</v>
       </c>
-      <c r="J19" s="543">
+      <c r="J19" s="485">
         <v>12432</v>
       </c>
-      <c r="K19" s="544">
+      <c r="K19" s="486">
         <v>600</v>
       </c>
       <c r="L19" s="218"/>
@@ -11199,13 +11198,13 @@
         <f t="shared" si="0"/>
         <v>13421.83</v>
       </c>
-      <c r="I20" s="542" t="s">
+      <c r="I20" s="484" t="s">
         <v>633</v>
       </c>
-      <c r="J20" s="543">
+      <c r="J20" s="485">
         <v>12444</v>
       </c>
-      <c r="K20" s="544">
+      <c r="K20" s="486">
         <v>7284</v>
       </c>
       <c r="L20" s="218"/>
@@ -11231,13 +11230,13 @@
         <f t="shared" si="0"/>
         <v>5354.9</v>
       </c>
-      <c r="I21" s="539" t="s">
+      <c r="I21" s="481" t="s">
         <v>634</v>
       </c>
-      <c r="J21" s="540">
+      <c r="J21" s="482">
         <v>12451</v>
       </c>
-      <c r="K21" s="541">
+      <c r="K21" s="483">
         <v>11020</v>
       </c>
       <c r="L21" s="218"/>
@@ -11264,13 +11263,13 @@
         <v>26457.8</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="539" t="s">
+      <c r="I22" s="481" t="s">
         <v>635</v>
       </c>
-      <c r="J22" s="540">
+      <c r="J22" s="482">
         <v>12457</v>
       </c>
-      <c r="K22" s="541">
+      <c r="K22" s="483">
         <v>600</v>
       </c>
       <c r="L22" s="218"/>
@@ -11297,13 +11296,13 @@
         <v>60739.7</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="542" t="s">
+      <c r="I23" s="484" t="s">
         <v>636</v>
       </c>
-      <c r="J23" s="543">
+      <c r="J23" s="485">
         <v>12470</v>
       </c>
-      <c r="K23" s="544">
+      <c r="K23" s="486">
         <v>600</v>
       </c>
       <c r="L23" s="218"/>
@@ -11330,13 +11329,13 @@
         <v>163058.22</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="539" t="s">
+      <c r="I24" s="481" t="s">
         <v>637</v>
       </c>
-      <c r="J24" s="540">
+      <c r="J24" s="482">
         <v>12492</v>
       </c>
-      <c r="K24" s="541">
+      <c r="K24" s="483">
         <v>6775</v>
       </c>
       <c r="L24" s="218"/>
@@ -11363,13 +11362,13 @@
         <v>53231.9</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="539" t="s">
+      <c r="I25" s="481" t="s">
         <v>638</v>
       </c>
-      <c r="J25" s="540">
+      <c r="J25" s="482">
         <v>12510</v>
       </c>
-      <c r="K25" s="541">
+      <c r="K25" s="483">
         <v>480</v>
       </c>
       <c r="L25" s="218"/>
@@ -11396,13 +11395,13 @@
         <v>5658.8</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="539" t="s">
+      <c r="I26" s="481" t="s">
         <v>639</v>
       </c>
-      <c r="J26" s="540">
+      <c r="J26" s="482">
         <v>12521</v>
       </c>
-      <c r="K26" s="541">
+      <c r="K26" s="483">
         <v>16589</v>
       </c>
       <c r="L26" s="218"/>
@@ -11429,13 +11428,13 @@
         <v>35645.64</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="539" t="s">
+      <c r="I27" s="481" t="s">
         <v>640</v>
       </c>
-      <c r="J27" s="540">
+      <c r="J27" s="482">
         <v>12528</v>
       </c>
-      <c r="K27" s="541">
+      <c r="K27" s="483">
         <v>720</v>
       </c>
       <c r="L27" s="218"/>
@@ -11663,10 +11662,10 @@
         <f t="shared" si="0"/>
         <v>5247</v>
       </c>
-      <c r="I35" s="545"/>
-      <c r="J35" s="546"/>
+      <c r="I35" s="487"/>
+      <c r="J35" s="488"/>
       <c r="K35" s="219"/>
-      <c r="L35" s="547"/>
+      <c r="L35" s="489"/>
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
@@ -11689,10 +11688,10 @@
         <f t="shared" si="0"/>
         <v>7780.4</v>
       </c>
-      <c r="I36" s="549"/>
-      <c r="J36" s="549"/>
-      <c r="K36" s="549"/>
-      <c r="L36" s="549"/>
+      <c r="I36" s="491"/>
+      <c r="J36" s="491"/>
+      <c r="K36" s="491"/>
+      <c r="L36" s="491"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -11709,12 +11708,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="519" t="s">
+      <c r="I37" s="537" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="520"/>
-      <c r="K37" s="549"/>
-      <c r="L37" s="549"/>
+      <c r="J37" s="538"/>
+      <c r="K37" s="491"/>
+      <c r="L37" s="491"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -11731,9 +11730,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="521"/>
-      <c r="J38" s="522"/>
-      <c r="K38" s="548"/>
+      <c r="I38" s="539"/>
+      <c r="J38" s="540"/>
+      <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
       <c r="N38" s="227">
@@ -11751,8 +11750,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="523"/>
-      <c r="J39" s="524"/>
+      <c r="I39" s="541"/>
+      <c r="J39" s="542"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12310,10 +12309,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="525" t="s">
+      <c r="I67" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="526"/>
+      <c r="J67" s="544"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12330,16 +12329,16 @@
     </row>
     <row r="68" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="267"/>
-      <c r="D68" s="538" t="s">
+      <c r="D68" s="480" t="s">
         <v>617</v>
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="529" t="s">
+      <c r="G68" s="547" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="534"/>
-      <c r="J68" s="535"/>
+      <c r="I68" s="552"/>
+      <c r="J68" s="553"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12350,7 +12349,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="530"/>
+      <c r="G69" s="548"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -12399,7 +12398,7 @@
       <c r="F73"/>
       <c r="H73" s="233"/>
       <c r="I73" s="303"/>
-      <c r="J73" s="550"/>
+      <c r="J73" s="492"/>
       <c r="K73" s="304"/>
       <c r="L73" s="304"/>
       <c r="M73" s="299"/>
@@ -12412,7 +12411,7 @@
       <c r="F74"/>
       <c r="H74" s="233"/>
       <c r="I74" s="191"/>
-      <c r="J74" s="550"/>
+      <c r="J74" s="492"/>
       <c r="K74" s="415"/>
       <c r="L74" s="304"/>
       <c r="M74" s="299"/>
@@ -12449,7 +12448,7 @@
       <c r="I77" s="188"/>
       <c r="J77" s="188"/>
       <c r="K77" s="415"/>
-      <c r="L77" s="551"/>
+      <c r="L77" s="493"/>
       <c r="M77" s="299"/>
       <c r="N77"/>
     </row>
@@ -12950,23 +12949,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12976,24 +12975,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="507" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="509" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13008,14 +13007,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13025,11 +13024,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="508"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="481"/>
+      <c r="R4" s="510"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -14864,11 +14863,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="491">
+      <c r="M49" s="520">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="520">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -14876,7 +14875,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="532">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -14897,10 +14896,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="521"/>
+      <c r="N50" s="521"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="533"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14955,11 +14954,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="505">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="506"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15384,26 +15383,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="529"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="530">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="531"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="522"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -15412,22 +15411,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="523"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="525"/>
+      <c r="K79" s="526">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="526"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15468,11 +15467,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="527">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="526"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -15489,22 +15488,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="516"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="488" t="s">
+      <c r="I83" s="517" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="489"/>
-      <c r="K83" s="490">
+      <c r="J83" s="518"/>
+      <c r="K83" s="519">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="490"/>
+      <c r="L83" s="519"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15651,12 +15650,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15673,6 +15666,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17049,10 +17048,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="516"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="517"/>
-      <c r="L36" s="518"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="535"/>
+      <c r="L36" s="536"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -17079,10 +17078,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="516"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="517"/>
-      <c r="L37" s="518"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="535"/>
+      <c r="L37" s="536"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -17139,10 +17138,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="519" t="s">
+      <c r="I40" s="537" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="520"/>
+      <c r="J40" s="538"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -17161,8 +17160,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="521"/>
-      <c r="J41" s="522"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -17181,8 +17180,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="523"/>
-      <c r="J42" s="524"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -17686,10 +17685,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="525" t="s">
+      <c r="I67" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="526"/>
+      <c r="J67" s="544"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -17709,11 +17708,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="529" t="s">
+      <c r="G68" s="547" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="527"/>
-      <c r="J68" s="528"/>
+      <c r="I68" s="545"/>
+      <c r="J68" s="546"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17724,7 +17723,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="530"/>
+      <c r="G69" s="548"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -18355,23 +18354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -18381,24 +18380,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="507" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="509" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18413,14 +18412,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -18430,11 +18429,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="508"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="481"/>
+      <c r="R4" s="510"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -20410,11 +20409,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="520">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="520">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -20422,7 +20421,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="532">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -20455,10 +20454,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="521"/>
+      <c r="N50" s="521"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="533"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -20549,11 +20548,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="505">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="506"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21112,26 +21111,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="529"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="530">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="531"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="522"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -21140,22 +21139,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="523"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="525"/>
+      <c r="K79" s="526">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="526"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -21196,11 +21195,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="527">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="526"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -21217,22 +21216,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="516"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="531" t="s">
+      <c r="I83" s="549" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="532"/>
-      <c r="K83" s="533">
+      <c r="J83" s="550"/>
+      <c r="K83" s="551">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="533"/>
+      <c r="L83" s="551"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -21379,6 +21378,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21395,12 +21400,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22812,10 +22811,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="516"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="517"/>
-      <c r="L36" s="518"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="535"/>
+      <c r="L36" s="536"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -22842,10 +22841,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="516"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="517"/>
-      <c r="L37" s="518"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="535"/>
+      <c r="L37" s="536"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -22912,10 +22911,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="519" t="s">
+      <c r="I40" s="537" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="520"/>
+      <c r="J40" s="538"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -22934,8 +22933,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="521"/>
-      <c r="J41" s="522"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -22954,8 +22953,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="523"/>
-      <c r="J42" s="524"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -23459,10 +23458,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="525" t="s">
+      <c r="I67" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="526"/>
+      <c r="J67" s="544"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -23482,11 +23481,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="529" t="s">
+      <c r="G68" s="547" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="534"/>
-      <c r="J68" s="535"/>
+      <c r="I68" s="552"/>
+      <c r="J68" s="553"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -23497,7 +23496,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="530"/>
+      <c r="G69" s="548"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -24112,23 +24111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -24138,24 +24137,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="507" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="554" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24170,14 +24169,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -24187,11 +24186,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="508"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="537"/>
+      <c r="R4" s="555"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -26172,11 +26171,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="520">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="520">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -26184,7 +26183,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="532">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -26217,10 +26216,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="521"/>
+      <c r="N50" s="521"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="533"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -26311,11 +26310,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="505">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="506"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -26794,26 +26793,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="499" t="s">
+      <c r="H77" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="500"/>
+      <c r="I77" s="529"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="501">
+      <c r="K77" s="530">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="502"/>
+      <c r="L77" s="531"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="493" t="s">
+      <c r="D78" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="493"/>
+      <c r="E78" s="522"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -26822,22 +26821,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="494" t="s">
+      <c r="D79" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="494"/>
+      <c r="E79" s="523"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="495" t="s">
+      <c r="I79" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="496"/>
-      <c r="K79" s="497">
+      <c r="J79" s="525"/>
+      <c r="K79" s="526">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="497"/>
+      <c r="L79" s="526"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -26878,11 +26877,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="498">
+      <c r="K81" s="527">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="526"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -26899,22 +26898,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="486" t="s">
+      <c r="D83" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="487"/>
+      <c r="E83" s="516"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="488" t="s">
+      <c r="I83" s="517" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="489"/>
-      <c r="K83" s="490">
+      <c r="J83" s="518"/>
+      <c r="K83" s="519">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="490"/>
+      <c r="L83" s="519"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -27061,12 +27060,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -27083,6 +27076,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28038,10 +28037,10 @@
       <c r="D24" s="101">
         <v>60713.06</v>
       </c>
-      <c r="E24" s="552">
+      <c r="E24" s="494">
         <v>45049</v>
       </c>
-      <c r="F24" s="553">
+      <c r="F24" s="495">
         <v>60713.06</v>
       </c>
       <c r="G24" s="225">
@@ -28079,10 +28078,10 @@
       <c r="D25" s="101">
         <v>89935.7</v>
       </c>
-      <c r="E25" s="552">
+      <c r="E25" s="494">
         <v>45049</v>
       </c>
-      <c r="F25" s="553">
+      <c r="F25" s="495">
         <v>89935.7</v>
       </c>
       <c r="G25" s="225">
@@ -28120,10 +28119,10 @@
       <c r="D26" s="101">
         <v>6879.4</v>
       </c>
-      <c r="E26" s="552">
+      <c r="E26" s="494">
         <v>45049</v>
       </c>
-      <c r="F26" s="553">
+      <c r="F26" s="495">
         <v>6879.4</v>
       </c>
       <c r="G26" s="225">
@@ -28151,10 +28150,10 @@
       <c r="D27" s="101">
         <v>5900.8</v>
       </c>
-      <c r="E27" s="552">
+      <c r="E27" s="494">
         <v>45049</v>
       </c>
-      <c r="F27" s="553">
+      <c r="F27" s="495">
         <v>5900.8</v>
       </c>
       <c r="G27" s="225">
@@ -28182,10 +28181,10 @@
       <c r="D28" s="101">
         <v>15687.72</v>
       </c>
-      <c r="E28" s="552">
+      <c r="E28" s="494">
         <v>45049</v>
       </c>
-      <c r="F28" s="553">
+      <c r="F28" s="495">
         <v>15687.72</v>
       </c>
       <c r="G28" s="225">
@@ -28213,10 +28212,10 @@
       <c r="D29" s="101">
         <v>3153.6</v>
       </c>
-      <c r="E29" s="552">
+      <c r="E29" s="494">
         <v>45049</v>
       </c>
-      <c r="F29" s="553">
+      <c r="F29" s="495">
         <v>3153.6</v>
       </c>
       <c r="G29" s="225">
@@ -28245,10 +28244,10 @@
       <c r="D30" s="101">
         <v>130884.16</v>
       </c>
-      <c r="E30" s="554" t="s">
+      <c r="E30" s="496" t="s">
         <v>641</v>
       </c>
-      <c r="F30" s="553">
+      <c r="F30" s="495">
         <f>97051.72+33832.44</f>
         <v>130884.16</v>
       </c>
@@ -28385,10 +28384,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="516"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="517"/>
-      <c r="L36" s="518"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="535"/>
+      <c r="L36" s="536"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -28405,10 +28404,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="516"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="517"/>
-      <c r="L37" s="518"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="535"/>
+      <c r="L37" s="536"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -28465,10 +28464,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="519" t="s">
+      <c r="I40" s="537" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="520"/>
+      <c r="J40" s="538"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -28487,8 +28486,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="521"/>
-      <c r="J41" s="522"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -28507,8 +28506,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="523"/>
-      <c r="J42" s="524"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -29012,10 +29011,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="525" t="s">
+      <c r="I67" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="526"/>
+      <c r="J67" s="544"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -29035,11 +29034,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="529" t="s">
+      <c r="G68" s="547" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="534"/>
-      <c r="J68" s="535"/>
+      <c r="I68" s="552"/>
+      <c r="J68" s="553"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -29050,7 +29049,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="530"/>
+      <c r="G69" s="548"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -29108,7 +29107,7 @@
     <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C74" s="301"/>
       <c r="D74" s="189"/>
-      <c r="E74" s="555"/>
+      <c r="E74" s="497"/>
       <c r="F74"/>
       <c r="H74" s="233"/>
       <c r="I74" s="417" t="s">
@@ -29125,7 +29124,7 @@
     <row r="75" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C75" s="301"/>
       <c r="D75" s="108"/>
-      <c r="E75" s="555"/>
+      <c r="E75" s="497"/>
       <c r="H75" s="233"/>
       <c r="I75" s="427" t="s">
         <v>486</v>
@@ -29141,7 +29140,7 @@
     <row r="76" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="301"/>
       <c r="D76" s="108"/>
-      <c r="E76" s="555"/>
+      <c r="E76" s="497"/>
       <c r="H76" s="233"/>
       <c r="I76" s="420"/>
       <c r="J76" s="414"/>
@@ -29155,7 +29154,7 @@
     <row r="77" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C77" s="301"/>
       <c r="D77" s="108"/>
-      <c r="E77" s="555"/>
+      <c r="E77" s="497"/>
       <c r="I77" s="429">
         <v>45005</v>
       </c>
@@ -29171,7 +29170,7 @@
     <row r="78" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C78" s="301"/>
       <c r="D78" s="108"/>
-      <c r="E78" s="555"/>
+      <c r="E78" s="497"/>
       <c r="I78" s="423"/>
       <c r="J78" s="424"/>
       <c r="K78" s="425"/>
@@ -29182,7 +29181,7 @@
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="301"/>
       <c r="D79" s="108"/>
-      <c r="E79" s="555"/>
+      <c r="E79" s="497"/>
       <c r="I79" s="299"/>
       <c r="J79" s="299"/>
       <c r="K79" s="299"/>
@@ -29193,7 +29192,7 @@
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="301"/>
       <c r="D80" s="108"/>
-      <c r="E80" s="555"/>
+      <c r="E80" s="497"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -29201,9 +29200,9 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="550"/>
+      <c r="C81" s="492"/>
       <c r="D81" s="108"/>
-      <c r="E81" s="555"/>
+      <c r="E81" s="497"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -29211,9 +29210,9 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C82" s="550"/>
+      <c r="C82" s="492"/>
       <c r="D82" s="108"/>
-      <c r="E82" s="555"/>
+      <c r="E82" s="497"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -29221,9 +29220,9 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="550"/>
+      <c r="C83" s="492"/>
       <c r="D83" s="108"/>
-      <c r="E83" s="555"/>
+      <c r="E83" s="497"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -29656,23 +29655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="509"/>
-      <c r="C1" s="511" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="504" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="510"/>
+      <c r="B2" s="503"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -29682,24 +29681,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="513" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="514"/>
+      <c r="B3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="507"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="515"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="507" t="s">
+      <c r="P3" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="554" t="s">
         <v>3</v>
       </c>
     </row>
@@ -29714,14 +29713,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="511" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="483"/>
-      <c r="H4" s="484" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="485"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -29731,11 +29730,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="508"/>
+      <c r="P4" s="501"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="537"/>
+      <c r="R4" s="555"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -31756,11 +31755,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="491">
+      <c r="M49" s="520">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="491">
+      <c r="N49" s="520">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -31768,7 +31767,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="503">
+      <c r="Q49" s="532">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -31795,10 +31794,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="492"/>
-      <c r="N50" s="492"/>
+      <c r="M50" s="521"/>
+      <c r="N50" s="521"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="504"/>
+      <c r="Q50" s="533"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -31872,11 +31871,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="505">
+      <c r="M53" s="498">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="506"/>
+      <c r="N53" s="499"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -32505,26 +32504,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="499" t="s">
+      <c r="H79" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="500"/>
+      <c r="I79" s="529"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="501">
+      <c r="K79" s="530">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="502"/>
+      <c r="L79" s="531"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="493" t="s">
+      <c r="D80" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="493"/>
+      <c r="E80" s="522"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -32533,22 +32532,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="494" t="s">
+      <c r="D81" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="494"/>
+      <c r="E81" s="523"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="495" t="s">
+      <c r="I81" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="496"/>
-      <c r="K81" s="497">
+      <c r="J81" s="525"/>
+      <c r="K81" s="526">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="497"/>
+      <c r="L81" s="526"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -32589,11 +32588,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="498">
+      <c r="K83" s="527">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="497"/>
+      <c r="L83" s="526"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -32610,22 +32609,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="486" t="s">
+      <c r="D85" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="487"/>
+      <c r="E85" s="516"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="488" t="s">
+      <c r="I85" s="517" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="489"/>
-      <c r="K85" s="490">
+      <c r="J85" s="518"/>
+      <c r="K85" s="519">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="490"/>
+      <c r="L85" s="519"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -32773,6 +32772,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32789,12 +32794,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32810,8 +32809,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
@@ -34114,10 +34113,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="516"/>
-      <c r="J36" s="517"/>
-      <c r="K36" s="517"/>
-      <c r="L36" s="518"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="535"/>
+      <c r="L36" s="536"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -34140,10 +34139,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="516"/>
-      <c r="J37" s="517"/>
-      <c r="K37" s="517"/>
-      <c r="L37" s="518"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="535"/>
+      <c r="L37" s="536"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -34218,10 +34217,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="519" t="s">
+      <c r="I40" s="537" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="520"/>
+      <c r="J40" s="538"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -34246,8 +34245,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="521"/>
-      <c r="J41" s="522"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -34272,8 +34271,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="523"/>
-      <c r="J42" s="524"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -34795,10 +34794,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="525" t="s">
+      <c r="I67" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="526"/>
+      <c r="J67" s="544"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -34818,11 +34817,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="529" t="s">
+      <c r="G68" s="547" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="534"/>
-      <c r="J68" s="535"/>
+      <c r="I68" s="552"/>
+      <c r="J68" s="553"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -34833,7 +34832,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="530"/>
+      <c r="G69" s="548"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
